--- a/Documents/Detail Design/manager/K002.xlsx
+++ b/Documents/Detail Design/manager/K002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="K002-1" sheetId="2" r:id="rId1"/>
@@ -24,8 +24,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="G17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Các đối tượng bị bôi đen thì để readonly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O33" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ghi chú sử dụng text field giới hạn 300 chữ. </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>Bản thiết kế chi tiết</t>
   </si>
@@ -155,6 +213,18 @@
   <si>
     <t xml:space="preserve">Trả trước: </t>
   </si>
+  <si>
+    <t>注意：</t>
+  </si>
+  <si>
+    <t>Các text box có chiều cao bằng nhau</t>
+  </si>
+  <si>
+    <t>Textbox: chữ căn trái, số căn phải, lịch căn giữa.</t>
+  </si>
+  <si>
+    <t>Nội dung label căn phải</t>
+  </si>
 </sst>
 </file>
 
@@ -163,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +266,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -387,7 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -420,6 +516,195 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,27 +754,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -507,177 +771,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,16 +801,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>10583</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>222249</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
+      <xdr:rowOff>105834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>21166</xdr:rowOff>
+      <xdr:rowOff>21167</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -718,7 +819,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3418416" y="2476500"/>
+          <a:off x="3386666" y="2476501"/>
           <a:ext cx="994834" cy="211666"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -764,16 +865,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>52917</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>52916</xdr:rowOff>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>179916</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>137584</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -782,8 +883,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4921250" y="2423583"/>
-          <a:ext cx="613833" cy="232834"/>
+          <a:off x="4413250" y="2476500"/>
+          <a:ext cx="613833" cy="211667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -828,16 +929,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>21167</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>105832</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>105831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>42334</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>21165</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>21164</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -846,7 +947,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="2772832"/>
+          <a:off x="6064250" y="2476498"/>
           <a:ext cx="994834" cy="211666"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -892,16 +993,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>63501</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>63499</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>42334</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -910,7 +1011,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4931834" y="2730499"/>
+          <a:off x="7101417" y="2465916"/>
           <a:ext cx="613833" cy="232834"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1670,16 +1771,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>179917</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95248</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>222249</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>42332</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>232833</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>21168</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1688,8 +1789,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6508750" y="2465915"/>
-          <a:ext cx="984250" cy="243417"/>
+          <a:off x="3386666" y="2772833"/>
+          <a:ext cx="984250" cy="211668"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3073,7 +3174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -3084,261 +3185,264 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AR41"/>
+  <dimension ref="A1:AU41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AI39" sqref="AI39:AK40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AY30" sqref="AY30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="12" customHeight="1"/>
+  <cols>
+    <col min="42" max="42" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="12" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="96" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="69" t="s">
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="70"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="78" t="s">
+      <c r="T1" s="42"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="84" t="s">
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="85">
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="58">
         <v>42982</v>
       </c>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="75" t="s">
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="75"/>
-      <c r="AN1" s="75"/>
-      <c r="AO1" s="76" t="s">
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
     </row>
     <row r="2" spans="1:44" ht="12" customHeight="1">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="75"/>
-      <c r="AO2" s="77"/>
-      <c r="AP2" s="77"/>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="77"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
     </row>
     <row r="3" spans="1:44" ht="12" customHeight="1">
-      <c r="A3" s="90"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="69" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="70"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="78" t="s">
+      <c r="T3" s="42"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="84" t="s">
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="84"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="86"/>
-      <c r="AP3" s="86"/>
-      <c r="AQ3" s="86"/>
-      <c r="AR3" s="86"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
     </row>
     <row r="4" spans="1:44" ht="12" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="83"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="86"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="86"/>
-      <c r="AR4" s="86"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="59"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="59"/>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="74"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="46"/>
     </row>
     <row r="7" spans="1:44" ht="12" customHeight="1">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="74"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="46"/>
     </row>
     <row r="12" spans="1:44" ht="12" customHeight="1">
       <c r="B12" s="1"/>
@@ -3392,20 +3496,20 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="48" t="s">
+      <c r="N13" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
@@ -3433,18 +3537,18 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
@@ -3536,8 +3640,13 @@
       <c r="AJ16" s="8"/>
       <c r="AK16" s="8"/>
       <c r="AL16" s="9"/>
-    </row>
-    <row r="17" spans="2:38" ht="12" customHeight="1">
+      <c r="AM16" s="112" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN16" s="113"/>
+      <c r="AO16" s="113"/>
+    </row>
+    <row r="17" spans="2:47" ht="12" customHeight="1">
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -3575,57 +3684,63 @@
       <c r="AJ17" s="11"/>
       <c r="AK17" s="11"/>
       <c r="AL17" s="12"/>
-    </row>
-    <row r="18" spans="2:38" ht="12" customHeight="1">
+      <c r="AM17" s="112"/>
+      <c r="AN17" s="113"/>
+      <c r="AO17" s="113"/>
+    </row>
+    <row r="18" spans="2:47" ht="12" customHeight="1">
       <c r="B18" s="10"/>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="68" t="s">
+      <c r="L18" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
-      <c r="S18" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="T18" s="68"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="100" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z18" s="100"/>
-      <c r="AA18" s="100"/>
-      <c r="AB18" s="11"/>
+      <c r="W18" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="11"/>
       <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
       <c r="AJ18" s="11"/>
       <c r="AK18" s="11"/>
       <c r="AL18" s="12"/>
-    </row>
-    <row r="19" spans="2:38" ht="12" customHeight="1">
+      <c r="AN18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:47" ht="12" customHeight="1">
       <c r="B19" s="10"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -3659,51 +3774,64 @@
       <c r="AJ19" s="11"/>
       <c r="AK19" s="11"/>
       <c r="AL19" s="12"/>
-    </row>
-    <row r="20" spans="2:38" ht="12" customHeight="1">
+      <c r="AN19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:47" ht="12" customHeight="1">
       <c r="B20" s="10"/>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
-      <c r="S20" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="T20" s="68"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
       <c r="AC20" s="11"/>
       <c r="AD20" s="11"/>
       <c r="AE20" s="11"/>
       <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
       <c r="AJ20" s="11"/>
       <c r="AK20" s="11"/>
       <c r="AL20" s="12"/>
-    </row>
-    <row r="21" spans="2:38" ht="12" customHeight="1">
+      <c r="AN20" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO20" s="114"/>
+      <c r="AP20" s="114"/>
+      <c r="AQ20" s="114"/>
+      <c r="AR20" s="114"/>
+      <c r="AS20" s="114"/>
+      <c r="AT20" s="114"/>
+      <c r="AU20" s="114"/>
+    </row>
+    <row r="21" spans="2:47" ht="12" customHeight="1">
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -3742,7 +3870,7 @@
       <c r="AK21" s="11"/>
       <c r="AL21" s="12"/>
     </row>
-    <row r="22" spans="2:38" ht="12" customHeight="1">
+    <row r="22" spans="2:47" ht="12" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -3781,24 +3909,24 @@
       <c r="AK22" s="11"/>
       <c r="AL22" s="12"/>
     </row>
-    <row r="23" spans="2:38" ht="12" customHeight="1">
-      <c r="B23" s="67" t="s">
+    <row r="23" spans="2:47" ht="12" customHeight="1">
+      <c r="B23" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="68" t="s">
+      <c r="L23" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
@@ -3824,7 +3952,7 @@
       <c r="AK23" s="11"/>
       <c r="AL23" s="12"/>
     </row>
-    <row r="24" spans="2:38" ht="12" customHeight="1">
+    <row r="24" spans="2:47" ht="12" customHeight="1">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -3863,24 +3991,24 @@
       <c r="AK24" s="11"/>
       <c r="AL24" s="12"/>
     </row>
-    <row r="25" spans="2:38" ht="12" customHeight="1">
-      <c r="B25" s="67" t="s">
+    <row r="25" spans="2:47" ht="12" customHeight="1">
+      <c r="B25" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="68" t="s">
+      <c r="L25" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
@@ -3906,7 +4034,7 @@
       <c r="AK25" s="11"/>
       <c r="AL25" s="12"/>
     </row>
-    <row r="26" spans="2:38" ht="12" customHeight="1">
+    <row r="26" spans="2:47" ht="12" customHeight="1">
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -3945,24 +4073,24 @@
       <c r="AK26" s="11"/>
       <c r="AL26" s="12"/>
     </row>
-    <row r="27" spans="2:38" ht="12" customHeight="1">
-      <c r="B27" s="67" t="s">
+    <row r="27" spans="2:47" ht="12" customHeight="1">
+      <c r="B27" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="68" t="s">
+      <c r="L27" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -3988,7 +4116,7 @@
       <c r="AK27" s="11"/>
       <c r="AL27" s="12"/>
     </row>
-    <row r="28" spans="2:38" ht="12" customHeight="1">
+    <row r="28" spans="2:47" ht="12" customHeight="1">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -4027,13 +4155,13 @@
       <c r="AK28" s="11"/>
       <c r="AL28" s="12"/>
     </row>
-    <row r="29" spans="2:38" ht="12" customHeight="1">
-      <c r="B29" s="67" t="s">
+    <row r="29" spans="2:47" ht="12" customHeight="1">
+      <c r="B29" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -4068,7 +4196,7 @@
       <c r="AK29" s="11"/>
       <c r="AL29" s="12"/>
     </row>
-    <row r="30" spans="2:38" ht="12" customHeight="1">
+    <row r="30" spans="2:47" ht="12" customHeight="1">
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -4107,13 +4235,13 @@
       <c r="AK30" s="11"/>
       <c r="AL30" s="12"/>
     </row>
-    <row r="31" spans="2:38" ht="12" customHeight="1">
-      <c r="B31" s="67" t="s">
+    <row r="31" spans="2:47" ht="12" customHeight="1">
+      <c r="B31" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -4148,7 +4276,7 @@
       <c r="AK31" s="11"/>
       <c r="AL31" s="12"/>
     </row>
-    <row r="32" spans="2:38" ht="12" customHeight="1">
+    <row r="32" spans="2:47" ht="12" customHeight="1">
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -4188,12 +4316,12 @@
       <c r="AL32" s="12"/>
     </row>
     <row r="33" spans="2:38" ht="12" customHeight="1">
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -4372,12 +4500,12 @@
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
       <c r="AA37" s="14"/>
-      <c r="AB37" s="105"/>
-      <c r="AC37" s="105"/>
-      <c r="AD37" s="105"/>
-      <c r="AE37" s="105"/>
-      <c r="AF37" s="105"/>
-      <c r="AG37" s="105"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="26"/>
+      <c r="AE37" s="26"/>
+      <c r="AF37" s="26"/>
+      <c r="AG37" s="26"/>
       <c r="AH37" s="14"/>
       <c r="AI37" s="14"/>
       <c r="AJ37" s="14"/>
@@ -4449,23 +4577,23 @@
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
       <c r="Z39" s="11"/>
-      <c r="AA39" s="106" t="s">
+      <c r="AA39" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AB39" s="107"/>
-      <c r="AC39" s="108"/>
+      <c r="AB39" s="30"/>
+      <c r="AC39" s="31"/>
       <c r="AD39" s="11"/>
-      <c r="AE39" s="42" t="s">
+      <c r="AE39" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AF39" s="43"/>
-      <c r="AG39" s="44"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="37"/>
       <c r="AH39" s="11"/>
-      <c r="AI39" s="106" t="s">
+      <c r="AI39" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AJ39" s="107"/>
-      <c r="AK39" s="108"/>
+      <c r="AJ39" s="30"/>
+      <c r="AK39" s="31"/>
       <c r="AL39" s="12"/>
     </row>
     <row r="40" spans="2:38" ht="12" customHeight="1">
@@ -4494,17 +4622,17 @@
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
       <c r="Z40" s="11"/>
-      <c r="AA40" s="109"/>
-      <c r="AB40" s="110"/>
-      <c r="AC40" s="111"/>
+      <c r="AA40" s="32"/>
+      <c r="AB40" s="33"/>
+      <c r="AC40" s="34"/>
       <c r="AD40" s="11"/>
-      <c r="AE40" s="45"/>
-      <c r="AF40" s="46"/>
-      <c r="AG40" s="47"/>
+      <c r="AE40" s="38"/>
+      <c r="AF40" s="39"/>
+      <c r="AG40" s="40"/>
       <c r="AH40" s="11"/>
-      <c r="AI40" s="109"/>
-      <c r="AJ40" s="110"/>
-      <c r="AK40" s="111"/>
+      <c r="AI40" s="32"/>
+      <c r="AJ40" s="33"/>
+      <c r="AK40" s="34"/>
       <c r="AL40" s="12"/>
     </row>
     <row r="41" spans="2:38" ht="12" customHeight="1">
@@ -4547,32 +4675,20 @@
       <c r="AL41" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="AA39:AC40"/>
-    <mergeCell ref="AE39:AG40"/>
-    <mergeCell ref="AI39:AK40"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="N13:Y14"/>
+  <mergeCells count="45">
+    <mergeCell ref="AM16:AO17"/>
+    <mergeCell ref="AG20:AI20"/>
+    <mergeCell ref="AG18:AI18"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="Z18:AB18"/>
     <mergeCell ref="L18:N18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="I1:R4"/>
+    <mergeCell ref="S1:U2"/>
+    <mergeCell ref="V1:AD2"/>
+    <mergeCell ref="AE1:AG2"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="AO1:AR2"/>
     <mergeCell ref="S3:U4"/>
@@ -4581,15 +4697,35 @@
     <mergeCell ref="AH3:AK4"/>
     <mergeCell ref="AL3:AN4"/>
     <mergeCell ref="AO3:AR4"/>
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="I1:R4"/>
-    <mergeCell ref="S1:U2"/>
-    <mergeCell ref="V1:AD2"/>
-    <mergeCell ref="AE1:AG2"/>
     <mergeCell ref="AH1:AK2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="N13:Y14"/>
+    <mergeCell ref="AE39:AG40"/>
+    <mergeCell ref="AI39:AK40"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="AA39:AC40"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4622,248 +4758,248 @@
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="12" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:44" ht="12" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="96" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="69" t="s">
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="70"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="78" t="s">
+      <c r="T1" s="42"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="84" t="s">
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="85">
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="58">
         <v>42982</v>
       </c>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="75" t="s">
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="75"/>
-      <c r="AN1" s="75"/>
-      <c r="AO1" s="76" t="s">
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
     </row>
     <row r="2" spans="1:44" ht="12" customHeight="1">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="75"/>
-      <c r="AO2" s="77"/>
-      <c r="AP2" s="77"/>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="77"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
     </row>
     <row r="3" spans="1:44" ht="12" customHeight="1">
-      <c r="A3" s="90"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="69" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="70"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="78" t="s">
+      <c r="T3" s="42"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="84" t="s">
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="84"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="86"/>
-      <c r="AP3" s="86"/>
-      <c r="AQ3" s="86"/>
-      <c r="AR3" s="86"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
     </row>
     <row r="4" spans="1:44" ht="12" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="83"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="86"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="86"/>
-      <c r="AR4" s="86"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="59"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="59"/>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="74"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="46"/>
     </row>
     <row r="7" spans="1:44" ht="12" customHeight="1">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="74"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="46"/>
     </row>
     <row r="12" spans="1:44" ht="12" customHeight="1">
       <c r="B12" s="1"/>
@@ -4917,20 +5053,20 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="48" t="s">
+      <c r="N13" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
@@ -4958,18 +5094,18 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
@@ -5084,16 +5220,16 @@
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
-      <c r="W17" s="42" t="s">
+      <c r="W17" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43"/>
-      <c r="AA17" s="43"/>
-      <c r="AB17" s="43"/>
-      <c r="AC17" s="43"/>
-      <c r="AD17" s="44"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="37"/>
       <c r="AE17" s="11"/>
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
@@ -5105,19 +5241,19 @@
     </row>
     <row r="18" spans="2:38" ht="12" customHeight="1">
       <c r="B18" s="10"/>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="68" t="s">
+      <c r="J18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="68"/>
+      <c r="K18" s="27"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -5129,14 +5265,14 @@
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="47"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="40"/>
       <c r="AE18" s="11"/>
       <c r="AF18" s="11"/>
       <c r="AG18" s="11"/>
@@ -5187,19 +5323,19 @@
     </row>
     <row r="20" spans="2:38" ht="12" customHeight="1">
       <c r="B20" s="10"/>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="68" t="s">
+      <c r="J20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="68"/>
+      <c r="K20" s="27"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -5211,11 +5347,11 @@
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
-      <c r="W20" s="67" t="s">
+      <c r="W20" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
@@ -5309,23 +5445,23 @@
       <c r="AL22" s="22"/>
     </row>
     <row r="23" spans="2:38" ht="12" customHeight="1">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="68" t="s">
+      <c r="L23" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
@@ -5334,28 +5470,28 @@
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
-      <c r="W23" s="42" t="s">
+      <c r="W23" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="42" t="s">
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AC23" s="43"/>
-      <c r="AD23" s="43"/>
-      <c r="AE23" s="43"/>
-      <c r="AF23" s="43"/>
-      <c r="AG23" s="44"/>
-      <c r="AH23" s="42" t="s">
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AI23" s="43"/>
-      <c r="AJ23" s="43"/>
-      <c r="AK23" s="43"/>
-      <c r="AL23" s="44"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="36"/>
+      <c r="AK23" s="36"/>
+      <c r="AL23" s="37"/>
     </row>
     <row r="24" spans="2:38" ht="12" customHeight="1">
       <c r="B24" s="10"/>
@@ -5379,41 +5515,41 @@
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="47"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="46"/>
-      <c r="AE24" s="46"/>
-      <c r="AF24" s="46"/>
-      <c r="AG24" s="47"/>
-      <c r="AH24" s="45"/>
-      <c r="AI24" s="46"/>
-      <c r="AJ24" s="46"/>
-      <c r="AK24" s="46"/>
-      <c r="AL24" s="47"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="40"/>
     </row>
     <row r="25" spans="2:38" ht="12" customHeight="1">
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="68" t="s">
+      <c r="L25" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
@@ -5422,28 +5558,28 @@
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
-      <c r="W25" s="49" t="s">
+      <c r="W25" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="55">
+      <c r="X25" s="106"/>
+      <c r="Y25" s="106"/>
+      <c r="Z25" s="106"/>
+      <c r="AA25" s="107"/>
+      <c r="AB25" s="77">
         <v>203</v>
       </c>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="57"/>
+      <c r="AC25" s="78"/>
+      <c r="AD25" s="78"/>
+      <c r="AE25" s="79"/>
       <c r="AF25" s="18"/>
       <c r="AG25" s="19"/>
-      <c r="AH25" s="61">
+      <c r="AH25" s="83">
         <v>500</v>
       </c>
-      <c r="AI25" s="62"/>
-      <c r="AJ25" s="62"/>
-      <c r="AK25" s="62"/>
-      <c r="AL25" s="63"/>
+      <c r="AI25" s="84"/>
+      <c r="AJ25" s="84"/>
+      <c r="AK25" s="84"/>
+      <c r="AL25" s="85"/>
     </row>
     <row r="26" spans="2:38" ht="12" customHeight="1">
       <c r="B26" s="10"/>
@@ -5467,41 +5603,41 @@
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="54"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="60"/>
+      <c r="W26" s="108"/>
+      <c r="X26" s="109"/>
+      <c r="Y26" s="109"/>
+      <c r="Z26" s="109"/>
+      <c r="AA26" s="110"/>
+      <c r="AB26" s="80"/>
+      <c r="AC26" s="81"/>
+      <c r="AD26" s="81"/>
+      <c r="AE26" s="82"/>
       <c r="AF26" s="14"/>
       <c r="AG26" s="15"/>
-      <c r="AH26" s="64"/>
-      <c r="AI26" s="65"/>
-      <c r="AJ26" s="65"/>
-      <c r="AK26" s="65"/>
-      <c r="AL26" s="66"/>
+      <c r="AH26" s="86"/>
+      <c r="AI26" s="87"/>
+      <c r="AJ26" s="87"/>
+      <c r="AK26" s="87"/>
+      <c r="AL26" s="88"/>
     </row>
     <row r="27" spans="2:38" ht="12" customHeight="1">
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="68" t="s">
+      <c r="L27" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -5510,28 +5646,28 @@
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
-      <c r="W27" s="49" t="s">
+      <c r="W27" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="51"/>
-      <c r="AB27" s="55">
+      <c r="X27" s="106"/>
+      <c r="Y27" s="106"/>
+      <c r="Z27" s="106"/>
+      <c r="AA27" s="107"/>
+      <c r="AB27" s="77">
         <v>204</v>
       </c>
-      <c r="AC27" s="56"/>
-      <c r="AD27" s="56"/>
-      <c r="AE27" s="57"/>
+      <c r="AC27" s="78"/>
+      <c r="AD27" s="78"/>
+      <c r="AE27" s="79"/>
       <c r="AF27" s="18"/>
       <c r="AG27" s="19"/>
-      <c r="AH27" s="61">
+      <c r="AH27" s="83">
         <v>500</v>
       </c>
-      <c r="AI27" s="62"/>
-      <c r="AJ27" s="62"/>
-      <c r="AK27" s="62"/>
-      <c r="AL27" s="63"/>
+      <c r="AI27" s="84"/>
+      <c r="AJ27" s="84"/>
+      <c r="AK27" s="84"/>
+      <c r="AL27" s="85"/>
     </row>
     <row r="28" spans="2:38" ht="12" customHeight="1">
       <c r="B28" s="10"/>
@@ -5555,30 +5691,30 @@
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="54"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="60"/>
+      <c r="W28" s="108"/>
+      <c r="X28" s="109"/>
+      <c r="Y28" s="109"/>
+      <c r="Z28" s="109"/>
+      <c r="AA28" s="110"/>
+      <c r="AB28" s="80"/>
+      <c r="AC28" s="81"/>
+      <c r="AD28" s="81"/>
+      <c r="AE28" s="82"/>
       <c r="AF28" s="14"/>
       <c r="AG28" s="15"/>
-      <c r="AH28" s="64"/>
-      <c r="AI28" s="65"/>
-      <c r="AJ28" s="65"/>
-      <c r="AK28" s="65"/>
-      <c r="AL28" s="66"/>
+      <c r="AH28" s="86"/>
+      <c r="AI28" s="87"/>
+      <c r="AJ28" s="87"/>
+      <c r="AK28" s="87"/>
+      <c r="AL28" s="88"/>
     </row>
     <row r="29" spans="2:38" ht="12" customHeight="1">
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -5596,28 +5732,28 @@
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
-      <c r="W29" s="49" t="s">
+      <c r="W29" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="55">
+      <c r="X29" s="106"/>
+      <c r="Y29" s="106"/>
+      <c r="Z29" s="106"/>
+      <c r="AA29" s="107"/>
+      <c r="AB29" s="77">
         <v>205</v>
       </c>
-      <c r="AC29" s="56"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="57"/>
+      <c r="AC29" s="78"/>
+      <c r="AD29" s="78"/>
+      <c r="AE29" s="79"/>
       <c r="AF29" s="18"/>
       <c r="AG29" s="19"/>
-      <c r="AH29" s="61">
+      <c r="AH29" s="83">
         <v>500</v>
       </c>
-      <c r="AI29" s="62"/>
-      <c r="AJ29" s="62"/>
-      <c r="AK29" s="62"/>
-      <c r="AL29" s="63"/>
+      <c r="AI29" s="84"/>
+      <c r="AJ29" s="84"/>
+      <c r="AK29" s="84"/>
+      <c r="AL29" s="85"/>
     </row>
     <row r="30" spans="2:38" ht="12" customHeight="1">
       <c r="B30" s="10"/>
@@ -5641,30 +5777,30 @@
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="54"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="59"/>
-      <c r="AD30" s="59"/>
-      <c r="AE30" s="60"/>
+      <c r="W30" s="108"/>
+      <c r="X30" s="109"/>
+      <c r="Y30" s="109"/>
+      <c r="Z30" s="109"/>
+      <c r="AA30" s="110"/>
+      <c r="AB30" s="80"/>
+      <c r="AC30" s="81"/>
+      <c r="AD30" s="81"/>
+      <c r="AE30" s="82"/>
       <c r="AF30" s="14"/>
       <c r="AG30" s="15"/>
-      <c r="AH30" s="64"/>
-      <c r="AI30" s="65"/>
-      <c r="AJ30" s="65"/>
-      <c r="AK30" s="65"/>
-      <c r="AL30" s="66"/>
+      <c r="AH30" s="86"/>
+      <c r="AI30" s="87"/>
+      <c r="AJ30" s="87"/>
+      <c r="AK30" s="87"/>
+      <c r="AL30" s="88"/>
     </row>
     <row r="31" spans="2:38" ht="12" customHeight="1">
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -5730,26 +5866,26 @@
       <c r="AC32" s="21"/>
       <c r="AD32" s="21"/>
       <c r="AE32" s="21"/>
-      <c r="AF32" s="26" t="s">
+      <c r="AF32" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="AG32" s="27"/>
-      <c r="AH32" s="30">
+      <c r="AG32" s="90"/>
+      <c r="AH32" s="93">
         <f>AH25+AH27+AH29</f>
         <v>1500</v>
       </c>
-      <c r="AI32" s="31"/>
-      <c r="AJ32" s="31"/>
-      <c r="AK32" s="31"/>
-      <c r="AL32" s="32"/>
+      <c r="AI32" s="94"/>
+      <c r="AJ32" s="94"/>
+      <c r="AK32" s="94"/>
+      <c r="AL32" s="95"/>
     </row>
     <row r="33" spans="2:38" ht="12" customHeight="1">
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -5776,13 +5912,13 @@
       <c r="AC33" s="24"/>
       <c r="AD33" s="24"/>
       <c r="AE33" s="24"/>
-      <c r="AF33" s="28"/>
-      <c r="AG33" s="29"/>
-      <c r="AH33" s="33"/>
-      <c r="AI33" s="34"/>
-      <c r="AJ33" s="34"/>
-      <c r="AK33" s="34"/>
-      <c r="AL33" s="35"/>
+      <c r="AF33" s="91"/>
+      <c r="AG33" s="92"/>
+      <c r="AH33" s="96"/>
+      <c r="AI33" s="97"/>
+      <c r="AJ33" s="97"/>
+      <c r="AK33" s="97"/>
+      <c r="AL33" s="98"/>
     </row>
     <row r="34" spans="2:38" ht="12" customHeight="1">
       <c r="B34" s="10"/>
@@ -5817,13 +5953,13 @@
       <c r="AE34" s="11"/>
       <c r="AF34" s="11"/>
       <c r="AG34" s="11"/>
-      <c r="AH34" s="101" t="s">
+      <c r="AH34" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="AI34" s="101"/>
-      <c r="AJ34" s="101"/>
-      <c r="AK34" s="101"/>
-      <c r="AL34" s="102"/>
+      <c r="AI34" s="73"/>
+      <c r="AJ34" s="73"/>
+      <c r="AK34" s="73"/>
+      <c r="AL34" s="74"/>
     </row>
     <row r="35" spans="2:38" ht="12" customHeight="1">
       <c r="B35" s="10"/>
@@ -5858,11 +5994,11 @@
       <c r="AE35" s="11"/>
       <c r="AF35" s="11"/>
       <c r="AG35" s="11"/>
-      <c r="AH35" s="103"/>
-      <c r="AI35" s="103"/>
-      <c r="AJ35" s="103"/>
-      <c r="AK35" s="103"/>
-      <c r="AL35" s="104"/>
+      <c r="AH35" s="75"/>
+      <c r="AI35" s="75"/>
+      <c r="AJ35" s="75"/>
+      <c r="AK35" s="75"/>
+      <c r="AL35" s="76"/>
     </row>
     <row r="36" spans="2:38" ht="12" customHeight="1">
       <c r="B36" s="10"/>
@@ -6007,23 +6143,23 @@
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
       <c r="Z39" s="11"/>
-      <c r="AA39" s="42" t="s">
+      <c r="AA39" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="AB39" s="43"/>
-      <c r="AC39" s="44"/>
+      <c r="AB39" s="36"/>
+      <c r="AC39" s="37"/>
       <c r="AD39" s="11"/>
-      <c r="AE39" s="36" t="s">
+      <c r="AE39" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="AF39" s="37"/>
-      <c r="AG39" s="38"/>
+      <c r="AF39" s="100"/>
+      <c r="AG39" s="101"/>
       <c r="AH39" s="11"/>
-      <c r="AI39" s="42" t="s">
+      <c r="AI39" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AJ39" s="43"/>
-      <c r="AK39" s="44"/>
+      <c r="AJ39" s="36"/>
+      <c r="AK39" s="37"/>
       <c r="AL39" s="12"/>
     </row>
     <row r="40" spans="2:38" ht="12" customHeight="1">
@@ -6052,17 +6188,17 @@
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
       <c r="Z40" s="11"/>
-      <c r="AA40" s="45"/>
-      <c r="AB40" s="46"/>
-      <c r="AC40" s="47"/>
+      <c r="AA40" s="38"/>
+      <c r="AB40" s="39"/>
+      <c r="AC40" s="40"/>
       <c r="AD40" s="11"/>
-      <c r="AE40" s="39"/>
-      <c r="AF40" s="40"/>
-      <c r="AG40" s="41"/>
+      <c r="AE40" s="102"/>
+      <c r="AF40" s="103"/>
+      <c r="AG40" s="104"/>
       <c r="AH40" s="11"/>
-      <c r="AI40" s="45"/>
-      <c r="AJ40" s="46"/>
-      <c r="AK40" s="47"/>
+      <c r="AI40" s="38"/>
+      <c r="AJ40" s="39"/>
+      <c r="AK40" s="40"/>
       <c r="AL40" s="12"/>
     </row>
     <row r="41" spans="2:38" ht="12" customHeight="1">
@@ -6106,42 +6242,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AA39:AC40"/>
-    <mergeCell ref="AH34:AL35"/>
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="I1:R4"/>
-    <mergeCell ref="S1:U2"/>
-    <mergeCell ref="V1:AD2"/>
-    <mergeCell ref="AE1:AG2"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="AO1:AR2"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AD4"/>
-    <mergeCell ref="AE3:AG4"/>
-    <mergeCell ref="AH3:AK4"/>
-    <mergeCell ref="AL3:AN4"/>
-    <mergeCell ref="AO3:AR4"/>
-    <mergeCell ref="AH1:AK2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="AH23:AL24"/>
-    <mergeCell ref="AB25:AE26"/>
-    <mergeCell ref="AH25:AL26"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L27:N27"/>
     <mergeCell ref="AF32:AG33"/>
     <mergeCell ref="AH32:AL33"/>
     <mergeCell ref="AE39:AG40"/>
@@ -6158,6 +6258,42 @@
     <mergeCell ref="W25:AA26"/>
     <mergeCell ref="W23:AA24"/>
     <mergeCell ref="AB23:AG24"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="AH23:AL24"/>
+    <mergeCell ref="AB25:AE26"/>
+    <mergeCell ref="AH25:AL26"/>
+    <mergeCell ref="AO1:AR2"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AD4"/>
+    <mergeCell ref="AE3:AG4"/>
+    <mergeCell ref="AH3:AK4"/>
+    <mergeCell ref="AL3:AN4"/>
+    <mergeCell ref="AO3:AR4"/>
+    <mergeCell ref="AH1:AK2"/>
+    <mergeCell ref="AA39:AC40"/>
+    <mergeCell ref="AH34:AL35"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="I1:R4"/>
+    <mergeCell ref="S1:U2"/>
+    <mergeCell ref="V1:AD2"/>
+    <mergeCell ref="AE1:AG2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="J20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Documents/Detail Design/manager/K002.xlsx
+++ b/Documents/Detail Design/manager/K002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="K002-1" sheetId="2" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="93">
   <si>
     <t>Bản thiết kế chi tiết</t>
   </si>
@@ -260,12 +260,6 @@
     <t>Room Status</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>CMND</t>
-  </si>
-  <si>
     <t>Search</t>
   </si>
   <si>
@@ -363,6 +357,12 @@
   </si>
   <si>
     <t>K0003-1</t>
+  </si>
+  <si>
+    <t>Customer name</t>
+  </si>
+  <si>
+    <t>Identity card</t>
   </si>
 </sst>
 </file>
@@ -663,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -701,49 +701,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -753,15 +752,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -780,6 +770,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -827,17 +820,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -845,53 +847,107 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -959,112 +1015,71 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5751,6 +5766,65 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>148167</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>201083</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Isosceles Triangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2338917" y="2434167"/>
+          <a:ext cx="296333" cy="201083"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>222249</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -7098,251 +7172,251 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="12" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="67" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="47" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="50" t="s">
+      <c r="T1" s="49"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="43" t="s">
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="56">
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="65">
         <v>42982</v>
       </c>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="44" t="s">
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="45" t="s">
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
     </row>
     <row r="2" spans="1:44" ht="12" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
     </row>
     <row r="3" spans="1:44" ht="12" customHeight="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="47" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="50" t="s">
+      <c r="T3" s="49"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="43" t="s">
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="66"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="66"/>
     </row>
     <row r="4" spans="1:44" ht="12" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="57"/>
-      <c r="AP4" s="57"/>
-      <c r="AQ4" s="57"/>
-      <c r="AR4" s="57"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="64"/>
+      <c r="AM4" s="64"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="66"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="66"/>
+      <c r="AR4" s="66"/>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="71" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="73"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="53"/>
     </row>
     <row r="7" spans="1:44" ht="12" customHeight="1">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="71" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="73"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="53"/>
     </row>
     <row r="12" spans="1:44" ht="12" customHeight="1">
-      <c r="B12" s="117"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -7387,17 +7461,17 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
-      <c r="M13" s="118" t="s">
+      <c r="M13" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
@@ -7423,15 +7497,15 @@
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="118"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
@@ -7512,8 +7586,8 @@
       <c r="AE16" s="11"/>
       <c r="AF16" s="11"/>
       <c r="AG16" s="12"/>
-      <c r="AN16" s="115"/>
-      <c r="AO16" s="115"/>
+      <c r="AN16" s="29"/>
+      <c r="AO16" s="29"/>
     </row>
     <row r="17" spans="2:47" ht="12" customHeight="1">
       <c r="B17" s="10"/>
@@ -7527,15 +7601,15 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="120"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="120"/>
-      <c r="Q17" s="120"/>
-      <c r="R17" s="120"/>
-      <c r="S17" s="120"/>
-      <c r="T17" s="120"/>
-      <c r="U17" s="121"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="33"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
@@ -7548,8 +7622,8 @@
       <c r="AE17" s="11"/>
       <c r="AF17" s="11"/>
       <c r="AG17" s="12"/>
-      <c r="AN17" s="115"/>
-      <c r="AO17" s="115"/>
+      <c r="AN17" s="29"/>
+      <c r="AO17" s="29"/>
     </row>
     <row r="18" spans="2:47" ht="12" customHeight="1">
       <c r="B18" s="10"/>
@@ -7563,15 +7637,15 @@
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
-      <c r="M18" s="122"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="123"/>
-      <c r="S18" s="123"/>
-      <c r="T18" s="123"/>
-      <c r="U18" s="124"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="36"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
@@ -7597,15 +7671,15 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="123"/>
-      <c r="S19" s="123"/>
-      <c r="T19" s="123"/>
-      <c r="U19" s="124"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="36"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
@@ -7631,15 +7705,15 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="123"/>
-      <c r="T20" s="123"/>
-      <c r="U20" s="124"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="36"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
@@ -7673,15 +7747,15 @@
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="123"/>
-      <c r="T21" s="123"/>
-      <c r="U21" s="124"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="36"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
@@ -7707,15 +7781,15 @@
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="123"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="123"/>
-      <c r="S22" s="123"/>
-      <c r="T22" s="123"/>
-      <c r="U22" s="124"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="36"/>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
@@ -7741,15 +7815,15 @@
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="123"/>
-      <c r="T23" s="123"/>
-      <c r="U23" s="124"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="36"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
@@ -7775,15 +7849,15 @@
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="122"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="123"/>
-      <c r="T24" s="123"/>
-      <c r="U24" s="124"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="36"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
@@ -7809,15 +7883,15 @@
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="123"/>
-      <c r="T25" s="123"/>
-      <c r="U25" s="124"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="36"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
@@ -7843,15 +7917,15 @@
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
-      <c r="M26" s="122"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="123"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="123"/>
-      <c r="S26" s="123"/>
-      <c r="T26" s="123"/>
-      <c r="U26" s="124"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="36"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
@@ -7877,15 +7951,15 @@
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
-      <c r="M27" s="122"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="123"/>
-      <c r="R27" s="123"/>
-      <c r="S27" s="123"/>
-      <c r="T27" s="123"/>
-      <c r="U27" s="124"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="36"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
@@ -7911,15 +7985,15 @@
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
-      <c r="M28" s="122"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="123"/>
-      <c r="S28" s="123"/>
-      <c r="T28" s="123"/>
-      <c r="U28" s="124"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="36"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
@@ -7945,15 +8019,15 @@
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
-      <c r="M29" s="122"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="123"/>
-      <c r="T29" s="123"/>
-      <c r="U29" s="124"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="36"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
@@ -7979,15 +8053,15 @@
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
-      <c r="M30" s="122"/>
-      <c r="N30" s="123"/>
-      <c r="O30" s="123"/>
-      <c r="P30" s="123"/>
-      <c r="Q30" s="123"/>
-      <c r="R30" s="123"/>
-      <c r="S30" s="123"/>
-      <c r="T30" s="123"/>
-      <c r="U30" s="124"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="36"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
@@ -8013,15 +8087,15 @@
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="123"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="123"/>
-      <c r="S31" s="123"/>
-      <c r="T31" s="123"/>
-      <c r="U31" s="124"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="36"/>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
@@ -8047,15 +8121,15 @@
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="123"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="123"/>
-      <c r="S32" s="123"/>
-      <c r="T32" s="123"/>
-      <c r="U32" s="124"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="36"/>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
@@ -8081,15 +8155,15 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="123"/>
-      <c r="T33" s="123"/>
-      <c r="U33" s="124"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="36"/>
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
@@ -8115,15 +8189,15 @@
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
-      <c r="M34" s="125"/>
-      <c r="N34" s="126"/>
-      <c r="O34" s="126"/>
-      <c r="P34" s="126"/>
-      <c r="Q34" s="126"/>
-      <c r="R34" s="126"/>
-      <c r="S34" s="126"/>
-      <c r="T34" s="126"/>
-      <c r="U34" s="127"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="39"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
@@ -8241,11 +8315,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="M13:U14"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="I1:R4"/>
+    <mergeCell ref="S1:U2"/>
+    <mergeCell ref="V1:AD2"/>
+    <mergeCell ref="AE1:AG2"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="AO1:AR2"/>
     <mergeCell ref="S3:U4"/>
@@ -8254,12 +8328,12 @@
     <mergeCell ref="AH3:AK4"/>
     <mergeCell ref="AL3:AN4"/>
     <mergeCell ref="AO3:AR4"/>
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="I1:R4"/>
-    <mergeCell ref="S1:U2"/>
-    <mergeCell ref="V1:AD2"/>
-    <mergeCell ref="AE1:AG2"/>
     <mergeCell ref="AH1:AK2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="M13:U14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8287,263 +8361,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="12" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="67" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="47" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="50" t="s">
+      <c r="T1" s="49"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="43" t="s">
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="56" t="s">
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="44" t="s">
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="45" t="s">
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
     </row>
     <row r="2" spans="1:44" ht="12" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
     </row>
     <row r="3" spans="1:44" ht="12" customHeight="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="47" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="50" t="s">
+      <c r="T3" s="49"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="43" t="s">
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="66"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="66"/>
     </row>
     <row r="4" spans="1:44" ht="12" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="57"/>
-      <c r="AP4" s="57"/>
-      <c r="AQ4" s="57"/>
-      <c r="AR4" s="57"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="64"/>
+      <c r="AM4" s="64"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="66"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="66"/>
+      <c r="AR4" s="66"/>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="73"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="53"/>
     </row>
     <row r="7" spans="1:44" ht="12" customHeight="1">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="71" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="73"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="53"/>
     </row>
     <row r="12" spans="1:44" ht="12" customHeight="1">
       <c r="D12" s="1"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="140" t="s">
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="140"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -8571,16 +8645,16 @@
     </row>
     <row r="13" spans="1:44" ht="12" customHeight="1">
       <c r="D13" s="4"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -8594,34 +8668,34 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
-      <c r="AB13" s="128" t="s">
+      <c r="AB13" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="AC13" s="129"/>
-      <c r="AD13" s="130"/>
-      <c r="AE13" s="128" t="s">
+      <c r="AC13" s="85"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="AF13" s="129"/>
-      <c r="AG13" s="129"/>
-      <c r="AH13" s="129"/>
-      <c r="AI13" s="129"/>
-      <c r="AJ13" s="129"/>
-      <c r="AK13" s="130"/>
+      <c r="AF13" s="85"/>
+      <c r="AG13" s="85"/>
+      <c r="AH13" s="85"/>
+      <c r="AI13" s="85"/>
+      <c r="AJ13" s="85"/>
+      <c r="AK13" s="86"/>
       <c r="AL13" s="6"/>
     </row>
     <row r="14" spans="1:44" ht="12" customHeight="1">
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="141"/>
-      <c r="N14" s="141"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
@@ -8652,711 +8726,711 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="131"/>
-      <c r="L15" s="131"/>
-      <c r="M15" s="131"/>
-      <c r="N15" s="131"/>
-      <c r="O15" s="131"/>
-      <c r="P15" s="131"/>
-      <c r="Q15" s="131"/>
-      <c r="R15" s="131"/>
-      <c r="S15" s="131"/>
-      <c r="T15" s="131"/>
-      <c r="U15" s="131"/>
-      <c r="V15" s="131"/>
-      <c r="W15" s="131"/>
-      <c r="X15" s="131"/>
-      <c r="Y15" s="131"/>
-      <c r="Z15" s="131"/>
-      <c r="AA15" s="131"/>
-      <c r="AB15" s="131"/>
-      <c r="AC15" s="131"/>
-      <c r="AD15" s="131"/>
-      <c r="AE15" s="131"/>
-      <c r="AF15" s="131"/>
-      <c r="AG15" s="131"/>
-      <c r="AH15" s="131"/>
-      <c r="AI15" s="131"/>
-      <c r="AJ15" s="131"/>
-      <c r="AK15" s="131"/>
-      <c r="AL15" s="132"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="40"/>
+      <c r="AK15" s="40"/>
+      <c r="AL15" s="41"/>
     </row>
     <row r="16" spans="1:44" ht="12" customHeight="1">
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="131"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="131"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="131"/>
-      <c r="S16" s="131"/>
-      <c r="T16" s="131"/>
-      <c r="U16" s="131"/>
-      <c r="V16" s="131"/>
-      <c r="W16" s="131"/>
-      <c r="X16" s="131"/>
-      <c r="Y16" s="131"/>
-      <c r="Z16" s="131"/>
-      <c r="AA16" s="131"/>
-      <c r="AB16" s="131"/>
-      <c r="AC16" s="131"/>
-      <c r="AD16" s="131"/>
-      <c r="AE16" s="131"/>
-      <c r="AF16" s="131"/>
-      <c r="AG16" s="131"/>
-      <c r="AH16" s="131"/>
-      <c r="AI16" s="131"/>
-      <c r="AJ16" s="131"/>
-      <c r="AK16" s="131"/>
-      <c r="AL16" s="132"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="40"/>
+      <c r="AH16" s="40"/>
+      <c r="AI16" s="40"/>
+      <c r="AJ16" s="40"/>
+      <c r="AK16" s="40"/>
+      <c r="AL16" s="41"/>
     </row>
     <row r="17" spans="4:38" ht="12" customHeight="1">
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131"/>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="131"/>
-      <c r="S17" s="131"/>
-      <c r="T17" s="131"/>
-      <c r="U17" s="131"/>
-      <c r="V17" s="131"/>
-      <c r="W17" s="131"/>
-      <c r="X17" s="131"/>
-      <c r="Y17" s="131"/>
-      <c r="Z17" s="131"/>
-      <c r="AA17" s="131"/>
-      <c r="AB17" s="131"/>
-      <c r="AC17" s="131"/>
-      <c r="AD17" s="131"/>
-      <c r="AE17" s="131"/>
-      <c r="AF17" s="131"/>
-      <c r="AG17" s="131"/>
-      <c r="AH17" s="131"/>
-      <c r="AI17" s="131"/>
-      <c r="AJ17" s="131"/>
-      <c r="AK17" s="131"/>
-      <c r="AL17" s="132"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="40"/>
+      <c r="AH17" s="40"/>
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="40"/>
+      <c r="AK17" s="40"/>
+      <c r="AL17" s="41"/>
     </row>
     <row r="18" spans="4:38" ht="12" customHeight="1">
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="131"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="131"/>
-      <c r="S18" s="131"/>
-      <c r="T18" s="131"/>
-      <c r="U18" s="131"/>
-      <c r="V18" s="131"/>
-      <c r="W18" s="131"/>
-      <c r="X18" s="131"/>
-      <c r="Y18" s="131"/>
-      <c r="Z18" s="131"/>
-      <c r="AA18" s="131"/>
-      <c r="AB18" s="131"/>
-      <c r="AC18" s="131"/>
-      <c r="AD18" s="131"/>
-      <c r="AE18" s="131"/>
-      <c r="AF18" s="131"/>
-      <c r="AG18" s="131"/>
-      <c r="AH18" s="131"/>
-      <c r="AI18" s="131"/>
-      <c r="AJ18" s="131"/>
-      <c r="AK18" s="131"/>
-      <c r="AL18" s="132"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+      <c r="AG18" s="40"/>
+      <c r="AH18" s="40"/>
+      <c r="AI18" s="40"/>
+      <c r="AJ18" s="40"/>
+      <c r="AK18" s="40"/>
+      <c r="AL18" s="41"/>
     </row>
     <row r="19" spans="4:38" ht="12" customHeight="1">
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="131"/>
-      <c r="S19" s="131"/>
-      <c r="T19" s="131"/>
-      <c r="U19" s="131"/>
-      <c r="V19" s="131"/>
-      <c r="W19" s="131"/>
-      <c r="X19" s="131"/>
-      <c r="Y19" s="131"/>
-      <c r="Z19" s="131"/>
-      <c r="AA19" s="131"/>
-      <c r="AB19" s="131"/>
-      <c r="AC19" s="131"/>
-      <c r="AD19" s="131"/>
-      <c r="AE19" s="131"/>
-      <c r="AF19" s="131"/>
-      <c r="AG19" s="131"/>
-      <c r="AH19" s="131"/>
-      <c r="AI19" s="131"/>
-      <c r="AJ19" s="131"/>
-      <c r="AK19" s="131"/>
-      <c r="AL19" s="132"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="40"/>
+      <c r="AI19" s="40"/>
+      <c r="AJ19" s="40"/>
+      <c r="AK19" s="40"/>
+      <c r="AL19" s="41"/>
     </row>
     <row r="20" spans="4:38" ht="12" customHeight="1">
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="131"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="131"/>
-      <c r="S20" s="131"/>
-      <c r="T20" s="131"/>
-      <c r="U20" s="131"/>
-      <c r="V20" s="131"/>
-      <c r="W20" s="131"/>
-      <c r="X20" s="131"/>
-      <c r="Y20" s="131"/>
-      <c r="Z20" s="131"/>
-      <c r="AA20" s="131"/>
-      <c r="AB20" s="131"/>
-      <c r="AC20" s="131"/>
-      <c r="AD20" s="131"/>
-      <c r="AE20" s="131"/>
-      <c r="AF20" s="131"/>
-      <c r="AG20" s="131"/>
-      <c r="AH20" s="131"/>
-      <c r="AI20" s="131"/>
-      <c r="AJ20" s="131"/>
-      <c r="AK20" s="131"/>
-      <c r="AL20" s="132"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="40"/>
+      <c r="AG20" s="40"/>
+      <c r="AH20" s="40"/>
+      <c r="AI20" s="40"/>
+      <c r="AJ20" s="40"/>
+      <c r="AK20" s="40"/>
+      <c r="AL20" s="41"/>
     </row>
     <row r="21" spans="4:38" ht="12" customHeight="1">
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="131"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="131"/>
-      <c r="T21" s="131"/>
-      <c r="U21" s="131"/>
-      <c r="V21" s="131"/>
-      <c r="W21" s="131"/>
-      <c r="X21" s="131"/>
-      <c r="Y21" s="131"/>
-      <c r="Z21" s="131"/>
-      <c r="AA21" s="131"/>
-      <c r="AB21" s="131"/>
-      <c r="AC21" s="131"/>
-      <c r="AD21" s="131"/>
-      <c r="AE21" s="131"/>
-      <c r="AF21" s="131"/>
-      <c r="AG21" s="131"/>
-      <c r="AH21" s="131"/>
-      <c r="AI21" s="131"/>
-      <c r="AJ21" s="131"/>
-      <c r="AK21" s="131"/>
-      <c r="AL21" s="132"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="40"/>
+      <c r="AJ21" s="40"/>
+      <c r="AK21" s="40"/>
+      <c r="AL21" s="41"/>
     </row>
     <row r="22" spans="4:38" ht="12" customHeight="1">
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="131"/>
-      <c r="R22" s="131"/>
-      <c r="S22" s="131"/>
-      <c r="T22" s="131"/>
-      <c r="U22" s="131"/>
-      <c r="V22" s="131"/>
-      <c r="W22" s="131"/>
-      <c r="X22" s="131"/>
-      <c r="Y22" s="131"/>
-      <c r="Z22" s="131"/>
-      <c r="AA22" s="131"/>
-      <c r="AB22" s="131"/>
-      <c r="AC22" s="131"/>
-      <c r="AD22" s="131"/>
-      <c r="AE22" s="131"/>
-      <c r="AF22" s="131"/>
-      <c r="AG22" s="131"/>
-      <c r="AH22" s="131"/>
-      <c r="AI22" s="131"/>
-      <c r="AJ22" s="131"/>
-      <c r="AK22" s="131"/>
-      <c r="AL22" s="132"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="40"/>
+      <c r="AJ22" s="40"/>
+      <c r="AK22" s="40"/>
+      <c r="AL22" s="41"/>
     </row>
     <row r="23" spans="4:38" ht="12" customHeight="1">
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="131"/>
-      <c r="R23" s="131"/>
-      <c r="S23" s="131"/>
-      <c r="T23" s="131"/>
-      <c r="U23" s="131"/>
-      <c r="V23" s="131"/>
-      <c r="W23" s="131"/>
-      <c r="X23" s="131"/>
-      <c r="Y23" s="131"/>
-      <c r="Z23" s="131"/>
-      <c r="AA23" s="131"/>
-      <c r="AB23" s="131"/>
-      <c r="AC23" s="131"/>
-      <c r="AD23" s="131"/>
-      <c r="AE23" s="131"/>
-      <c r="AF23" s="131"/>
-      <c r="AG23" s="131"/>
-      <c r="AH23" s="131"/>
-      <c r="AI23" s="131"/>
-      <c r="AJ23" s="131"/>
-      <c r="AK23" s="131"/>
-      <c r="AL23" s="132"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
+      <c r="AI23" s="40"/>
+      <c r="AJ23" s="40"/>
+      <c r="AK23" s="40"/>
+      <c r="AL23" s="41"/>
     </row>
     <row r="24" spans="4:38" ht="12" customHeight="1">
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="131"/>
-      <c r="P24" s="131"/>
-      <c r="Q24" s="131"/>
-      <c r="R24" s="131"/>
-      <c r="S24" s="131"/>
-      <c r="T24" s="131"/>
-      <c r="U24" s="131"/>
-      <c r="V24" s="131"/>
-      <c r="W24" s="131"/>
-      <c r="X24" s="131"/>
-      <c r="Y24" s="131"/>
-      <c r="Z24" s="131"/>
-      <c r="AA24" s="131"/>
-      <c r="AB24" s="131"/>
-      <c r="AC24" s="131"/>
-      <c r="AD24" s="131"/>
-      <c r="AE24" s="131"/>
-      <c r="AF24" s="131"/>
-      <c r="AG24" s="131"/>
-      <c r="AH24" s="131"/>
-      <c r="AI24" s="131"/>
-      <c r="AJ24" s="131"/>
-      <c r="AK24" s="131"/>
-      <c r="AL24" s="132"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="40"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="40"/>
+      <c r="AI24" s="40"/>
+      <c r="AJ24" s="40"/>
+      <c r="AK24" s="40"/>
+      <c r="AL24" s="41"/>
     </row>
     <row r="25" spans="4:38" ht="12" customHeight="1">
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="131"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="131"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="131"/>
-      <c r="S25" s="131"/>
-      <c r="T25" s="131"/>
-      <c r="U25" s="131"/>
-      <c r="V25" s="131"/>
-      <c r="W25" s="131"/>
-      <c r="X25" s="131"/>
-      <c r="Y25" s="131"/>
-      <c r="Z25" s="131"/>
-      <c r="AA25" s="131"/>
-      <c r="AB25" s="131"/>
-      <c r="AC25" s="131"/>
-      <c r="AD25" s="131"/>
-      <c r="AE25" s="131"/>
-      <c r="AF25" s="131"/>
-      <c r="AG25" s="131"/>
-      <c r="AH25" s="131"/>
-      <c r="AI25" s="131"/>
-      <c r="AJ25" s="131"/>
-      <c r="AK25" s="131"/>
-      <c r="AL25" s="132"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="40"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="40"/>
+      <c r="AI25" s="40"/>
+      <c r="AJ25" s="40"/>
+      <c r="AK25" s="40"/>
+      <c r="AL25" s="41"/>
     </row>
     <row r="26" spans="4:38" ht="12" customHeight="1">
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="131"/>
-      <c r="R26" s="131"/>
-      <c r="S26" s="131"/>
-      <c r="T26" s="131"/>
-      <c r="U26" s="131"/>
-      <c r="V26" s="131"/>
-      <c r="W26" s="131"/>
-      <c r="X26" s="131"/>
-      <c r="Y26" s="131"/>
-      <c r="Z26" s="131"/>
-      <c r="AA26" s="131"/>
-      <c r="AB26" s="131"/>
-      <c r="AC26" s="131"/>
-      <c r="AD26" s="131"/>
-      <c r="AE26" s="131"/>
-      <c r="AF26" s="131"/>
-      <c r="AG26" s="131"/>
-      <c r="AH26" s="131"/>
-      <c r="AI26" s="131"/>
-      <c r="AJ26" s="131"/>
-      <c r="AK26" s="131"/>
-      <c r="AL26" s="132"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="40"/>
+      <c r="AI26" s="40"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="40"/>
+      <c r="AL26" s="41"/>
     </row>
     <row r="27" spans="4:38" ht="12" customHeight="1">
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="131"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="131"/>
-      <c r="Q27" s="131"/>
-      <c r="R27" s="131"/>
-      <c r="S27" s="131"/>
-      <c r="T27" s="131"/>
-      <c r="U27" s="131"/>
-      <c r="V27" s="131"/>
-      <c r="W27" s="131"/>
-      <c r="X27" s="131"/>
-      <c r="Y27" s="131"/>
-      <c r="Z27" s="131"/>
-      <c r="AA27" s="131"/>
-      <c r="AB27" s="131"/>
-      <c r="AC27" s="131"/>
-      <c r="AD27" s="131"/>
-      <c r="AE27" s="131"/>
-      <c r="AF27" s="131"/>
-      <c r="AG27" s="131"/>
-      <c r="AH27" s="131"/>
-      <c r="AI27" s="131"/>
-      <c r="AJ27" s="131"/>
-      <c r="AK27" s="131"/>
-      <c r="AL27" s="132"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="40"/>
+      <c r="AF27" s="40"/>
+      <c r="AG27" s="40"/>
+      <c r="AH27" s="40"/>
+      <c r="AI27" s="40"/>
+      <c r="AJ27" s="40"/>
+      <c r="AK27" s="40"/>
+      <c r="AL27" s="41"/>
     </row>
     <row r="28" spans="4:38" ht="12" customHeight="1">
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="131"/>
-      <c r="K28" s="131"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="131"/>
-      <c r="Q28" s="131"/>
-      <c r="R28" s="131"/>
-      <c r="S28" s="131"/>
-      <c r="T28" s="131"/>
-      <c r="U28" s="131"/>
-      <c r="V28" s="131"/>
-      <c r="W28" s="131"/>
-      <c r="X28" s="131"/>
-      <c r="Y28" s="131"/>
-      <c r="Z28" s="131"/>
-      <c r="AA28" s="131"/>
-      <c r="AB28" s="131"/>
-      <c r="AC28" s="131"/>
-      <c r="AD28" s="131"/>
-      <c r="AE28" s="131"/>
-      <c r="AF28" s="131"/>
-      <c r="AG28" s="131"/>
-      <c r="AH28" s="131"/>
-      <c r="AI28" s="131"/>
-      <c r="AJ28" s="131"/>
-      <c r="AK28" s="131"/>
-      <c r="AL28" s="132"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="40"/>
+      <c r="AG28" s="40"/>
+      <c r="AH28" s="40"/>
+      <c r="AI28" s="40"/>
+      <c r="AJ28" s="40"/>
+      <c r="AK28" s="40"/>
+      <c r="AL28" s="41"/>
     </row>
     <row r="29" spans="4:38" ht="12" customHeight="1">
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="131"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="131"/>
-      <c r="N29" s="131"/>
-      <c r="O29" s="131"/>
-      <c r="P29" s="131"/>
-      <c r="Q29" s="131"/>
-      <c r="R29" s="131"/>
-      <c r="S29" s="131"/>
-      <c r="T29" s="131"/>
-      <c r="U29" s="131"/>
-      <c r="V29" s="131"/>
-      <c r="W29" s="131"/>
-      <c r="X29" s="131"/>
-      <c r="Y29" s="131"/>
-      <c r="Z29" s="131"/>
-      <c r="AA29" s="131"/>
-      <c r="AB29" s="131"/>
-      <c r="AC29" s="131"/>
-      <c r="AD29" s="131"/>
-      <c r="AE29" s="131"/>
-      <c r="AF29" s="131"/>
-      <c r="AG29" s="131"/>
-      <c r="AH29" s="131"/>
-      <c r="AI29" s="131"/>
-      <c r="AJ29" s="131"/>
-      <c r="AK29" s="131"/>
-      <c r="AL29" s="132"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="40"/>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="40"/>
+      <c r="AF29" s="40"/>
+      <c r="AG29" s="40"/>
+      <c r="AH29" s="40"/>
+      <c r="AI29" s="40"/>
+      <c r="AJ29" s="40"/>
+      <c r="AK29" s="40"/>
+      <c r="AL29" s="41"/>
     </row>
     <row r="30" spans="4:38" ht="12" customHeight="1">
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="131"/>
-      <c r="K30" s="131"/>
-      <c r="L30" s="131"/>
-      <c r="M30" s="131"/>
-      <c r="N30" s="131"/>
-      <c r="O30" s="131"/>
-      <c r="P30" s="131"/>
-      <c r="Q30" s="131"/>
-      <c r="R30" s="131"/>
-      <c r="S30" s="131"/>
-      <c r="T30" s="131"/>
-      <c r="U30" s="131"/>
-      <c r="V30" s="131"/>
-      <c r="W30" s="131"/>
-      <c r="X30" s="131"/>
-      <c r="Y30" s="131"/>
-      <c r="Z30" s="131"/>
-      <c r="AA30" s="131"/>
-      <c r="AB30" s="131"/>
-      <c r="AC30" s="131"/>
-      <c r="AD30" s="131"/>
-      <c r="AE30" s="131"/>
-      <c r="AF30" s="131"/>
-      <c r="AG30" s="131"/>
-      <c r="AH30" s="131"/>
-      <c r="AI30" s="131"/>
-      <c r="AJ30" s="131"/>
-      <c r="AK30" s="131"/>
-      <c r="AL30" s="132"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="40"/>
+      <c r="AA30" s="40"/>
+      <c r="AB30" s="40"/>
+      <c r="AC30" s="40"/>
+      <c r="AD30" s="40"/>
+      <c r="AE30" s="40"/>
+      <c r="AF30" s="40"/>
+      <c r="AG30" s="40"/>
+      <c r="AH30" s="40"/>
+      <c r="AI30" s="40"/>
+      <c r="AJ30" s="40"/>
+      <c r="AK30" s="40"/>
+      <c r="AL30" s="41"/>
     </row>
     <row r="31" spans="4:38" ht="12" customHeight="1">
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="131"/>
-      <c r="K31" s="131"/>
-      <c r="L31" s="131"/>
-      <c r="M31" s="131"/>
-      <c r="N31" s="131"/>
-      <c r="O31" s="131"/>
-      <c r="P31" s="131"/>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="131"/>
-      <c r="S31" s="131"/>
-      <c r="T31" s="131"/>
-      <c r="U31" s="131"/>
-      <c r="V31" s="131"/>
-      <c r="W31" s="131"/>
-      <c r="X31" s="131"/>
-      <c r="Y31" s="131"/>
-      <c r="Z31" s="131"/>
-      <c r="AA31" s="131"/>
-      <c r="AB31" s="131"/>
-      <c r="AC31" s="131"/>
-      <c r="AD31" s="131"/>
-      <c r="AE31" s="131"/>
-      <c r="AF31" s="131"/>
-      <c r="AG31" s="131"/>
-      <c r="AH31" s="131"/>
-      <c r="AI31" s="131"/>
-      <c r="AJ31" s="131"/>
-      <c r="AK31" s="131"/>
-      <c r="AL31" s="132"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="40"/>
+      <c r="AE31" s="40"/>
+      <c r="AF31" s="40"/>
+      <c r="AG31" s="40"/>
+      <c r="AH31" s="40"/>
+      <c r="AI31" s="40"/>
+      <c r="AJ31" s="40"/>
+      <c r="AK31" s="40"/>
+      <c r="AL31" s="41"/>
     </row>
     <row r="32" spans="4:38" ht="12" customHeight="1">
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="131"/>
-      <c r="K32" s="131"/>
-      <c r="L32" s="131"/>
-      <c r="M32" s="131"/>
-      <c r="N32" s="131"/>
-      <c r="O32" s="131"/>
-      <c r="P32" s="131"/>
-      <c r="Q32" s="131"/>
-      <c r="R32" s="131"/>
-      <c r="S32" s="131"/>
-      <c r="T32" s="131"/>
-      <c r="U32" s="131"/>
-      <c r="V32" s="131"/>
-      <c r="W32" s="131"/>
-      <c r="X32" s="131"/>
-      <c r="Y32" s="131"/>
-      <c r="Z32" s="131"/>
-      <c r="AA32" s="131"/>
-      <c r="AB32" s="131"/>
-      <c r="AC32" s="131"/>
-      <c r="AD32" s="131"/>
-      <c r="AE32" s="131"/>
-      <c r="AF32" s="131"/>
-      <c r="AG32" s="131"/>
-      <c r="AH32" s="131"/>
-      <c r="AI32" s="131"/>
-      <c r="AJ32" s="131"/>
-      <c r="AK32" s="131"/>
-      <c r="AL32" s="132"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="40"/>
+      <c r="AD32" s="40"/>
+      <c r="AE32" s="40"/>
+      <c r="AF32" s="40"/>
+      <c r="AG32" s="40"/>
+      <c r="AH32" s="40"/>
+      <c r="AI32" s="40"/>
+      <c r="AJ32" s="40"/>
+      <c r="AK32" s="40"/>
+      <c r="AL32" s="41"/>
     </row>
     <row r="33" spans="4:38" ht="12" customHeight="1">
       <c r="D33" s="7"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="131"/>
-      <c r="K33" s="131"/>
-      <c r="L33" s="131"/>
-      <c r="M33" s="134"/>
-      <c r="N33" s="131" t="s">
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="O33" s="131"/>
-      <c r="P33" s="131"/>
-      <c r="Q33" s="131"/>
-      <c r="R33" s="135"/>
-      <c r="S33" s="131" t="s">
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="T33" s="131"/>
-      <c r="U33" s="131"/>
-      <c r="V33" s="131"/>
-      <c r="W33" s="131"/>
-      <c r="X33" s="136"/>
-      <c r="Y33" s="131" t="s">
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="Z33" s="131"/>
-      <c r="AA33" s="131"/>
-      <c r="AB33" s="131"/>
-      <c r="AC33" s="131"/>
-      <c r="AD33" s="123"/>
-      <c r="AE33" s="131" t="s">
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="AF33" s="131"/>
-      <c r="AG33" s="131"/>
-      <c r="AH33" s="131"/>
-      <c r="AI33" s="131"/>
-      <c r="AJ33" s="131"/>
-      <c r="AK33" s="131"/>
-      <c r="AL33" s="132"/>
+      <c r="AF33" s="40"/>
+      <c r="AG33" s="40"/>
+      <c r="AH33" s="40"/>
+      <c r="AI33" s="40"/>
+      <c r="AJ33" s="40"/>
+      <c r="AK33" s="40"/>
+      <c r="AL33" s="41"/>
     </row>
     <row r="34" spans="4:38" ht="12" customHeight="1">
       <c r="D34" s="1"/>
@@ -9470,15 +9544,29 @@
       <c r="AL36" s="9"/>
     </row>
     <row r="41" spans="4:38" ht="12" customHeight="1">
-      <c r="G41" s="137" t="s">
+      <c r="G41" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="H41" s="137"/>
-      <c r="I41" s="137"/>
-      <c r="J41" s="137"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="I1:R4"/>
+    <mergeCell ref="S1:U2"/>
+    <mergeCell ref="V1:AD2"/>
+    <mergeCell ref="AE1:AG2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="AO1:AR2"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AD4"/>
+    <mergeCell ref="AE3:AG4"/>
+    <mergeCell ref="AH3:AK4"/>
+    <mergeCell ref="AL3:AN4"/>
+    <mergeCell ref="AO3:AR4"/>
+    <mergeCell ref="AH1:AK2"/>
     <mergeCell ref="G41:J41"/>
     <mergeCell ref="G12:N14"/>
     <mergeCell ref="AE13:AK13"/>
@@ -9487,20 +9575,6 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:N7"/>
     <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="AO1:AR2"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AD4"/>
-    <mergeCell ref="AE3:AG4"/>
-    <mergeCell ref="AH3:AK4"/>
-    <mergeCell ref="AL3:AN4"/>
-    <mergeCell ref="AO3:AR4"/>
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="I1:R4"/>
-    <mergeCell ref="S1:U2"/>
-    <mergeCell ref="V1:AD2"/>
-    <mergeCell ref="AE1:AG2"/>
-    <mergeCell ref="AH1:AK2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9525,244 +9599,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="12" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="67" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="47" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="50" t="s">
+      <c r="T1" s="49"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="43" t="s">
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="56">
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="65">
         <v>42982</v>
       </c>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="44" t="s">
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="45" t="s">
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
     </row>
     <row r="2" spans="1:44" ht="12" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
     </row>
     <row r="3" spans="1:44" ht="12" customHeight="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="47" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="43" t="s">
+      <c r="T3" s="49"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="66"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="66"/>
     </row>
     <row r="4" spans="1:44" ht="12" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="57"/>
-      <c r="AP4" s="57"/>
-      <c r="AQ4" s="57"/>
-      <c r="AR4" s="57"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="64"/>
+      <c r="AM4" s="64"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="66"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="66"/>
+      <c r="AR4" s="66"/>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="73"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="53"/>
     </row>
     <row r="7" spans="1:44" ht="12" customHeight="1">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="73"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="53"/>
     </row>
     <row r="12" spans="1:44" ht="12" customHeight="1">
       <c r="B12" s="1"/>
@@ -9816,20 +9890,20 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="74" t="s">
+      <c r="N13" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="74"/>
-      <c r="Y13" s="74"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
@@ -9857,18 +9931,18 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="74"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
@@ -9960,11 +10034,11 @@
       <c r="AJ16" s="8"/>
       <c r="AK16" s="8"/>
       <c r="AL16" s="9"/>
-      <c r="AM16" s="75" t="s">
+      <c r="AM16" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="AN16" s="76"/>
-      <c r="AO16" s="76"/>
+      <c r="AN16" s="88"/>
+      <c r="AO16" s="88"/>
     </row>
     <row r="17" spans="2:47" ht="12" customHeight="1">
       <c r="B17" s="10"/>
@@ -10004,51 +10078,51 @@
       <c r="AJ17" s="11"/>
       <c r="AK17" s="11"/>
       <c r="AL17" s="12"/>
-      <c r="AM17" s="75"/>
-      <c r="AN17" s="76"/>
-      <c r="AO17" s="76"/>
+      <c r="AM17" s="87"/>
+      <c r="AN17" s="88"/>
+      <c r="AO17" s="88"/>
     </row>
     <row r="18" spans="2:47" ht="12" customHeight="1">
       <c r="B18" s="10"/>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="30" t="s">
+      <c r="L18" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
-      <c r="W18" s="30" t="s">
+      <c r="W18" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="89"/>
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="11"/>
       <c r="AF18" s="11"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
+      <c r="AG18" s="89"/>
+      <c r="AH18" s="89"/>
+      <c r="AI18" s="89"/>
       <c r="AJ18" s="11"/>
       <c r="AK18" s="11"/>
       <c r="AL18" s="12"/>
@@ -10058,9 +10132,9 @@
     </row>
     <row r="19" spans="2:47" ht="12" customHeight="1">
       <c r="B19" s="10"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -10100,43 +10174,43 @@
     </row>
     <row r="20" spans="2:47" ht="12" customHeight="1">
       <c r="B20" s="10"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
-      <c r="L20" s="30" t="s">
+      <c r="L20" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="89"/>
       <c r="AC20" s="11"/>
       <c r="AD20" s="11"/>
       <c r="AE20" s="11"/>
       <c r="AF20" s="11"/>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="30"/>
+      <c r="AG20" s="89"/>
+      <c r="AH20" s="89"/>
+      <c r="AI20" s="89"/>
       <c r="AJ20" s="11"/>
       <c r="AK20" s="11"/>
       <c r="AL20" s="12"/>
@@ -10230,23 +10304,23 @@
       <c r="AL22" s="12"/>
     </row>
     <row r="23" spans="2:47" ht="12" customHeight="1">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
@@ -10312,23 +10386,23 @@
       <c r="AL24" s="12"/>
     </row>
     <row r="25" spans="2:47" ht="12" customHeight="1">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="30" t="s">
+      <c r="L25" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
@@ -10394,23 +10468,23 @@
       <c r="AL26" s="12"/>
     </row>
     <row r="27" spans="2:47" ht="12" customHeight="1">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="30" t="s">
+      <c r="L27" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -10476,12 +10550,12 @@
       <c r="AL28" s="12"/>
     </row>
     <row r="29" spans="2:47" ht="12" customHeight="1">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -10556,12 +10630,12 @@
       <c r="AL30" s="12"/>
     </row>
     <row r="31" spans="2:47" ht="12" customHeight="1">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -10636,12 +10710,12 @@
       <c r="AL32" s="12"/>
     </row>
     <row r="33" spans="2:38" ht="12" customHeight="1">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -10897,23 +10971,23 @@
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
       <c r="Z39" s="11"/>
-      <c r="AA39" s="37" t="s">
+      <c r="AA39" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="AB39" s="38"/>
-      <c r="AC39" s="39"/>
+      <c r="AB39" s="98"/>
+      <c r="AC39" s="99"/>
       <c r="AD39" s="11"/>
-      <c r="AE39" s="31" t="s">
+      <c r="AE39" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="AF39" s="32"/>
-      <c r="AG39" s="33"/>
+      <c r="AF39" s="92"/>
+      <c r="AG39" s="93"/>
       <c r="AH39" s="11"/>
-      <c r="AI39" s="37" t="s">
+      <c r="AI39" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="AJ39" s="38"/>
-      <c r="AK39" s="39"/>
+      <c r="AJ39" s="98"/>
+      <c r="AK39" s="99"/>
       <c r="AL39" s="12"/>
     </row>
     <row r="40" spans="2:38" ht="12" customHeight="1">
@@ -10942,17 +11016,17 @@
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
       <c r="Z40" s="11"/>
-      <c r="AA40" s="40"/>
-      <c r="AB40" s="41"/>
-      <c r="AC40" s="42"/>
+      <c r="AA40" s="100"/>
+      <c r="AB40" s="101"/>
+      <c r="AC40" s="102"/>
       <c r="AD40" s="11"/>
-      <c r="AE40" s="34"/>
-      <c r="AF40" s="35"/>
-      <c r="AG40" s="36"/>
+      <c r="AE40" s="94"/>
+      <c r="AF40" s="95"/>
+      <c r="AG40" s="96"/>
       <c r="AH40" s="11"/>
-      <c r="AI40" s="40"/>
-      <c r="AJ40" s="41"/>
-      <c r="AK40" s="42"/>
+      <c r="AI40" s="100"/>
+      <c r="AJ40" s="101"/>
+      <c r="AK40" s="102"/>
       <c r="AL40" s="12"/>
     </row>
     <row r="41" spans="2:38" ht="12" customHeight="1">
@@ -10996,11 +11070,31 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="AM16:AO17"/>
-    <mergeCell ref="AG20:AI20"/>
-    <mergeCell ref="AG18:AI18"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="AE39:AG40"/>
+    <mergeCell ref="AI39:AK40"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="AA39:AC40"/>
+    <mergeCell ref="AE1:AG2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="AO1:AR2"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AD4"/>
+    <mergeCell ref="AE3:AG4"/>
+    <mergeCell ref="AH3:AK4"/>
+    <mergeCell ref="AL3:AN4"/>
+    <mergeCell ref="AO3:AR4"/>
+    <mergeCell ref="AH1:AK2"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="W18:Y18"/>
     <mergeCell ref="W20:Y20"/>
@@ -11016,31 +11110,11 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="AE1:AG2"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="AO1:AR2"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AD4"/>
-    <mergeCell ref="AE3:AG4"/>
-    <mergeCell ref="AH3:AK4"/>
-    <mergeCell ref="AL3:AN4"/>
-    <mergeCell ref="AO3:AR4"/>
-    <mergeCell ref="AH1:AK2"/>
-    <mergeCell ref="AE39:AG40"/>
-    <mergeCell ref="AI39:AK40"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="AA39:AC40"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="AM16:AO17"/>
+    <mergeCell ref="AG20:AI20"/>
+    <mergeCell ref="AG18:AI18"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="Z18:AB18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11053,8 +11127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AN42" sqref="AN42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="12" customHeight="1"/>
@@ -11063,248 +11137,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="12" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="67" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="47" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="50" t="s">
+      <c r="T1" s="49"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="43" t="s">
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="56">
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="65">
         <v>42982</v>
       </c>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="44" t="s">
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="45" t="s">
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
     </row>
     <row r="2" spans="1:44" ht="12" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
     </row>
     <row r="3" spans="1:44" ht="12" customHeight="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="47" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="43" t="s">
+      <c r="T3" s="49"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="66"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="66"/>
     </row>
     <row r="4" spans="1:44" ht="12" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="57"/>
-      <c r="AP4" s="57"/>
-      <c r="AQ4" s="57"/>
-      <c r="AR4" s="57"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="64"/>
+      <c r="AM4" s="64"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="66"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="66"/>
+      <c r="AR4" s="66"/>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="73"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="53"/>
     </row>
     <row r="7" spans="1:44" ht="12" customHeight="1">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="73"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="53"/>
     </row>
     <row r="12" spans="1:44" ht="12" customHeight="1">
       <c r="B12" s="1"/>
@@ -11345,7 +11419,7 @@
       <c r="AK12" s="2"/>
       <c r="AL12" s="3"/>
       <c r="AO12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:44" ht="12" customHeight="1">
@@ -11390,35 +11464,35 @@
         <v>1</v>
       </c>
       <c r="AP13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:44" ht="12" customHeight="1">
-      <c r="B14" s="4"/>
-      <c r="C14" s="142" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="142"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="157"/>
+      <c r="B14" s="162" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="161"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="112"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="143" t="s">
-        <v>59</v>
-      </c>
-      <c r="N14" s="143"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="160"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="160"/>
-      <c r="T14" s="160"/>
-      <c r="U14" s="160"/>
-      <c r="V14" s="157"/>
+      <c r="M14" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="116"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="112"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
@@ -11426,12 +11500,12 @@
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
-      <c r="AD14" s="150" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE14" s="151"/>
-      <c r="AF14" s="151"/>
-      <c r="AG14" s="152"/>
+      <c r="AD14" s="117" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE14" s="118"/>
+      <c r="AF14" s="118"/>
+      <c r="AG14" s="119"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
@@ -11441,31 +11515,31 @@
         <v>2</v>
       </c>
       <c r="AP14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:44" ht="12" customHeight="1">
-      <c r="B15" s="4"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="159"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="115"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="158"/>
-      <c r="Q15" s="161"/>
-      <c r="R15" s="161"/>
-      <c r="S15" s="161"/>
-      <c r="T15" s="161"/>
-      <c r="U15" s="161"/>
-      <c r="V15" s="159"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="113"/>
+      <c r="Q15" s="114"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
+      <c r="T15" s="114"/>
+      <c r="U15" s="114"/>
+      <c r="V15" s="115"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
@@ -11473,10 +11547,10 @@
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
-      <c r="AD15" s="153"/>
-      <c r="AE15" s="154"/>
-      <c r="AF15" s="154"/>
-      <c r="AG15" s="155"/>
+      <c r="AD15" s="120"/>
+      <c r="AE15" s="121"/>
+      <c r="AF15" s="121"/>
+      <c r="AG15" s="122"/>
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
@@ -11486,7 +11560,7 @@
         <v>3</v>
       </c>
       <c r="AP15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:44" ht="12" customHeight="1">
@@ -11527,25 +11601,27 @@
       <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
       <c r="AL16" s="6"/>
-      <c r="AN16" s="115"/>
+      <c r="AN16" s="29"/>
       <c r="AO16">
         <v>4</v>
       </c>
       <c r="AP16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:47" ht="12" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="B17" s="164" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="165"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -11573,25 +11649,25 @@
       <c r="AJ17" s="5"/>
       <c r="AK17" s="5"/>
       <c r="AL17" s="6"/>
-      <c r="AN17" s="115"/>
+      <c r="AN17" s="29"/>
       <c r="AO17">
         <v>5</v>
       </c>
       <c r="AP17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:47" ht="12" customHeight="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -11623,114 +11699,114 @@
         <v>6</v>
       </c>
       <c r="AP18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="2:47" ht="12" customHeight="1">
       <c r="B19" s="4"/>
-      <c r="C19" s="144" t="s">
+      <c r="C19" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="106"/>
+      <c r="E19" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="146"/>
-      <c r="E19" s="144" t="s">
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="144" t="s">
+      <c r="R19" s="105"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="105"/>
+      <c r="U19" s="106"/>
+      <c r="V19" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="W19" s="105"/>
+      <c r="X19" s="105"/>
+      <c r="Y19" s="105"/>
+      <c r="Z19" s="106"/>
+      <c r="AA19" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="K19" s="145"/>
-      <c r="L19" s="145"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="145"/>
-      <c r="O19" s="145"/>
-      <c r="P19" s="146"/>
-      <c r="Q19" s="144" t="s">
+      <c r="AB19" s="106"/>
+      <c r="AC19" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="R19" s="145"/>
-      <c r="S19" s="145"/>
-      <c r="T19" s="145"/>
-      <c r="U19" s="146"/>
-      <c r="V19" s="144" t="s">
-        <v>38</v>
-      </c>
-      <c r="W19" s="145"/>
-      <c r="X19" s="145"/>
-      <c r="Y19" s="145"/>
-      <c r="Z19" s="146"/>
-      <c r="AA19" s="144" t="s">
+      <c r="AD19" s="105"/>
+      <c r="AE19" s="105"/>
+      <c r="AF19" s="105"/>
+      <c r="AG19" s="106"/>
+      <c r="AH19" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="AB19" s="146"/>
-      <c r="AC19" s="144" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD19" s="145"/>
-      <c r="AE19" s="145"/>
-      <c r="AF19" s="145"/>
-      <c r="AG19" s="146"/>
-      <c r="AH19" s="144" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI19" s="145"/>
-      <c r="AJ19" s="145"/>
-      <c r="AK19" s="146"/>
+      <c r="AI19" s="105"/>
+      <c r="AJ19" s="105"/>
+      <c r="AK19" s="106"/>
       <c r="AL19" s="6"/>
       <c r="AO19">
         <v>7</v>
       </c>
       <c r="AP19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:47" ht="12" customHeight="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="148"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="148"/>
-      <c r="N20" s="148"/>
-      <c r="O20" s="148"/>
-      <c r="P20" s="149"/>
-      <c r="Q20" s="147"/>
-      <c r="R20" s="148"/>
-      <c r="S20" s="148"/>
-      <c r="T20" s="148"/>
-      <c r="U20" s="149"/>
-      <c r="V20" s="147"/>
-      <c r="W20" s="148"/>
-      <c r="X20" s="148"/>
-      <c r="Y20" s="148"/>
-      <c r="Z20" s="149"/>
-      <c r="AA20" s="147"/>
-      <c r="AB20" s="149"/>
-      <c r="AC20" s="147"/>
-      <c r="AD20" s="148"/>
-      <c r="AE20" s="148"/>
-      <c r="AF20" s="148"/>
-      <c r="AG20" s="149"/>
-      <c r="AH20" s="147"/>
-      <c r="AI20" s="148"/>
-      <c r="AJ20" s="148"/>
-      <c r="AK20" s="149"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="109"/>
+      <c r="V20" s="107"/>
+      <c r="W20" s="108"/>
+      <c r="X20" s="108"/>
+      <c r="Y20" s="108"/>
+      <c r="Z20" s="109"/>
+      <c r="AA20" s="107"/>
+      <c r="AB20" s="109"/>
+      <c r="AC20" s="107"/>
+      <c r="AD20" s="108"/>
+      <c r="AE20" s="108"/>
+      <c r="AF20" s="108"/>
+      <c r="AG20" s="109"/>
+      <c r="AH20" s="107"/>
+      <c r="AI20" s="108"/>
+      <c r="AJ20" s="108"/>
+      <c r="AK20" s="109"/>
       <c r="AL20" s="6"/>
       <c r="AN20" s="28"/>
       <c r="AO20">
         <v>8</v>
       </c>
       <c r="AP20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AQ20" s="28"/>
       <c r="AR20" s="28"/>
@@ -11740,854 +11816,854 @@
     </row>
     <row r="21" spans="2:47" ht="12" customHeight="1">
       <c r="B21" s="4"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="160"/>
-      <c r="L21" s="160"/>
-      <c r="M21" s="160"/>
-      <c r="N21" s="160"/>
-      <c r="O21" s="160"/>
-      <c r="P21" s="157"/>
-      <c r="Q21" s="156"/>
-      <c r="R21" s="160"/>
-      <c r="S21" s="160"/>
-      <c r="T21" s="160"/>
-      <c r="U21" s="157"/>
-      <c r="V21" s="156"/>
-      <c r="W21" s="160"/>
-      <c r="X21" s="160"/>
-      <c r="Y21" s="160"/>
-      <c r="Z21" s="157"/>
-      <c r="AA21" s="156"/>
-      <c r="AB21" s="157"/>
-      <c r="AC21" s="156"/>
-      <c r="AD21" s="160"/>
-      <c r="AE21" s="160"/>
-      <c r="AF21" s="160"/>
-      <c r="AG21" s="157"/>
-      <c r="AH21" s="156"/>
-      <c r="AI21" s="160"/>
-      <c r="AJ21" s="160"/>
-      <c r="AK21" s="157"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="112"/>
+      <c r="V21" s="110"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="111"/>
+      <c r="Z21" s="112"/>
+      <c r="AA21" s="110"/>
+      <c r="AB21" s="112"/>
+      <c r="AC21" s="110"/>
+      <c r="AD21" s="111"/>
+      <c r="AE21" s="111"/>
+      <c r="AF21" s="111"/>
+      <c r="AG21" s="112"/>
+      <c r="AH21" s="110"/>
+      <c r="AI21" s="111"/>
+      <c r="AJ21" s="111"/>
+      <c r="AK21" s="112"/>
       <c r="AL21" s="6"/>
       <c r="AO21">
         <v>9</v>
       </c>
       <c r="AP21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="2:47" ht="12" customHeight="1">
       <c r="B22" s="4"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="161"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="161"/>
-      <c r="P22" s="159"/>
-      <c r="Q22" s="158"/>
-      <c r="R22" s="161"/>
-      <c r="S22" s="161"/>
-      <c r="T22" s="161"/>
-      <c r="U22" s="159"/>
-      <c r="V22" s="158"/>
-      <c r="W22" s="161"/>
-      <c r="X22" s="161"/>
-      <c r="Y22" s="161"/>
-      <c r="Z22" s="159"/>
-      <c r="AA22" s="158"/>
-      <c r="AB22" s="159"/>
-      <c r="AC22" s="158"/>
-      <c r="AD22" s="161"/>
-      <c r="AE22" s="161"/>
-      <c r="AF22" s="161"/>
-      <c r="AG22" s="159"/>
-      <c r="AH22" s="158"/>
-      <c r="AI22" s="161"/>
-      <c r="AJ22" s="161"/>
-      <c r="AK22" s="159"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="114"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="115"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="114"/>
+      <c r="S22" s="114"/>
+      <c r="T22" s="114"/>
+      <c r="U22" s="115"/>
+      <c r="V22" s="113"/>
+      <c r="W22" s="114"/>
+      <c r="X22" s="114"/>
+      <c r="Y22" s="114"/>
+      <c r="Z22" s="115"/>
+      <c r="AA22" s="113"/>
+      <c r="AB22" s="115"/>
+      <c r="AC22" s="113"/>
+      <c r="AD22" s="114"/>
+      <c r="AE22" s="114"/>
+      <c r="AF22" s="114"/>
+      <c r="AG22" s="115"/>
+      <c r="AH22" s="113"/>
+      <c r="AI22" s="114"/>
+      <c r="AJ22" s="114"/>
+      <c r="AK22" s="115"/>
       <c r="AL22" s="6"/>
       <c r="AO22">
         <v>10</v>
       </c>
       <c r="AP22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:47" ht="12" customHeight="1">
       <c r="B23" s="4"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="160"/>
-      <c r="L23" s="160"/>
-      <c r="M23" s="160"/>
-      <c r="N23" s="160"/>
-      <c r="O23" s="160"/>
-      <c r="P23" s="157"/>
-      <c r="Q23" s="156"/>
-      <c r="R23" s="160"/>
-      <c r="S23" s="160"/>
-      <c r="T23" s="160"/>
-      <c r="U23" s="157"/>
-      <c r="V23" s="156"/>
-      <c r="W23" s="160"/>
-      <c r="X23" s="160"/>
-      <c r="Y23" s="160"/>
-      <c r="Z23" s="157"/>
-      <c r="AA23" s="156"/>
-      <c r="AB23" s="157"/>
-      <c r="AC23" s="156"/>
-      <c r="AD23" s="160"/>
-      <c r="AE23" s="160"/>
-      <c r="AF23" s="160"/>
-      <c r="AG23" s="157"/>
-      <c r="AH23" s="156"/>
-      <c r="AI23" s="160"/>
-      <c r="AJ23" s="160"/>
-      <c r="AK23" s="157"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="111"/>
+      <c r="T23" s="111"/>
+      <c r="U23" s="112"/>
+      <c r="V23" s="110"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="111"/>
+      <c r="Y23" s="111"/>
+      <c r="Z23" s="112"/>
+      <c r="AA23" s="110"/>
+      <c r="AB23" s="112"/>
+      <c r="AC23" s="110"/>
+      <c r="AD23" s="111"/>
+      <c r="AE23" s="111"/>
+      <c r="AF23" s="111"/>
+      <c r="AG23" s="112"/>
+      <c r="AH23" s="110"/>
+      <c r="AI23" s="111"/>
+      <c r="AJ23" s="111"/>
+      <c r="AK23" s="112"/>
       <c r="AL23" s="6"/>
       <c r="AO23">
         <v>11</v>
       </c>
       <c r="AP23" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:47" ht="12" customHeight="1">
       <c r="B24" s="4"/>
-      <c r="C24" s="158"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="161"/>
-      <c r="M24" s="161"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="161"/>
-      <c r="P24" s="159"/>
-      <c r="Q24" s="158"/>
-      <c r="R24" s="161"/>
-      <c r="S24" s="161"/>
-      <c r="T24" s="161"/>
-      <c r="U24" s="159"/>
-      <c r="V24" s="158"/>
-      <c r="W24" s="161"/>
-      <c r="X24" s="161"/>
-      <c r="Y24" s="161"/>
-      <c r="Z24" s="159"/>
-      <c r="AA24" s="158"/>
-      <c r="AB24" s="159"/>
-      <c r="AC24" s="158"/>
-      <c r="AD24" s="161"/>
-      <c r="AE24" s="161"/>
-      <c r="AF24" s="161"/>
-      <c r="AG24" s="159"/>
-      <c r="AH24" s="158"/>
-      <c r="AI24" s="161"/>
-      <c r="AJ24" s="161"/>
-      <c r="AK24" s="159"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="114"/>
+      <c r="O24" s="114"/>
+      <c r="P24" s="115"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="114"/>
+      <c r="S24" s="114"/>
+      <c r="T24" s="114"/>
+      <c r="U24" s="115"/>
+      <c r="V24" s="113"/>
+      <c r="W24" s="114"/>
+      <c r="X24" s="114"/>
+      <c r="Y24" s="114"/>
+      <c r="Z24" s="115"/>
+      <c r="AA24" s="113"/>
+      <c r="AB24" s="115"/>
+      <c r="AC24" s="113"/>
+      <c r="AD24" s="114"/>
+      <c r="AE24" s="114"/>
+      <c r="AF24" s="114"/>
+      <c r="AG24" s="115"/>
+      <c r="AH24" s="113"/>
+      <c r="AI24" s="114"/>
+      <c r="AJ24" s="114"/>
+      <c r="AK24" s="115"/>
       <c r="AL24" s="6"/>
       <c r="AO24">
         <v>12</v>
       </c>
       <c r="AP24" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="2:47" ht="12" customHeight="1">
       <c r="B25" s="4"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="160"/>
-      <c r="L25" s="160"/>
-      <c r="M25" s="160"/>
-      <c r="N25" s="160"/>
-      <c r="O25" s="160"/>
-      <c r="P25" s="157"/>
-      <c r="Q25" s="156"/>
-      <c r="R25" s="160"/>
-      <c r="S25" s="160"/>
-      <c r="T25" s="160"/>
-      <c r="U25" s="157"/>
-      <c r="V25" s="156"/>
-      <c r="W25" s="160"/>
-      <c r="X25" s="160"/>
-      <c r="Y25" s="160"/>
-      <c r="Z25" s="157"/>
-      <c r="AA25" s="156"/>
-      <c r="AB25" s="157"/>
-      <c r="AC25" s="156"/>
-      <c r="AD25" s="160"/>
-      <c r="AE25" s="160"/>
-      <c r="AF25" s="160"/>
-      <c r="AG25" s="157"/>
-      <c r="AH25" s="156"/>
-      <c r="AI25" s="160"/>
-      <c r="AJ25" s="160"/>
-      <c r="AK25" s="157"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="112"/>
+      <c r="V25" s="110"/>
+      <c r="W25" s="111"/>
+      <c r="X25" s="111"/>
+      <c r="Y25" s="111"/>
+      <c r="Z25" s="112"/>
+      <c r="AA25" s="110"/>
+      <c r="AB25" s="112"/>
+      <c r="AC25" s="110"/>
+      <c r="AD25" s="111"/>
+      <c r="AE25" s="111"/>
+      <c r="AF25" s="111"/>
+      <c r="AG25" s="112"/>
+      <c r="AH25" s="110"/>
+      <c r="AI25" s="111"/>
+      <c r="AJ25" s="111"/>
+      <c r="AK25" s="112"/>
       <c r="AL25" s="6"/>
       <c r="AO25">
         <v>13</v>
       </c>
       <c r="AP25" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="2:47" ht="12" customHeight="1">
       <c r="B26" s="4"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="161"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="161"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="161"/>
-      <c r="P26" s="159"/>
-      <c r="Q26" s="158"/>
-      <c r="R26" s="161"/>
-      <c r="S26" s="161"/>
-      <c r="T26" s="161"/>
-      <c r="U26" s="159"/>
-      <c r="V26" s="158"/>
-      <c r="W26" s="161"/>
-      <c r="X26" s="161"/>
-      <c r="Y26" s="161"/>
-      <c r="Z26" s="159"/>
-      <c r="AA26" s="158"/>
-      <c r="AB26" s="159"/>
-      <c r="AC26" s="158"/>
-      <c r="AD26" s="161"/>
-      <c r="AE26" s="161"/>
-      <c r="AF26" s="161"/>
-      <c r="AG26" s="159"/>
-      <c r="AH26" s="158"/>
-      <c r="AI26" s="161"/>
-      <c r="AJ26" s="161"/>
-      <c r="AK26" s="159"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="114"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="115"/>
+      <c r="Q26" s="113"/>
+      <c r="R26" s="114"/>
+      <c r="S26" s="114"/>
+      <c r="T26" s="114"/>
+      <c r="U26" s="115"/>
+      <c r="V26" s="113"/>
+      <c r="W26" s="114"/>
+      <c r="X26" s="114"/>
+      <c r="Y26" s="114"/>
+      <c r="Z26" s="115"/>
+      <c r="AA26" s="113"/>
+      <c r="AB26" s="115"/>
+      <c r="AC26" s="113"/>
+      <c r="AD26" s="114"/>
+      <c r="AE26" s="114"/>
+      <c r="AF26" s="114"/>
+      <c r="AG26" s="115"/>
+      <c r="AH26" s="113"/>
+      <c r="AI26" s="114"/>
+      <c r="AJ26" s="114"/>
+      <c r="AK26" s="115"/>
       <c r="AL26" s="6"/>
       <c r="AO26">
         <v>14</v>
       </c>
       <c r="AP26" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="2:47" ht="12" customHeight="1">
       <c r="B27" s="4"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="160"/>
-      <c r="L27" s="160"/>
-      <c r="M27" s="160"/>
-      <c r="N27" s="160"/>
-      <c r="O27" s="160"/>
-      <c r="P27" s="157"/>
-      <c r="Q27" s="156"/>
-      <c r="R27" s="160"/>
-      <c r="S27" s="160"/>
-      <c r="T27" s="160"/>
-      <c r="U27" s="157"/>
-      <c r="V27" s="156"/>
-      <c r="W27" s="160"/>
-      <c r="X27" s="160"/>
-      <c r="Y27" s="160"/>
-      <c r="Z27" s="157"/>
-      <c r="AA27" s="156"/>
-      <c r="AB27" s="157"/>
-      <c r="AC27" s="156"/>
-      <c r="AD27" s="160"/>
-      <c r="AE27" s="160"/>
-      <c r="AF27" s="160"/>
-      <c r="AG27" s="157"/>
-      <c r="AH27" s="156"/>
-      <c r="AI27" s="160"/>
-      <c r="AJ27" s="160"/>
-      <c r="AK27" s="157"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="110"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="112"/>
+      <c r="V27" s="110"/>
+      <c r="W27" s="111"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="111"/>
+      <c r="Z27" s="112"/>
+      <c r="AA27" s="110"/>
+      <c r="AB27" s="112"/>
+      <c r="AC27" s="110"/>
+      <c r="AD27" s="111"/>
+      <c r="AE27" s="111"/>
+      <c r="AF27" s="111"/>
+      <c r="AG27" s="112"/>
+      <c r="AH27" s="110"/>
+      <c r="AI27" s="111"/>
+      <c r="AJ27" s="111"/>
+      <c r="AK27" s="112"/>
       <c r="AL27" s="6"/>
       <c r="AO27">
         <v>15</v>
       </c>
       <c r="AP27" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="2:47" ht="12" customHeight="1">
       <c r="B28" s="4"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="158"/>
-      <c r="K28" s="161"/>
-      <c r="L28" s="161"/>
-      <c r="M28" s="161"/>
-      <c r="N28" s="161"/>
-      <c r="O28" s="161"/>
-      <c r="P28" s="159"/>
-      <c r="Q28" s="158"/>
-      <c r="R28" s="161"/>
-      <c r="S28" s="161"/>
-      <c r="T28" s="161"/>
-      <c r="U28" s="159"/>
-      <c r="V28" s="158"/>
-      <c r="W28" s="161"/>
-      <c r="X28" s="161"/>
-      <c r="Y28" s="161"/>
-      <c r="Z28" s="159"/>
-      <c r="AA28" s="158"/>
-      <c r="AB28" s="159"/>
-      <c r="AC28" s="158"/>
-      <c r="AD28" s="161"/>
-      <c r="AE28" s="161"/>
-      <c r="AF28" s="161"/>
-      <c r="AG28" s="159"/>
-      <c r="AH28" s="158"/>
-      <c r="AI28" s="161"/>
-      <c r="AJ28" s="161"/>
-      <c r="AK28" s="159"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="114"/>
+      <c r="N28" s="114"/>
+      <c r="O28" s="114"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="113"/>
+      <c r="R28" s="114"/>
+      <c r="S28" s="114"/>
+      <c r="T28" s="114"/>
+      <c r="U28" s="115"/>
+      <c r="V28" s="113"/>
+      <c r="W28" s="114"/>
+      <c r="X28" s="114"/>
+      <c r="Y28" s="114"/>
+      <c r="Z28" s="115"/>
+      <c r="AA28" s="113"/>
+      <c r="AB28" s="115"/>
+      <c r="AC28" s="113"/>
+      <c r="AD28" s="114"/>
+      <c r="AE28" s="114"/>
+      <c r="AF28" s="114"/>
+      <c r="AG28" s="115"/>
+      <c r="AH28" s="113"/>
+      <c r="AI28" s="114"/>
+      <c r="AJ28" s="114"/>
+      <c r="AK28" s="115"/>
       <c r="AL28" s="6"/>
       <c r="AO28">
         <v>16</v>
       </c>
       <c r="AP28" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="2:47" ht="12" customHeight="1">
       <c r="B29" s="4"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="160"/>
-      <c r="L29" s="160"/>
-      <c r="M29" s="160"/>
-      <c r="N29" s="160"/>
-      <c r="O29" s="160"/>
-      <c r="P29" s="157"/>
-      <c r="Q29" s="156"/>
-      <c r="R29" s="160"/>
-      <c r="S29" s="160"/>
-      <c r="T29" s="160"/>
-      <c r="U29" s="157"/>
-      <c r="V29" s="156"/>
-      <c r="W29" s="160"/>
-      <c r="X29" s="160"/>
-      <c r="Y29" s="160"/>
-      <c r="Z29" s="157"/>
-      <c r="AA29" s="156"/>
-      <c r="AB29" s="157"/>
-      <c r="AC29" s="156"/>
-      <c r="AD29" s="160"/>
-      <c r="AE29" s="160"/>
-      <c r="AF29" s="160"/>
-      <c r="AG29" s="157"/>
-      <c r="AH29" s="156"/>
-      <c r="AI29" s="160"/>
-      <c r="AJ29" s="160"/>
-      <c r="AK29" s="157"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="112"/>
+      <c r="V29" s="110"/>
+      <c r="W29" s="111"/>
+      <c r="X29" s="111"/>
+      <c r="Y29" s="111"/>
+      <c r="Z29" s="112"/>
+      <c r="AA29" s="110"/>
+      <c r="AB29" s="112"/>
+      <c r="AC29" s="110"/>
+      <c r="AD29" s="111"/>
+      <c r="AE29" s="111"/>
+      <c r="AF29" s="111"/>
+      <c r="AG29" s="112"/>
+      <c r="AH29" s="110"/>
+      <c r="AI29" s="111"/>
+      <c r="AJ29" s="111"/>
+      <c r="AK29" s="112"/>
       <c r="AL29" s="6"/>
       <c r="AO29">
         <v>17</v>
       </c>
       <c r="AP29" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="2:47" ht="12" customHeight="1">
       <c r="B30" s="4"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="159"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="161"/>
-      <c r="M30" s="161"/>
-      <c r="N30" s="161"/>
-      <c r="O30" s="161"/>
-      <c r="P30" s="159"/>
-      <c r="Q30" s="158"/>
-      <c r="R30" s="161"/>
-      <c r="S30" s="161"/>
-      <c r="T30" s="161"/>
-      <c r="U30" s="159"/>
-      <c r="V30" s="158"/>
-      <c r="W30" s="161"/>
-      <c r="X30" s="161"/>
-      <c r="Y30" s="161"/>
-      <c r="Z30" s="159"/>
-      <c r="AA30" s="158"/>
-      <c r="AB30" s="159"/>
-      <c r="AC30" s="158"/>
-      <c r="AD30" s="161"/>
-      <c r="AE30" s="161"/>
-      <c r="AF30" s="161"/>
-      <c r="AG30" s="159"/>
-      <c r="AH30" s="158"/>
-      <c r="AI30" s="161"/>
-      <c r="AJ30" s="161"/>
-      <c r="AK30" s="159"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="114"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="115"/>
+      <c r="Q30" s="113"/>
+      <c r="R30" s="114"/>
+      <c r="S30" s="114"/>
+      <c r="T30" s="114"/>
+      <c r="U30" s="115"/>
+      <c r="V30" s="113"/>
+      <c r="W30" s="114"/>
+      <c r="X30" s="114"/>
+      <c r="Y30" s="114"/>
+      <c r="Z30" s="115"/>
+      <c r="AA30" s="113"/>
+      <c r="AB30" s="115"/>
+      <c r="AC30" s="113"/>
+      <c r="AD30" s="114"/>
+      <c r="AE30" s="114"/>
+      <c r="AF30" s="114"/>
+      <c r="AG30" s="115"/>
+      <c r="AH30" s="113"/>
+      <c r="AI30" s="114"/>
+      <c r="AJ30" s="114"/>
+      <c r="AK30" s="115"/>
       <c r="AL30" s="6"/>
       <c r="AO30">
         <v>18</v>
       </c>
       <c r="AP30" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:47" ht="12" customHeight="1">
       <c r="B31" s="4"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="160"/>
-      <c r="L31" s="160"/>
-      <c r="M31" s="160"/>
-      <c r="N31" s="160"/>
-      <c r="O31" s="160"/>
-      <c r="P31" s="157"/>
-      <c r="Q31" s="156"/>
-      <c r="R31" s="160"/>
-      <c r="S31" s="160"/>
-      <c r="T31" s="160"/>
-      <c r="U31" s="157"/>
-      <c r="V31" s="156"/>
-      <c r="W31" s="160"/>
-      <c r="X31" s="160"/>
-      <c r="Y31" s="160"/>
-      <c r="Z31" s="157"/>
-      <c r="AA31" s="156"/>
-      <c r="AB31" s="157"/>
-      <c r="AC31" s="156"/>
-      <c r="AD31" s="160"/>
-      <c r="AE31" s="160"/>
-      <c r="AF31" s="160"/>
-      <c r="AG31" s="157"/>
-      <c r="AH31" s="156"/>
-      <c r="AI31" s="160"/>
-      <c r="AJ31" s="160"/>
-      <c r="AK31" s="157"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="112"/>
+      <c r="Q31" s="110"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="112"/>
+      <c r="V31" s="110"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="111"/>
+      <c r="Z31" s="112"/>
+      <c r="AA31" s="110"/>
+      <c r="AB31" s="112"/>
+      <c r="AC31" s="110"/>
+      <c r="AD31" s="111"/>
+      <c r="AE31" s="111"/>
+      <c r="AF31" s="111"/>
+      <c r="AG31" s="112"/>
+      <c r="AH31" s="110"/>
+      <c r="AI31" s="111"/>
+      <c r="AJ31" s="111"/>
+      <c r="AK31" s="112"/>
       <c r="AL31" s="6"/>
       <c r="AO31">
         <v>19</v>
       </c>
       <c r="AP31" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="2:47" ht="12" customHeight="1">
       <c r="B32" s="4"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="158"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="161"/>
-      <c r="M32" s="161"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="161"/>
-      <c r="P32" s="159"/>
-      <c r="Q32" s="158"/>
-      <c r="R32" s="161"/>
-      <c r="S32" s="161"/>
-      <c r="T32" s="161"/>
-      <c r="U32" s="159"/>
-      <c r="V32" s="158"/>
-      <c r="W32" s="161"/>
-      <c r="X32" s="161"/>
-      <c r="Y32" s="161"/>
-      <c r="Z32" s="159"/>
-      <c r="AA32" s="158"/>
-      <c r="AB32" s="159"/>
-      <c r="AC32" s="158"/>
-      <c r="AD32" s="161"/>
-      <c r="AE32" s="161"/>
-      <c r="AF32" s="161"/>
-      <c r="AG32" s="159"/>
-      <c r="AH32" s="158"/>
-      <c r="AI32" s="161"/>
-      <c r="AJ32" s="161"/>
-      <c r="AK32" s="159"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="115"/>
+      <c r="Q32" s="113"/>
+      <c r="R32" s="114"/>
+      <c r="S32" s="114"/>
+      <c r="T32" s="114"/>
+      <c r="U32" s="115"/>
+      <c r="V32" s="113"/>
+      <c r="W32" s="114"/>
+      <c r="X32" s="114"/>
+      <c r="Y32" s="114"/>
+      <c r="Z32" s="115"/>
+      <c r="AA32" s="113"/>
+      <c r="AB32" s="115"/>
+      <c r="AC32" s="113"/>
+      <c r="AD32" s="114"/>
+      <c r="AE32" s="114"/>
+      <c r="AF32" s="114"/>
+      <c r="AG32" s="115"/>
+      <c r="AH32" s="113"/>
+      <c r="AI32" s="114"/>
+      <c r="AJ32" s="114"/>
+      <c r="AK32" s="115"/>
       <c r="AL32" s="6"/>
     </row>
     <row r="33" spans="2:42" ht="12" customHeight="1">
       <c r="B33" s="4"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="160"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="160"/>
-      <c r="L33" s="160"/>
-      <c r="M33" s="160"/>
-      <c r="N33" s="160"/>
-      <c r="O33" s="160"/>
-      <c r="P33" s="157"/>
-      <c r="Q33" s="156"/>
-      <c r="R33" s="160"/>
-      <c r="S33" s="160"/>
-      <c r="T33" s="160"/>
-      <c r="U33" s="157"/>
-      <c r="V33" s="156"/>
-      <c r="W33" s="160"/>
-      <c r="X33" s="160"/>
-      <c r="Y33" s="160"/>
-      <c r="Z33" s="157"/>
-      <c r="AA33" s="156"/>
-      <c r="AB33" s="157"/>
-      <c r="AC33" s="156"/>
-      <c r="AD33" s="160"/>
-      <c r="AE33" s="160"/>
-      <c r="AF33" s="160"/>
-      <c r="AG33" s="157"/>
-      <c r="AH33" s="156"/>
-      <c r="AI33" s="160"/>
-      <c r="AJ33" s="160"/>
-      <c r="AK33" s="157"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="110"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="112"/>
+      <c r="V33" s="110"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="111"/>
+      <c r="Y33" s="111"/>
+      <c r="Z33" s="112"/>
+      <c r="AA33" s="110"/>
+      <c r="AB33" s="112"/>
+      <c r="AC33" s="110"/>
+      <c r="AD33" s="111"/>
+      <c r="AE33" s="111"/>
+      <c r="AF33" s="111"/>
+      <c r="AG33" s="112"/>
+      <c r="AH33" s="110"/>
+      <c r="AI33" s="111"/>
+      <c r="AJ33" s="111"/>
+      <c r="AK33" s="112"/>
       <c r="AL33" s="6"/>
       <c r="AO33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="2:42" ht="12" customHeight="1">
       <c r="B34" s="4"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="159"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="159"/>
-      <c r="J34" s="158"/>
-      <c r="K34" s="161"/>
-      <c r="L34" s="161"/>
-      <c r="M34" s="161"/>
-      <c r="N34" s="161"/>
-      <c r="O34" s="161"/>
-      <c r="P34" s="159"/>
-      <c r="Q34" s="158"/>
-      <c r="R34" s="161"/>
-      <c r="S34" s="161"/>
-      <c r="T34" s="161"/>
-      <c r="U34" s="159"/>
-      <c r="V34" s="158"/>
-      <c r="W34" s="161"/>
-      <c r="X34" s="161"/>
-      <c r="Y34" s="161"/>
-      <c r="Z34" s="159"/>
-      <c r="AA34" s="158"/>
-      <c r="AB34" s="159"/>
-      <c r="AC34" s="158"/>
-      <c r="AD34" s="161"/>
-      <c r="AE34" s="161"/>
-      <c r="AF34" s="161"/>
-      <c r="AG34" s="159"/>
-      <c r="AH34" s="158"/>
-      <c r="AI34" s="161"/>
-      <c r="AJ34" s="161"/>
-      <c r="AK34" s="159"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="114"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="115"/>
+      <c r="Q34" s="113"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="115"/>
+      <c r="V34" s="113"/>
+      <c r="W34" s="114"/>
+      <c r="X34" s="114"/>
+      <c r="Y34" s="114"/>
+      <c r="Z34" s="115"/>
+      <c r="AA34" s="113"/>
+      <c r="AB34" s="115"/>
+      <c r="AC34" s="113"/>
+      <c r="AD34" s="114"/>
+      <c r="AE34" s="114"/>
+      <c r="AF34" s="114"/>
+      <c r="AG34" s="115"/>
+      <c r="AH34" s="113"/>
+      <c r="AI34" s="114"/>
+      <c r="AJ34" s="114"/>
+      <c r="AK34" s="115"/>
       <c r="AL34" s="6"/>
       <c r="AP34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="2:42" ht="12" customHeight="1">
       <c r="B35" s="4"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="160"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="156"/>
-      <c r="K35" s="160"/>
-      <c r="L35" s="160"/>
-      <c r="M35" s="160"/>
-      <c r="N35" s="160"/>
-      <c r="O35" s="160"/>
-      <c r="P35" s="157"/>
-      <c r="Q35" s="156"/>
-      <c r="R35" s="160"/>
-      <c r="S35" s="160"/>
-      <c r="T35" s="160"/>
-      <c r="U35" s="157"/>
-      <c r="V35" s="156"/>
-      <c r="W35" s="160"/>
-      <c r="X35" s="160"/>
-      <c r="Y35" s="160"/>
-      <c r="Z35" s="157"/>
-      <c r="AA35" s="156"/>
-      <c r="AB35" s="157"/>
-      <c r="AC35" s="156"/>
-      <c r="AD35" s="160"/>
-      <c r="AE35" s="160"/>
-      <c r="AF35" s="160"/>
-      <c r="AG35" s="157"/>
-      <c r="AH35" s="156"/>
-      <c r="AI35" s="160"/>
-      <c r="AJ35" s="160"/>
-      <c r="AK35" s="157"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="111"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="112"/>
+      <c r="Q35" s="110"/>
+      <c r="R35" s="111"/>
+      <c r="S35" s="111"/>
+      <c r="T35" s="111"/>
+      <c r="U35" s="112"/>
+      <c r="V35" s="110"/>
+      <c r="W35" s="111"/>
+      <c r="X35" s="111"/>
+      <c r="Y35" s="111"/>
+      <c r="Z35" s="112"/>
+      <c r="AA35" s="110"/>
+      <c r="AB35" s="112"/>
+      <c r="AC35" s="110"/>
+      <c r="AD35" s="111"/>
+      <c r="AE35" s="111"/>
+      <c r="AF35" s="111"/>
+      <c r="AG35" s="112"/>
+      <c r="AH35" s="110"/>
+      <c r="AI35" s="111"/>
+      <c r="AJ35" s="111"/>
+      <c r="AK35" s="112"/>
       <c r="AL35" s="6"/>
     </row>
     <row r="36" spans="2:42" ht="12" customHeight="1">
       <c r="B36" s="4"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="159"/>
-      <c r="J36" s="158"/>
-      <c r="K36" s="161"/>
-      <c r="L36" s="161"/>
-      <c r="M36" s="161"/>
-      <c r="N36" s="161"/>
-      <c r="O36" s="161"/>
-      <c r="P36" s="159"/>
-      <c r="Q36" s="158"/>
-      <c r="R36" s="161"/>
-      <c r="S36" s="161"/>
-      <c r="T36" s="161"/>
-      <c r="U36" s="159"/>
-      <c r="V36" s="158"/>
-      <c r="W36" s="161"/>
-      <c r="X36" s="161"/>
-      <c r="Y36" s="161"/>
-      <c r="Z36" s="159"/>
-      <c r="AA36" s="158"/>
-      <c r="AB36" s="159"/>
-      <c r="AC36" s="158"/>
-      <c r="AD36" s="161"/>
-      <c r="AE36" s="161"/>
-      <c r="AF36" s="161"/>
-      <c r="AG36" s="159"/>
-      <c r="AH36" s="158"/>
-      <c r="AI36" s="161"/>
-      <c r="AJ36" s="161"/>
-      <c r="AK36" s="159"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="114"/>
+      <c r="N36" s="114"/>
+      <c r="O36" s="114"/>
+      <c r="P36" s="115"/>
+      <c r="Q36" s="113"/>
+      <c r="R36" s="114"/>
+      <c r="S36" s="114"/>
+      <c r="T36" s="114"/>
+      <c r="U36" s="115"/>
+      <c r="V36" s="113"/>
+      <c r="W36" s="114"/>
+      <c r="X36" s="114"/>
+      <c r="Y36" s="114"/>
+      <c r="Z36" s="115"/>
+      <c r="AA36" s="113"/>
+      <c r="AB36" s="115"/>
+      <c r="AC36" s="113"/>
+      <c r="AD36" s="114"/>
+      <c r="AE36" s="114"/>
+      <c r="AF36" s="114"/>
+      <c r="AG36" s="115"/>
+      <c r="AH36" s="113"/>
+      <c r="AI36" s="114"/>
+      <c r="AJ36" s="114"/>
+      <c r="AK36" s="115"/>
       <c r="AL36" s="6"/>
     </row>
     <row r="37" spans="2:42" ht="12" customHeight="1">
       <c r="B37" s="4"/>
-      <c r="C37" s="156"/>
-      <c r="D37" s="157"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="160"/>
-      <c r="G37" s="160"/>
-      <c r="H37" s="160"/>
-      <c r="I37" s="157"/>
-      <c r="J37" s="156"/>
-      <c r="K37" s="160"/>
-      <c r="L37" s="160"/>
-      <c r="M37" s="160"/>
-      <c r="N37" s="160"/>
-      <c r="O37" s="160"/>
-      <c r="P37" s="157"/>
-      <c r="Q37" s="156"/>
-      <c r="R37" s="160"/>
-      <c r="S37" s="160"/>
-      <c r="T37" s="160"/>
-      <c r="U37" s="157"/>
-      <c r="V37" s="156"/>
-      <c r="W37" s="160"/>
-      <c r="X37" s="160"/>
-      <c r="Y37" s="160"/>
-      <c r="Z37" s="157"/>
-      <c r="AA37" s="156"/>
-      <c r="AB37" s="157"/>
-      <c r="AC37" s="156"/>
-      <c r="AD37" s="160"/>
-      <c r="AE37" s="160"/>
-      <c r="AF37" s="160"/>
-      <c r="AG37" s="157"/>
-      <c r="AH37" s="156"/>
-      <c r="AI37" s="160"/>
-      <c r="AJ37" s="160"/>
-      <c r="AK37" s="157"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="112"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="111"/>
+      <c r="P37" s="112"/>
+      <c r="Q37" s="110"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="111"/>
+      <c r="T37" s="111"/>
+      <c r="U37" s="112"/>
+      <c r="V37" s="110"/>
+      <c r="W37" s="111"/>
+      <c r="X37" s="111"/>
+      <c r="Y37" s="111"/>
+      <c r="Z37" s="112"/>
+      <c r="AA37" s="110"/>
+      <c r="AB37" s="112"/>
+      <c r="AC37" s="110"/>
+      <c r="AD37" s="111"/>
+      <c r="AE37" s="111"/>
+      <c r="AF37" s="111"/>
+      <c r="AG37" s="112"/>
+      <c r="AH37" s="110"/>
+      <c r="AI37" s="111"/>
+      <c r="AJ37" s="111"/>
+      <c r="AK37" s="112"/>
       <c r="AL37" s="6"/>
     </row>
     <row r="38" spans="2:42" ht="12" customHeight="1">
       <c r="B38" s="4"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="159"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="159"/>
-      <c r="J38" s="158"/>
-      <c r="K38" s="161"/>
-      <c r="L38" s="161"/>
-      <c r="M38" s="161"/>
-      <c r="N38" s="161"/>
-      <c r="O38" s="161"/>
-      <c r="P38" s="159"/>
-      <c r="Q38" s="158"/>
-      <c r="R38" s="161"/>
-      <c r="S38" s="161"/>
-      <c r="T38" s="161"/>
-      <c r="U38" s="159"/>
-      <c r="V38" s="158"/>
-      <c r="W38" s="161"/>
-      <c r="X38" s="161"/>
-      <c r="Y38" s="161"/>
-      <c r="Z38" s="159"/>
-      <c r="AA38" s="158"/>
-      <c r="AB38" s="159"/>
-      <c r="AC38" s="158"/>
-      <c r="AD38" s="161"/>
-      <c r="AE38" s="161"/>
-      <c r="AF38" s="161"/>
-      <c r="AG38" s="159"/>
-      <c r="AH38" s="158"/>
-      <c r="AI38" s="161"/>
-      <c r="AJ38" s="161"/>
-      <c r="AK38" s="159"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="114"/>
+      <c r="N38" s="114"/>
+      <c r="O38" s="114"/>
+      <c r="P38" s="115"/>
+      <c r="Q38" s="113"/>
+      <c r="R38" s="114"/>
+      <c r="S38" s="114"/>
+      <c r="T38" s="114"/>
+      <c r="U38" s="115"/>
+      <c r="V38" s="113"/>
+      <c r="W38" s="114"/>
+      <c r="X38" s="114"/>
+      <c r="Y38" s="114"/>
+      <c r="Z38" s="115"/>
+      <c r="AA38" s="113"/>
+      <c r="AB38" s="115"/>
+      <c r="AC38" s="113"/>
+      <c r="AD38" s="114"/>
+      <c r="AE38" s="114"/>
+      <c r="AF38" s="114"/>
+      <c r="AG38" s="115"/>
+      <c r="AH38" s="113"/>
+      <c r="AI38" s="114"/>
+      <c r="AJ38" s="114"/>
+      <c r="AK38" s="115"/>
       <c r="AL38" s="6"/>
     </row>
     <row r="39" spans="2:42" ht="12" customHeight="1">
       <c r="B39" s="4"/>
-      <c r="C39" s="156"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="156"/>
-      <c r="F39" s="160"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="160"/>
-      <c r="I39" s="157"/>
-      <c r="J39" s="156"/>
-      <c r="K39" s="160"/>
-      <c r="L39" s="160"/>
-      <c r="M39" s="160"/>
-      <c r="N39" s="160"/>
-      <c r="O39" s="160"/>
-      <c r="P39" s="157"/>
-      <c r="Q39" s="156"/>
-      <c r="R39" s="160"/>
-      <c r="S39" s="160"/>
-      <c r="T39" s="160"/>
-      <c r="U39" s="157"/>
-      <c r="V39" s="156"/>
-      <c r="W39" s="160"/>
-      <c r="X39" s="160"/>
-      <c r="Y39" s="160"/>
-      <c r="Z39" s="157"/>
-      <c r="AA39" s="156"/>
-      <c r="AB39" s="157"/>
-      <c r="AC39" s="156"/>
-      <c r="AD39" s="160"/>
-      <c r="AE39" s="160"/>
-      <c r="AF39" s="160"/>
-      <c r="AG39" s="157"/>
-      <c r="AH39" s="156"/>
-      <c r="AI39" s="160"/>
-      <c r="AJ39" s="160"/>
-      <c r="AK39" s="157"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="111"/>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="110"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="111"/>
+      <c r="T39" s="111"/>
+      <c r="U39" s="112"/>
+      <c r="V39" s="110"/>
+      <c r="W39" s="111"/>
+      <c r="X39" s="111"/>
+      <c r="Y39" s="111"/>
+      <c r="Z39" s="112"/>
+      <c r="AA39" s="110"/>
+      <c r="AB39" s="112"/>
+      <c r="AC39" s="110"/>
+      <c r="AD39" s="111"/>
+      <c r="AE39" s="111"/>
+      <c r="AF39" s="111"/>
+      <c r="AG39" s="112"/>
+      <c r="AH39" s="110"/>
+      <c r="AI39" s="111"/>
+      <c r="AJ39" s="111"/>
+      <c r="AK39" s="112"/>
       <c r="AL39" s="6"/>
     </row>
     <row r="40" spans="2:42" ht="12" customHeight="1">
       <c r="B40" s="4"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="159"/>
-      <c r="E40" s="158"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="159"/>
-      <c r="J40" s="158"/>
-      <c r="K40" s="161"/>
-      <c r="L40" s="161"/>
-      <c r="M40" s="161"/>
-      <c r="N40" s="161"/>
-      <c r="O40" s="161"/>
-      <c r="P40" s="159"/>
-      <c r="Q40" s="158"/>
-      <c r="R40" s="161"/>
-      <c r="S40" s="161"/>
-      <c r="T40" s="161"/>
-      <c r="U40" s="159"/>
-      <c r="V40" s="158"/>
-      <c r="W40" s="161"/>
-      <c r="X40" s="161"/>
-      <c r="Y40" s="161"/>
-      <c r="Z40" s="159"/>
-      <c r="AA40" s="158"/>
-      <c r="AB40" s="159"/>
-      <c r="AC40" s="158"/>
-      <c r="AD40" s="161"/>
-      <c r="AE40" s="161"/>
-      <c r="AF40" s="161"/>
-      <c r="AG40" s="159"/>
-      <c r="AH40" s="158"/>
-      <c r="AI40" s="161"/>
-      <c r="AJ40" s="161"/>
-      <c r="AK40" s="159"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="114"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="114"/>
+      <c r="N40" s="114"/>
+      <c r="O40" s="114"/>
+      <c r="P40" s="115"/>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="114"/>
+      <c r="S40" s="114"/>
+      <c r="T40" s="114"/>
+      <c r="U40" s="115"/>
+      <c r="V40" s="113"/>
+      <c r="W40" s="114"/>
+      <c r="X40" s="114"/>
+      <c r="Y40" s="114"/>
+      <c r="Z40" s="115"/>
+      <c r="AA40" s="113"/>
+      <c r="AB40" s="115"/>
+      <c r="AC40" s="113"/>
+      <c r="AD40" s="114"/>
+      <c r="AE40" s="114"/>
+      <c r="AF40" s="114"/>
+      <c r="AG40" s="115"/>
+      <c r="AH40" s="113"/>
+      <c r="AI40" s="114"/>
+      <c r="AJ40" s="114"/>
+      <c r="AK40" s="115"/>
       <c r="AL40" s="6"/>
     </row>
     <row r="41" spans="2:42" ht="12" customHeight="1">
@@ -12630,16 +12706,92 @@
       <c r="AL41" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="111">
-    <mergeCell ref="AC19:AG20"/>
-    <mergeCell ref="AH19:AK20"/>
-    <mergeCell ref="E14:K15"/>
-    <mergeCell ref="P14:V15"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:I20"/>
-    <mergeCell ref="J19:P20"/>
-    <mergeCell ref="Q19:U20"/>
-    <mergeCell ref="V19:Z20"/>
+  <mergeCells count="112">
+    <mergeCell ref="AO1:AR2"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AD4"/>
+    <mergeCell ref="AE3:AG4"/>
+    <mergeCell ref="AH3:AK4"/>
+    <mergeCell ref="AL3:AN4"/>
+    <mergeCell ref="AO3:AR4"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="I1:R4"/>
+    <mergeCell ref="S1:U2"/>
+    <mergeCell ref="V1:AD2"/>
+    <mergeCell ref="AE1:AG2"/>
+    <mergeCell ref="AH1:AK2"/>
+    <mergeCell ref="AC21:AG22"/>
+    <mergeCell ref="AH21:AK22"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="AA19:AB20"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="B14:D15"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:I22"/>
+    <mergeCell ref="J21:P22"/>
+    <mergeCell ref="Q21:U22"/>
+    <mergeCell ref="V21:Z22"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:I32"/>
+    <mergeCell ref="J31:P32"/>
+    <mergeCell ref="Q31:U32"/>
+    <mergeCell ref="AH23:AK24"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:I26"/>
+    <mergeCell ref="J25:P26"/>
+    <mergeCell ref="Q25:U26"/>
+    <mergeCell ref="V25:Z26"/>
+    <mergeCell ref="AA25:AB26"/>
+    <mergeCell ref="AC25:AG26"/>
+    <mergeCell ref="AH25:AK26"/>
+    <mergeCell ref="E23:I24"/>
+    <mergeCell ref="J23:P24"/>
+    <mergeCell ref="Q23:U24"/>
+    <mergeCell ref="V23:Z24"/>
+    <mergeCell ref="AA23:AB24"/>
+    <mergeCell ref="AC23:AG24"/>
+    <mergeCell ref="AC27:AG28"/>
+    <mergeCell ref="AH27:AK28"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:I30"/>
+    <mergeCell ref="J29:P30"/>
+    <mergeCell ref="Q29:U30"/>
+    <mergeCell ref="V29:Z30"/>
+    <mergeCell ref="AA29:AB30"/>
+    <mergeCell ref="AC29:AG30"/>
+    <mergeCell ref="AH29:AK30"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:I28"/>
+    <mergeCell ref="J27:P28"/>
+    <mergeCell ref="Q27:U28"/>
+    <mergeCell ref="V27:Z28"/>
+    <mergeCell ref="AA27:AB28"/>
+    <mergeCell ref="V31:Z32"/>
+    <mergeCell ref="AA31:AB32"/>
+    <mergeCell ref="AC31:AG32"/>
+    <mergeCell ref="AH31:AK32"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:I34"/>
+    <mergeCell ref="J33:P34"/>
+    <mergeCell ref="Q33:U34"/>
+    <mergeCell ref="V33:Z34"/>
+    <mergeCell ref="AA33:AB34"/>
+    <mergeCell ref="AC33:AG34"/>
+    <mergeCell ref="AH33:AK34"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:I36"/>
+    <mergeCell ref="J35:P36"/>
+    <mergeCell ref="Q35:U36"/>
+    <mergeCell ref="V35:Z36"/>
+    <mergeCell ref="AA35:AB36"/>
+    <mergeCell ref="AC35:AG36"/>
+    <mergeCell ref="AH35:AK36"/>
     <mergeCell ref="AC37:AG38"/>
     <mergeCell ref="AH37:AK38"/>
     <mergeCell ref="C39:D40"/>
@@ -12656,94 +12808,20 @@
     <mergeCell ref="Q37:U38"/>
     <mergeCell ref="V37:Z38"/>
     <mergeCell ref="AA37:AB38"/>
-    <mergeCell ref="AC33:AG34"/>
-    <mergeCell ref="AH33:AK34"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:I36"/>
-    <mergeCell ref="J35:P36"/>
-    <mergeCell ref="Q35:U36"/>
-    <mergeCell ref="V35:Z36"/>
-    <mergeCell ref="AA35:AB36"/>
-    <mergeCell ref="AC35:AG36"/>
-    <mergeCell ref="AH35:AK36"/>
-    <mergeCell ref="V31:Z32"/>
-    <mergeCell ref="AA31:AB32"/>
-    <mergeCell ref="AC31:AG32"/>
-    <mergeCell ref="AH31:AK32"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:I34"/>
-    <mergeCell ref="J33:P34"/>
-    <mergeCell ref="Q33:U34"/>
-    <mergeCell ref="V33:Z34"/>
-    <mergeCell ref="AA33:AB34"/>
-    <mergeCell ref="AC27:AG28"/>
-    <mergeCell ref="AH27:AK28"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:I30"/>
-    <mergeCell ref="J29:P30"/>
-    <mergeCell ref="Q29:U30"/>
-    <mergeCell ref="V29:Z30"/>
-    <mergeCell ref="AA29:AB30"/>
-    <mergeCell ref="AC29:AG30"/>
-    <mergeCell ref="AH29:AK30"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:I28"/>
-    <mergeCell ref="J27:P28"/>
-    <mergeCell ref="Q27:U28"/>
-    <mergeCell ref="V27:Z28"/>
-    <mergeCell ref="AA27:AB28"/>
-    <mergeCell ref="AH23:AK24"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:I26"/>
-    <mergeCell ref="J25:P26"/>
-    <mergeCell ref="Q25:U26"/>
-    <mergeCell ref="V25:Z26"/>
-    <mergeCell ref="AA25:AB26"/>
-    <mergeCell ref="AC25:AG26"/>
-    <mergeCell ref="AH25:AK26"/>
-    <mergeCell ref="E23:I24"/>
-    <mergeCell ref="J23:P24"/>
-    <mergeCell ref="Q23:U24"/>
-    <mergeCell ref="V23:Z24"/>
-    <mergeCell ref="AA23:AB24"/>
-    <mergeCell ref="AC23:AG24"/>
-    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="AC19:AG20"/>
+    <mergeCell ref="AH19:AK20"/>
+    <mergeCell ref="E14:K15"/>
+    <mergeCell ref="P14:V15"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:I20"/>
+    <mergeCell ref="J19:P20"/>
+    <mergeCell ref="Q19:U20"/>
+    <mergeCell ref="V19:Z20"/>
     <mergeCell ref="M14:O15"/>
     <mergeCell ref="AD14:AG15"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:I22"/>
-    <mergeCell ref="J21:P22"/>
-    <mergeCell ref="Q21:U22"/>
-    <mergeCell ref="V21:Z22"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:I32"/>
-    <mergeCell ref="J31:P32"/>
-    <mergeCell ref="Q31:U32"/>
-    <mergeCell ref="AC21:AG22"/>
-    <mergeCell ref="AH21:AK22"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="AA19:AB20"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="AO1:AR2"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AD4"/>
-    <mergeCell ref="AE3:AG4"/>
-    <mergeCell ref="AH3:AK4"/>
-    <mergeCell ref="AL3:AN4"/>
-    <mergeCell ref="AO3:AR4"/>
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="I1:R4"/>
-    <mergeCell ref="S1:U2"/>
-    <mergeCell ref="V1:AD2"/>
-    <mergeCell ref="AE1:AG2"/>
-    <mergeCell ref="AH1:AK2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12762,248 +12840,248 @@
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="12" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:44" ht="12" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="67" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="47" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="50" t="s">
+      <c r="T1" s="49"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="43" t="s">
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="56">
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="65">
         <v>42982</v>
       </c>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="44" t="s">
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="45" t="s">
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
     </row>
     <row r="2" spans="1:44" ht="12" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
     </row>
     <row r="3" spans="1:44" ht="12" customHeight="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="47" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="43" t="s">
+      <c r="T3" s="49"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="66"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="66"/>
     </row>
     <row r="4" spans="1:44" ht="12" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="57"/>
-      <c r="AP4" s="57"/>
-      <c r="AQ4" s="57"/>
-      <c r="AR4" s="57"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="64"/>
+      <c r="AM4" s="64"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="66"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="66"/>
+      <c r="AR4" s="66"/>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="71" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="73"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="53"/>
     </row>
     <row r="7" spans="1:44" ht="12" customHeight="1">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="73"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="53"/>
     </row>
     <row r="12" spans="1:44" ht="12" customHeight="1">
       <c r="B12" s="1"/>
@@ -13057,20 +13135,20 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="74" t="s">
+      <c r="N13" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="74"/>
-      <c r="Y13" s="74"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
@@ -13098,18 +13176,18 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="74"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
@@ -13224,16 +13302,16 @@
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
-      <c r="W17" s="31" t="s">
+      <c r="W17" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="33"/>
+      <c r="X17" s="92"/>
+      <c r="Y17" s="92"/>
+      <c r="Z17" s="92"/>
+      <c r="AA17" s="92"/>
+      <c r="AB17" s="92"/>
+      <c r="AC17" s="92"/>
+      <c r="AD17" s="93"/>
       <c r="AE17" s="11"/>
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
@@ -13245,19 +13323,19 @@
     </row>
     <row r="18" spans="2:38" ht="12" customHeight="1">
       <c r="B18" s="10"/>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="30"/>
+      <c r="K18" s="89"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -13269,14 +13347,14 @@
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="36"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="95"/>
+      <c r="AA18" s="95"/>
+      <c r="AB18" s="95"/>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="96"/>
       <c r="AE18" s="11"/>
       <c r="AF18" s="11"/>
       <c r="AG18" s="11"/>
@@ -13327,19 +13405,19 @@
     </row>
     <row r="20" spans="2:38" ht="12" customHeight="1">
       <c r="B20" s="10"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="30"/>
+      <c r="K20" s="89"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -13351,11 +13429,11 @@
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
-      <c r="W20" s="29" t="s">
+      <c r="W20" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
@@ -13449,23 +13527,23 @@
       <c r="AL22" s="22"/>
     </row>
     <row r="23" spans="2:38" ht="12" customHeight="1">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
@@ -13474,28 +13552,28 @@
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
-      <c r="W23" s="31" t="s">
+      <c r="W23" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="31" t="s">
+      <c r="X23" s="92"/>
+      <c r="Y23" s="92"/>
+      <c r="Z23" s="92"/>
+      <c r="AA23" s="93"/>
+      <c r="AB23" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="31" t="s">
+      <c r="AC23" s="92"/>
+      <c r="AD23" s="92"/>
+      <c r="AE23" s="92"/>
+      <c r="AF23" s="92"/>
+      <c r="AG23" s="93"/>
+      <c r="AH23" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="32"/>
-      <c r="AL23" s="33"/>
+      <c r="AI23" s="92"/>
+      <c r="AJ23" s="92"/>
+      <c r="AK23" s="92"/>
+      <c r="AL23" s="93"/>
     </row>
     <row r="24" spans="2:38" ht="12" customHeight="1">
       <c r="B24" s="10"/>
@@ -13519,41 +13597,41 @@
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="34"/>
-      <c r="AI24" s="35"/>
-      <c r="AJ24" s="35"/>
-      <c r="AK24" s="35"/>
-      <c r="AL24" s="36"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="96"/>
+      <c r="AB24" s="94"/>
+      <c r="AC24" s="95"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="95"/>
+      <c r="AF24" s="95"/>
+      <c r="AG24" s="96"/>
+      <c r="AH24" s="94"/>
+      <c r="AI24" s="95"/>
+      <c r="AJ24" s="95"/>
+      <c r="AK24" s="95"/>
+      <c r="AL24" s="96"/>
     </row>
     <row r="25" spans="2:38" ht="12" customHeight="1">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="30" t="s">
+      <c r="L25" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
@@ -13562,28 +13640,28 @@
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
-      <c r="W25" s="109" t="s">
+      <c r="W25" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="X25" s="110"/>
-      <c r="Y25" s="110"/>
-      <c r="Z25" s="110"/>
-      <c r="AA25" s="111"/>
-      <c r="AB25" s="81">
+      <c r="X25" s="140"/>
+      <c r="Y25" s="140"/>
+      <c r="Z25" s="140"/>
+      <c r="AA25" s="141"/>
+      <c r="AB25" s="145">
         <v>203</v>
       </c>
-      <c r="AC25" s="82"/>
-      <c r="AD25" s="82"/>
-      <c r="AE25" s="83"/>
+      <c r="AC25" s="146"/>
+      <c r="AD25" s="146"/>
+      <c r="AE25" s="147"/>
       <c r="AF25" s="18"/>
       <c r="AG25" s="19"/>
-      <c r="AH25" s="87">
+      <c r="AH25" s="151">
         <v>500</v>
       </c>
-      <c r="AI25" s="88"/>
-      <c r="AJ25" s="88"/>
-      <c r="AK25" s="88"/>
-      <c r="AL25" s="89"/>
+      <c r="AI25" s="152"/>
+      <c r="AJ25" s="152"/>
+      <c r="AK25" s="152"/>
+      <c r="AL25" s="153"/>
     </row>
     <row r="26" spans="2:38" ht="12" customHeight="1">
       <c r="B26" s="10"/>
@@ -13607,41 +13685,41 @@
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
-      <c r="W26" s="112"/>
-      <c r="X26" s="113"/>
-      <c r="Y26" s="113"/>
-      <c r="Z26" s="113"/>
-      <c r="AA26" s="114"/>
-      <c r="AB26" s="84"/>
-      <c r="AC26" s="85"/>
-      <c r="AD26" s="85"/>
-      <c r="AE26" s="86"/>
+      <c r="W26" s="142"/>
+      <c r="X26" s="143"/>
+      <c r="Y26" s="143"/>
+      <c r="Z26" s="143"/>
+      <c r="AA26" s="144"/>
+      <c r="AB26" s="148"/>
+      <c r="AC26" s="149"/>
+      <c r="AD26" s="149"/>
+      <c r="AE26" s="150"/>
       <c r="AF26" s="14"/>
       <c r="AG26" s="15"/>
-      <c r="AH26" s="90"/>
-      <c r="AI26" s="91"/>
-      <c r="AJ26" s="91"/>
-      <c r="AK26" s="91"/>
-      <c r="AL26" s="92"/>
+      <c r="AH26" s="154"/>
+      <c r="AI26" s="155"/>
+      <c r="AJ26" s="155"/>
+      <c r="AK26" s="155"/>
+      <c r="AL26" s="156"/>
     </row>
     <row r="27" spans="2:38" ht="12" customHeight="1">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="30" t="s">
+      <c r="L27" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -13650,28 +13728,28 @@
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
-      <c r="W27" s="109" t="s">
+      <c r="W27" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="X27" s="110"/>
-      <c r="Y27" s="110"/>
-      <c r="Z27" s="110"/>
-      <c r="AA27" s="111"/>
-      <c r="AB27" s="81">
+      <c r="X27" s="140"/>
+      <c r="Y27" s="140"/>
+      <c r="Z27" s="140"/>
+      <c r="AA27" s="141"/>
+      <c r="AB27" s="145">
         <v>204</v>
       </c>
-      <c r="AC27" s="82"/>
-      <c r="AD27" s="82"/>
-      <c r="AE27" s="83"/>
+      <c r="AC27" s="146"/>
+      <c r="AD27" s="146"/>
+      <c r="AE27" s="147"/>
       <c r="AF27" s="18"/>
       <c r="AG27" s="19"/>
-      <c r="AH27" s="87">
+      <c r="AH27" s="151">
         <v>500</v>
       </c>
-      <c r="AI27" s="88"/>
-      <c r="AJ27" s="88"/>
-      <c r="AK27" s="88"/>
-      <c r="AL27" s="89"/>
+      <c r="AI27" s="152"/>
+      <c r="AJ27" s="152"/>
+      <c r="AK27" s="152"/>
+      <c r="AL27" s="153"/>
     </row>
     <row r="28" spans="2:38" ht="12" customHeight="1">
       <c r="B28" s="10"/>
@@ -13695,30 +13773,30 @@
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
-      <c r="W28" s="112"/>
-      <c r="X28" s="113"/>
-      <c r="Y28" s="113"/>
-      <c r="Z28" s="113"/>
-      <c r="AA28" s="114"/>
-      <c r="AB28" s="84"/>
-      <c r="AC28" s="85"/>
-      <c r="AD28" s="85"/>
-      <c r="AE28" s="86"/>
+      <c r="W28" s="142"/>
+      <c r="X28" s="143"/>
+      <c r="Y28" s="143"/>
+      <c r="Z28" s="143"/>
+      <c r="AA28" s="144"/>
+      <c r="AB28" s="148"/>
+      <c r="AC28" s="149"/>
+      <c r="AD28" s="149"/>
+      <c r="AE28" s="150"/>
       <c r="AF28" s="14"/>
       <c r="AG28" s="15"/>
-      <c r="AH28" s="90"/>
-      <c r="AI28" s="91"/>
-      <c r="AJ28" s="91"/>
-      <c r="AK28" s="91"/>
-      <c r="AL28" s="92"/>
+      <c r="AH28" s="154"/>
+      <c r="AI28" s="155"/>
+      <c r="AJ28" s="155"/>
+      <c r="AK28" s="155"/>
+      <c r="AL28" s="156"/>
     </row>
     <row r="29" spans="2:38" ht="12" customHeight="1">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -13736,28 +13814,28 @@
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
-      <c r="W29" s="109" t="s">
+      <c r="W29" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="X29" s="110"/>
-      <c r="Y29" s="110"/>
-      <c r="Z29" s="110"/>
-      <c r="AA29" s="111"/>
-      <c r="AB29" s="81">
+      <c r="X29" s="140"/>
+      <c r="Y29" s="140"/>
+      <c r="Z29" s="140"/>
+      <c r="AA29" s="141"/>
+      <c r="AB29" s="145">
         <v>205</v>
       </c>
-      <c r="AC29" s="82"/>
-      <c r="AD29" s="82"/>
-      <c r="AE29" s="83"/>
+      <c r="AC29" s="146"/>
+      <c r="AD29" s="146"/>
+      <c r="AE29" s="147"/>
       <c r="AF29" s="18"/>
       <c r="AG29" s="19"/>
-      <c r="AH29" s="87">
+      <c r="AH29" s="151">
         <v>500</v>
       </c>
-      <c r="AI29" s="88"/>
-      <c r="AJ29" s="88"/>
-      <c r="AK29" s="88"/>
-      <c r="AL29" s="89"/>
+      <c r="AI29" s="152"/>
+      <c r="AJ29" s="152"/>
+      <c r="AK29" s="152"/>
+      <c r="AL29" s="153"/>
     </row>
     <row r="30" spans="2:38" ht="12" customHeight="1">
       <c r="B30" s="10"/>
@@ -13781,30 +13859,30 @@
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
-      <c r="W30" s="112"/>
-      <c r="X30" s="113"/>
-      <c r="Y30" s="113"/>
-      <c r="Z30" s="113"/>
-      <c r="AA30" s="114"/>
-      <c r="AB30" s="84"/>
-      <c r="AC30" s="85"/>
-      <c r="AD30" s="85"/>
-      <c r="AE30" s="86"/>
+      <c r="W30" s="142"/>
+      <c r="X30" s="143"/>
+      <c r="Y30" s="143"/>
+      <c r="Z30" s="143"/>
+      <c r="AA30" s="144"/>
+      <c r="AB30" s="148"/>
+      <c r="AC30" s="149"/>
+      <c r="AD30" s="149"/>
+      <c r="AE30" s="150"/>
       <c r="AF30" s="14"/>
       <c r="AG30" s="15"/>
-      <c r="AH30" s="90"/>
-      <c r="AI30" s="91"/>
-      <c r="AJ30" s="91"/>
-      <c r="AK30" s="91"/>
-      <c r="AL30" s="92"/>
+      <c r="AH30" s="154"/>
+      <c r="AI30" s="155"/>
+      <c r="AJ30" s="155"/>
+      <c r="AK30" s="155"/>
+      <c r="AL30" s="156"/>
     </row>
     <row r="31" spans="2:38" ht="12" customHeight="1">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -13870,26 +13948,26 @@
       <c r="AC32" s="21"/>
       <c r="AD32" s="21"/>
       <c r="AE32" s="21"/>
-      <c r="AF32" s="93" t="s">
+      <c r="AF32" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="AG32" s="94"/>
-      <c r="AH32" s="97">
+      <c r="AG32" s="124"/>
+      <c r="AH32" s="127">
         <f>AH25+AH27+AH29</f>
         <v>1500</v>
       </c>
-      <c r="AI32" s="98"/>
-      <c r="AJ32" s="98"/>
-      <c r="AK32" s="98"/>
-      <c r="AL32" s="99"/>
+      <c r="AI32" s="128"/>
+      <c r="AJ32" s="128"/>
+      <c r="AK32" s="128"/>
+      <c r="AL32" s="129"/>
     </row>
     <row r="33" spans="2:38" ht="12" customHeight="1">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -13916,13 +13994,13 @@
       <c r="AC33" s="24"/>
       <c r="AD33" s="24"/>
       <c r="AE33" s="24"/>
-      <c r="AF33" s="95"/>
-      <c r="AG33" s="96"/>
-      <c r="AH33" s="100"/>
-      <c r="AI33" s="101"/>
-      <c r="AJ33" s="101"/>
-      <c r="AK33" s="101"/>
-      <c r="AL33" s="102"/>
+      <c r="AF33" s="125"/>
+      <c r="AG33" s="126"/>
+      <c r="AH33" s="130"/>
+      <c r="AI33" s="131"/>
+      <c r="AJ33" s="131"/>
+      <c r="AK33" s="131"/>
+      <c r="AL33" s="132"/>
     </row>
     <row r="34" spans="2:38" ht="12" customHeight="1">
       <c r="B34" s="10"/>
@@ -13957,13 +14035,13 @@
       <c r="AE34" s="11"/>
       <c r="AF34" s="11"/>
       <c r="AG34" s="11"/>
-      <c r="AH34" s="77" t="s">
+      <c r="AH34" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="AI34" s="77"/>
-      <c r="AJ34" s="77"/>
-      <c r="AK34" s="77"/>
-      <c r="AL34" s="78"/>
+      <c r="AI34" s="157"/>
+      <c r="AJ34" s="157"/>
+      <c r="AK34" s="157"/>
+      <c r="AL34" s="158"/>
     </row>
     <row r="35" spans="2:38" ht="12" customHeight="1">
       <c r="B35" s="10"/>
@@ -13998,11 +14076,11 @@
       <c r="AE35" s="11"/>
       <c r="AF35" s="11"/>
       <c r="AG35" s="11"/>
-      <c r="AH35" s="79"/>
-      <c r="AI35" s="79"/>
-      <c r="AJ35" s="79"/>
-      <c r="AK35" s="79"/>
-      <c r="AL35" s="80"/>
+      <c r="AH35" s="159"/>
+      <c r="AI35" s="159"/>
+      <c r="AJ35" s="159"/>
+      <c r="AK35" s="159"/>
+      <c r="AL35" s="160"/>
     </row>
     <row r="36" spans="2:38" ht="12" customHeight="1">
       <c r="B36" s="10"/>
@@ -14147,23 +14225,23 @@
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
       <c r="Z39" s="11"/>
-      <c r="AA39" s="31" t="s">
+      <c r="AA39" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="AB39" s="32"/>
-      <c r="AC39" s="33"/>
+      <c r="AB39" s="92"/>
+      <c r="AC39" s="93"/>
       <c r="AD39" s="11"/>
-      <c r="AE39" s="103" t="s">
+      <c r="AE39" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="AF39" s="104"/>
-      <c r="AG39" s="105"/>
+      <c r="AF39" s="134"/>
+      <c r="AG39" s="135"/>
       <c r="AH39" s="11"/>
-      <c r="AI39" s="31" t="s">
+      <c r="AI39" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="AJ39" s="32"/>
-      <c r="AK39" s="33"/>
+      <c r="AJ39" s="92"/>
+      <c r="AK39" s="93"/>
       <c r="AL39" s="12"/>
     </row>
     <row r="40" spans="2:38" ht="12" customHeight="1">
@@ -14192,17 +14270,17 @@
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
       <c r="Z40" s="11"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="35"/>
-      <c r="AC40" s="36"/>
+      <c r="AA40" s="94"/>
+      <c r="AB40" s="95"/>
+      <c r="AC40" s="96"/>
       <c r="AD40" s="11"/>
-      <c r="AE40" s="106"/>
-      <c r="AF40" s="107"/>
-      <c r="AG40" s="108"/>
+      <c r="AE40" s="136"/>
+      <c r="AF40" s="137"/>
+      <c r="AG40" s="138"/>
       <c r="AH40" s="11"/>
-      <c r="AI40" s="34"/>
-      <c r="AJ40" s="35"/>
-      <c r="AK40" s="36"/>
+      <c r="AI40" s="94"/>
+      <c r="AJ40" s="95"/>
+      <c r="AK40" s="96"/>
       <c r="AL40" s="12"/>
     </row>
     <row r="41" spans="2:38" ht="12" customHeight="1">
@@ -14246,6 +14324,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="AA39:AC40"/>
+    <mergeCell ref="AH34:AL35"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="I1:R4"/>
+    <mergeCell ref="S1:U2"/>
+    <mergeCell ref="V1:AD2"/>
+    <mergeCell ref="AE1:AG2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="AH23:AL24"/>
+    <mergeCell ref="AB25:AE26"/>
+    <mergeCell ref="AH25:AL26"/>
+    <mergeCell ref="AO1:AR2"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AD4"/>
+    <mergeCell ref="AE3:AG4"/>
+    <mergeCell ref="AH3:AK4"/>
+    <mergeCell ref="AL3:AN4"/>
+    <mergeCell ref="AO3:AR4"/>
+    <mergeCell ref="AH1:AK2"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B27:E27"/>
     <mergeCell ref="AF32:AG33"/>
     <mergeCell ref="AH32:AL33"/>
     <mergeCell ref="AE39:AG40"/>
@@ -14262,42 +14376,6 @@
     <mergeCell ref="W25:AA26"/>
     <mergeCell ref="W23:AA24"/>
     <mergeCell ref="AB23:AG24"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="AH23:AL24"/>
-    <mergeCell ref="AB25:AE26"/>
-    <mergeCell ref="AH25:AL26"/>
-    <mergeCell ref="AO1:AR2"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AD4"/>
-    <mergeCell ref="AE3:AG4"/>
-    <mergeCell ref="AH3:AK4"/>
-    <mergeCell ref="AL3:AN4"/>
-    <mergeCell ref="AO3:AR4"/>
-    <mergeCell ref="AH1:AK2"/>
-    <mergeCell ref="AA39:AC40"/>
-    <mergeCell ref="AH34:AL35"/>
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="I1:R4"/>
-    <mergeCell ref="S1:U2"/>
-    <mergeCell ref="V1:AD2"/>
-    <mergeCell ref="AE1:AG2"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="J20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Documents/Detail Design/manager/K002.xlsx
+++ b/Documents/Detail Design/manager/K002.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
   <si>
     <t>Bản thiết kế chi tiết</t>
   </si>
@@ -287,43 +287,10 @@
     <t>Danh sách cột của bảng</t>
   </si>
   <si>
-    <t>Reservation code</t>
-  </si>
-  <si>
     <t>Check in</t>
   </si>
   <si>
-    <t>Quantity Room</t>
-  </si>
-  <si>
-    <t>Room number 1</t>
-  </si>
-  <si>
-    <t>Room type 1</t>
-  </si>
-  <si>
-    <t>Room number 2</t>
-  </si>
-  <si>
-    <t>Room type 2</t>
-  </si>
-  <si>
-    <t>Room number 3</t>
-  </si>
-  <si>
-    <t>Room type 3</t>
-  </si>
-  <si>
-    <t>Room number 4</t>
-  </si>
-  <si>
-    <t>Room type 4</t>
-  </si>
-  <si>
     <t>Check out</t>
-  </si>
-  <si>
-    <t>Amount</t>
   </si>
   <si>
     <t>Status</t>
@@ -363,6 +330,18 @@
   </si>
   <si>
     <t>Identity card</t>
+  </si>
+  <si>
+    <t>Reservation ID</t>
+  </si>
+  <si>
+    <t>Identity Card</t>
+  </si>
+  <si>
+    <t>Quantity room</t>
+  </si>
+  <si>
+    <t>Paid Status</t>
   </si>
 </sst>
 </file>
@@ -724,63 +703,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,6 +733,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -818,6 +746,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -841,17 +820,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -889,25 +862,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -926,6 +887,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -948,6 +945,54 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1014,72 +1059,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7172,248 +7151,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="12" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="76" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="48" t="s">
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="49"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="58" t="s">
+      <c r="T1" s="67"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="64" t="s">
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="65">
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="74">
         <v>42982</v>
       </c>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="55" t="s">
+      <c r="AI1" s="75"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="75"/>
+      <c r="AL1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="56" t="s">
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
     </row>
     <row r="2" spans="1:44" ht="12" customHeight="1">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
     </row>
     <row r="3" spans="1:44" ht="12" customHeight="1">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="48" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="49"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="58" t="s">
+      <c r="T3" s="67"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="64" t="s">
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="75"/>
+      <c r="AJ3" s="75"/>
+      <c r="AK3" s="75"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="75"/>
+      <c r="AP3" s="75"/>
+      <c r="AQ3" s="75"/>
+      <c r="AR3" s="75"/>
     </row>
     <row r="4" spans="1:44" ht="12" customHeight="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="64"/>
-      <c r="AM4" s="64"/>
-      <c r="AN4" s="64"/>
-      <c r="AO4" s="66"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="66"/>
-      <c r="AR4" s="66"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="70"/>
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="75"/>
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="70"/>
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="70"/>
+      <c r="AO4" s="75"/>
+      <c r="AP4" s="75"/>
+      <c r="AQ4" s="75"/>
+      <c r="AR4" s="75"/>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="53"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="78"/>
     </row>
     <row r="7" spans="1:44" ht="12" customHeight="1">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="53"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="78"/>
     </row>
     <row r="12" spans="1:44" ht="12" customHeight="1">
       <c r="B12" s="30"/>
@@ -7461,17 +7440,17 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
-      <c r="M13" s="54" t="s">
+      <c r="M13" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
@@ -7497,15 +7476,15 @@
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
@@ -8315,11 +8294,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="I1:R4"/>
-    <mergeCell ref="S1:U2"/>
-    <mergeCell ref="V1:AD2"/>
-    <mergeCell ref="AE1:AG2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="M13:U14"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="AO1:AR2"/>
     <mergeCell ref="S3:U4"/>
@@ -8329,11 +8308,11 @@
     <mergeCell ref="AL3:AN4"/>
     <mergeCell ref="AO3:AR4"/>
     <mergeCell ref="AH1:AK2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="M13:U14"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="I1:R4"/>
+    <mergeCell ref="S1:U2"/>
+    <mergeCell ref="V1:AD2"/>
+    <mergeCell ref="AE1:AG2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8361,248 +8340,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="12" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="76" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="48" t="s">
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="49"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="58" t="s">
+      <c r="T1" s="67"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="64" t="s">
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="65" t="s">
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="55" t="s">
+      <c r="AI1" s="75"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="75"/>
+      <c r="AL1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="56" t="s">
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
     </row>
     <row r="2" spans="1:44" ht="12" customHeight="1">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
     </row>
     <row r="3" spans="1:44" ht="12" customHeight="1">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="48" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="49"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="58" t="s">
+      <c r="T3" s="67"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="64" t="s">
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="75"/>
+      <c r="AJ3" s="75"/>
+      <c r="AK3" s="75"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="75"/>
+      <c r="AP3" s="75"/>
+      <c r="AQ3" s="75"/>
+      <c r="AR3" s="75"/>
     </row>
     <row r="4" spans="1:44" ht="12" customHeight="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="64"/>
-      <c r="AM4" s="64"/>
-      <c r="AN4" s="64"/>
-      <c r="AO4" s="66"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="66"/>
-      <c r="AR4" s="66"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="70"/>
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="75"/>
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="70"/>
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="70"/>
+      <c r="AO4" s="75"/>
+      <c r="AP4" s="75"/>
+      <c r="AQ4" s="75"/>
+      <c r="AR4" s="75"/>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="53"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="78"/>
     </row>
     <row r="7" spans="1:44" ht="12" customHeight="1">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="53"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="78"/>
     </row>
     <row r="12" spans="1:44" ht="12" customHeight="1">
       <c r="D12" s="1"/>
@@ -9553,11 +9532,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="I1:R4"/>
-    <mergeCell ref="S1:U2"/>
-    <mergeCell ref="V1:AD2"/>
-    <mergeCell ref="AE1:AG2"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G12:N14"/>
+    <mergeCell ref="AE13:AK13"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="AB13:AD13"/>
     <mergeCell ref="AL1:AN2"/>
     <mergeCell ref="AO1:AR2"/>
     <mergeCell ref="S3:U4"/>
@@ -9567,14 +9549,11 @@
     <mergeCell ref="AL3:AN4"/>
     <mergeCell ref="AO3:AR4"/>
     <mergeCell ref="AH1:AK2"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G12:N14"/>
-    <mergeCell ref="AE13:AK13"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="I1:R4"/>
+    <mergeCell ref="S1:U2"/>
+    <mergeCell ref="V1:AD2"/>
+    <mergeCell ref="AE1:AG2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9599,244 +9578,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="12" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="76" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="48" t="s">
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="49"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="58" t="s">
+      <c r="T1" s="67"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="64" t="s">
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="65">
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="74">
         <v>42982</v>
       </c>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="55" t="s">
+      <c r="AI1" s="75"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="75"/>
+      <c r="AL1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="56" t="s">
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
     </row>
     <row r="2" spans="1:44" ht="12" customHeight="1">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
     </row>
     <row r="3" spans="1:44" ht="12" customHeight="1">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="48" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="49"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="64" t="s">
+      <c r="T3" s="67"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="75"/>
+      <c r="AJ3" s="75"/>
+      <c r="AK3" s="75"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="75"/>
+      <c r="AP3" s="75"/>
+      <c r="AQ3" s="75"/>
+      <c r="AR3" s="75"/>
     </row>
     <row r="4" spans="1:44" ht="12" customHeight="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="64"/>
-      <c r="AM4" s="64"/>
-      <c r="AN4" s="64"/>
-      <c r="AO4" s="66"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="66"/>
-      <c r="AR4" s="66"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="70"/>
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="75"/>
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="70"/>
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="70"/>
+      <c r="AO4" s="75"/>
+      <c r="AP4" s="75"/>
+      <c r="AQ4" s="75"/>
+      <c r="AR4" s="75"/>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="53"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="78"/>
     </row>
     <row r="7" spans="1:44" ht="12" customHeight="1">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="53"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="78"/>
     </row>
     <row r="12" spans="1:44" ht="12" customHeight="1">
       <c r="B12" s="1"/>
@@ -9890,20 +9869,20 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="90" t="s">
+      <c r="N13" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="90"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="101"/>
+      <c r="U13" s="101"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="101"/>
+      <c r="Y13" s="101"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
@@ -9931,18 +9910,18 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="101"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="101"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
@@ -10034,11 +10013,11 @@
       <c r="AJ16" s="8"/>
       <c r="AK16" s="8"/>
       <c r="AL16" s="9"/>
-      <c r="AM16" s="87" t="s">
+      <c r="AM16" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="AN16" s="88"/>
-      <c r="AO16" s="88"/>
+      <c r="AN16" s="103"/>
+      <c r="AO16" s="103"/>
     </row>
     <row r="17" spans="2:47" ht="12" customHeight="1">
       <c r="B17" s="10"/>
@@ -10078,51 +10057,51 @@
       <c r="AJ17" s="11"/>
       <c r="AK17" s="11"/>
       <c r="AL17" s="12"/>
-      <c r="AM17" s="87"/>
-      <c r="AN17" s="88"/>
-      <c r="AO17" s="88"/>
+      <c r="AM17" s="102"/>
+      <c r="AN17" s="103"/>
+      <c r="AO17" s="103"/>
     </row>
     <row r="18" spans="2:47" ht="12" customHeight="1">
       <c r="B18" s="10"/>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="89" t="s">
+      <c r="L18" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
+      <c r="S18" s="88"/>
+      <c r="T18" s="88"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
-      <c r="W18" s="89" t="s">
+      <c r="W18" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
+      <c r="X18" s="88"/>
+      <c r="Y18" s="88"/>
+      <c r="Z18" s="88"/>
+      <c r="AA18" s="88"/>
+      <c r="AB18" s="88"/>
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="11"/>
       <c r="AF18" s="11"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="89"/>
+      <c r="AG18" s="88"/>
+      <c r="AH18" s="88"/>
+      <c r="AI18" s="88"/>
       <c r="AJ18" s="11"/>
       <c r="AK18" s="11"/>
       <c r="AL18" s="12"/>
@@ -10132,9 +10111,9 @@
     </row>
     <row r="19" spans="2:47" ht="12" customHeight="1">
       <c r="B19" s="10"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -10174,43 +10153,43 @@
     </row>
     <row r="20" spans="2:47" ht="12" customHeight="1">
       <c r="B20" s="10"/>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
-      <c r="L20" s="89" t="s">
+      <c r="L20" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="89"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="88"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="89"/>
+      <c r="W20" s="88"/>
+      <c r="X20" s="88"/>
+      <c r="Y20" s="88"/>
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="88"/>
+      <c r="AB20" s="88"/>
       <c r="AC20" s="11"/>
       <c r="AD20" s="11"/>
       <c r="AE20" s="11"/>
       <c r="AF20" s="11"/>
-      <c r="AG20" s="89"/>
-      <c r="AH20" s="89"/>
-      <c r="AI20" s="89"/>
+      <c r="AG20" s="88"/>
+      <c r="AH20" s="88"/>
+      <c r="AI20" s="88"/>
       <c r="AJ20" s="11"/>
       <c r="AK20" s="11"/>
       <c r="AL20" s="12"/>
@@ -10304,23 +10283,23 @@
       <c r="AL22" s="12"/>
     </row>
     <row r="23" spans="2:47" ht="12" customHeight="1">
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="89" t="s">
+      <c r="L23" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
@@ -10386,23 +10365,23 @@
       <c r="AL24" s="12"/>
     </row>
     <row r="25" spans="2:47" ht="12" customHeight="1">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="89" t="s">
+      <c r="L25" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
@@ -10468,23 +10447,23 @@
       <c r="AL26" s="12"/>
     </row>
     <row r="27" spans="2:47" ht="12" customHeight="1">
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="89" t="s">
+      <c r="L27" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -10550,12 +10529,12 @@
       <c r="AL28" s="12"/>
     </row>
     <row r="29" spans="2:47" ht="12" customHeight="1">
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -10630,12 +10609,12 @@
       <c r="AL30" s="12"/>
     </row>
     <row r="31" spans="2:47" ht="12" customHeight="1">
-      <c r="B31" s="103" t="s">
+      <c r="B31" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -10710,12 +10689,12 @@
       <c r="AL32" s="12"/>
     </row>
     <row r="33" spans="2:38" ht="12" customHeight="1">
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -10971,23 +10950,23 @@
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
       <c r="Z39" s="11"/>
-      <c r="AA39" s="97" t="s">
+      <c r="AA39" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="AB39" s="98"/>
-      <c r="AC39" s="99"/>
+      <c r="AB39" s="96"/>
+      <c r="AC39" s="97"/>
       <c r="AD39" s="11"/>
-      <c r="AE39" s="91" t="s">
+      <c r="AE39" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="AF39" s="92"/>
-      <c r="AG39" s="93"/>
+      <c r="AF39" s="90"/>
+      <c r="AG39" s="91"/>
       <c r="AH39" s="11"/>
-      <c r="AI39" s="97" t="s">
+      <c r="AI39" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="AJ39" s="98"/>
-      <c r="AK39" s="99"/>
+      <c r="AJ39" s="96"/>
+      <c r="AK39" s="97"/>
       <c r="AL39" s="12"/>
     </row>
     <row r="40" spans="2:38" ht="12" customHeight="1">
@@ -11016,17 +10995,17 @@
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
       <c r="Z40" s="11"/>
-      <c r="AA40" s="100"/>
-      <c r="AB40" s="101"/>
-      <c r="AC40" s="102"/>
+      <c r="AA40" s="98"/>
+      <c r="AB40" s="99"/>
+      <c r="AC40" s="100"/>
       <c r="AD40" s="11"/>
-      <c r="AE40" s="94"/>
-      <c r="AF40" s="95"/>
-      <c r="AG40" s="96"/>
+      <c r="AE40" s="92"/>
+      <c r="AF40" s="93"/>
+      <c r="AG40" s="94"/>
       <c r="AH40" s="11"/>
-      <c r="AI40" s="100"/>
-      <c r="AJ40" s="101"/>
-      <c r="AK40" s="102"/>
+      <c r="AI40" s="98"/>
+      <c r="AJ40" s="99"/>
+      <c r="AK40" s="100"/>
       <c r="AL40" s="12"/>
     </row>
     <row r="41" spans="2:38" ht="12" customHeight="1">
@@ -11070,31 +11049,11 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="AE39:AG40"/>
-    <mergeCell ref="AI39:AK40"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="AA39:AC40"/>
-    <mergeCell ref="AE1:AG2"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="AO1:AR2"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AD4"/>
-    <mergeCell ref="AE3:AG4"/>
-    <mergeCell ref="AH3:AK4"/>
-    <mergeCell ref="AL3:AN4"/>
-    <mergeCell ref="AO3:AR4"/>
-    <mergeCell ref="AH1:AK2"/>
+    <mergeCell ref="AM16:AO17"/>
+    <mergeCell ref="AG20:AI20"/>
+    <mergeCell ref="AG18:AI18"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="Z18:AB18"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="W18:Y18"/>
     <mergeCell ref="W20:Y20"/>
@@ -11110,11 +11069,31 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="AM16:AO17"/>
-    <mergeCell ref="AG20:AI20"/>
-    <mergeCell ref="AG18:AI18"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AE1:AG2"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="AO1:AR2"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AD4"/>
+    <mergeCell ref="AE3:AG4"/>
+    <mergeCell ref="AH3:AK4"/>
+    <mergeCell ref="AL3:AN4"/>
+    <mergeCell ref="AO3:AR4"/>
+    <mergeCell ref="AH1:AK2"/>
+    <mergeCell ref="AE39:AG40"/>
+    <mergeCell ref="AI39:AK40"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="AA39:AC40"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L20:N20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11127,8 +11106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AP37" sqref="AP37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="12" customHeight="1"/>
@@ -11137,248 +11116,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="12" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="76" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="48" t="s">
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="49"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="58" t="s">
+      <c r="T1" s="67"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="64" t="s">
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="65">
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="74">
         <v>42982</v>
       </c>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="55" t="s">
+      <c r="AI1" s="75"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="75"/>
+      <c r="AL1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="56" t="s">
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
     </row>
     <row r="2" spans="1:44" ht="12" customHeight="1">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
     </row>
     <row r="3" spans="1:44" ht="12" customHeight="1">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="48" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="49"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="64" t="s">
+      <c r="T3" s="67"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="75"/>
+      <c r="AJ3" s="75"/>
+      <c r="AK3" s="75"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="75"/>
+      <c r="AP3" s="75"/>
+      <c r="AQ3" s="75"/>
+      <c r="AR3" s="75"/>
     </row>
     <row r="4" spans="1:44" ht="12" customHeight="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="64"/>
-      <c r="AM4" s="64"/>
-      <c r="AN4" s="64"/>
-      <c r="AO4" s="66"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="66"/>
-      <c r="AR4" s="66"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="70"/>
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="75"/>
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="70"/>
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="70"/>
+      <c r="AO4" s="75"/>
+      <c r="AP4" s="75"/>
+      <c r="AQ4" s="75"/>
+      <c r="AR4" s="75"/>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="53"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="78"/>
     </row>
     <row r="7" spans="1:44" ht="12" customHeight="1">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="53"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="78"/>
     </row>
     <row r="12" spans="1:44" ht="12" customHeight="1">
       <c r="B12" s="1"/>
@@ -11464,35 +11443,35 @@
         <v>1</v>
       </c>
       <c r="AP13" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:44" ht="12" customHeight="1">
-      <c r="B14" s="162" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="161"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="112"/>
+      <c r="B14" s="114" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="106"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="116" t="s">
-        <v>92</v>
-      </c>
-      <c r="N14" s="116"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="111"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="111"/>
-      <c r="U14" s="111"/>
-      <c r="V14" s="112"/>
+      <c r="M14" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="105"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="105"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="106"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
@@ -11500,12 +11479,12 @@
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
-      <c r="AD14" s="117" t="s">
+      <c r="AD14" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="AE14" s="118"/>
-      <c r="AF14" s="118"/>
-      <c r="AG14" s="119"/>
+      <c r="AE14" s="124"/>
+      <c r="AF14" s="124"/>
+      <c r="AG14" s="125"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
@@ -11515,31 +11494,31 @@
         <v>2</v>
       </c>
       <c r="AP14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:44" ht="12" customHeight="1">
-      <c r="B15" s="162"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="115"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="109"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="113"/>
-      <c r="Q15" s="114"/>
-      <c r="R15" s="114"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="114"/>
-      <c r="V15" s="115"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="108"/>
+      <c r="R15" s="108"/>
+      <c r="S15" s="108"/>
+      <c r="T15" s="108"/>
+      <c r="U15" s="108"/>
+      <c r="V15" s="109"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
@@ -11547,10 +11526,10 @@
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
-      <c r="AD15" s="120"/>
-      <c r="AE15" s="121"/>
-      <c r="AF15" s="121"/>
-      <c r="AG15" s="122"/>
+      <c r="AD15" s="126"/>
+      <c r="AE15" s="127"/>
+      <c r="AF15" s="127"/>
+      <c r="AG15" s="128"/>
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
@@ -11560,7 +11539,7 @@
         <v>3</v>
       </c>
       <c r="AP15" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:44" ht="12" customHeight="1">
@@ -11606,15 +11585,15 @@
         <v>4</v>
       </c>
       <c r="AP16" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:47" ht="12" customHeight="1">
-      <c r="B17" s="164" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="166"/>
+      <c r="B17" s="117" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="118"/>
+      <c r="D17" s="119"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -11654,13 +11633,13 @@
         <v>5</v>
       </c>
       <c r="AP17" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:47" ht="12" customHeight="1">
-      <c r="B18" s="164"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="166"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="119"/>
       <c r="E18" s="7"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -11699,114 +11678,114 @@
         <v>6</v>
       </c>
       <c r="AP18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="2:47" ht="12" customHeight="1">
       <c r="B19" s="4"/>
-      <c r="C19" s="104" t="s">
+      <c r="C19" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="106"/>
-      <c r="E19" s="104" t="s">
+      <c r="D19" s="111"/>
+      <c r="E19" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="104" t="s">
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
-      <c r="O19" s="105"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="104" t="s">
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="R19" s="105"/>
-      <c r="S19" s="105"/>
-      <c r="T19" s="105"/>
-      <c r="U19" s="106"/>
-      <c r="V19" s="104" t="s">
+      <c r="R19" s="120"/>
+      <c r="S19" s="120"/>
+      <c r="T19" s="120"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="W19" s="105"/>
-      <c r="X19" s="105"/>
-      <c r="Y19" s="105"/>
-      <c r="Z19" s="106"/>
-      <c r="AA19" s="104" t="s">
+      <c r="W19" s="120"/>
+      <c r="X19" s="120"/>
+      <c r="Y19" s="120"/>
+      <c r="Z19" s="111"/>
+      <c r="AA19" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="AB19" s="106"/>
-      <c r="AC19" s="104" t="s">
+      <c r="AB19" s="111"/>
+      <c r="AC19" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="AD19" s="105"/>
-      <c r="AE19" s="105"/>
-      <c r="AF19" s="105"/>
-      <c r="AG19" s="106"/>
-      <c r="AH19" s="104" t="s">
+      <c r="AD19" s="120"/>
+      <c r="AE19" s="120"/>
+      <c r="AF19" s="120"/>
+      <c r="AG19" s="111"/>
+      <c r="AH19" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="AI19" s="105"/>
-      <c r="AJ19" s="105"/>
-      <c r="AK19" s="106"/>
+      <c r="AI19" s="120"/>
+      <c r="AJ19" s="120"/>
+      <c r="AK19" s="111"/>
       <c r="AL19" s="6"/>
       <c r="AO19">
         <v>7</v>
       </c>
       <c r="AP19" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:47" ht="12" customHeight="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="108"/>
-      <c r="S20" s="108"/>
-      <c r="T20" s="108"/>
-      <c r="U20" s="109"/>
-      <c r="V20" s="107"/>
-      <c r="W20" s="108"/>
-      <c r="X20" s="108"/>
-      <c r="Y20" s="108"/>
-      <c r="Z20" s="109"/>
-      <c r="AA20" s="107"/>
-      <c r="AB20" s="109"/>
-      <c r="AC20" s="107"/>
-      <c r="AD20" s="108"/>
-      <c r="AE20" s="108"/>
-      <c r="AF20" s="108"/>
-      <c r="AG20" s="109"/>
-      <c r="AH20" s="107"/>
-      <c r="AI20" s="108"/>
-      <c r="AJ20" s="108"/>
-      <c r="AK20" s="109"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="112"/>
+      <c r="R20" s="121"/>
+      <c r="S20" s="121"/>
+      <c r="T20" s="121"/>
+      <c r="U20" s="113"/>
+      <c r="V20" s="112"/>
+      <c r="W20" s="121"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="121"/>
+      <c r="Z20" s="113"/>
+      <c r="AA20" s="112"/>
+      <c r="AB20" s="113"/>
+      <c r="AC20" s="112"/>
+      <c r="AD20" s="121"/>
+      <c r="AE20" s="121"/>
+      <c r="AF20" s="121"/>
+      <c r="AG20" s="113"/>
+      <c r="AH20" s="112"/>
+      <c r="AI20" s="121"/>
+      <c r="AJ20" s="121"/>
+      <c r="AK20" s="113"/>
       <c r="AL20" s="6"/>
       <c r="AN20" s="28"/>
       <c r="AO20">
         <v>8</v>
       </c>
       <c r="AP20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AQ20" s="28"/>
       <c r="AR20" s="28"/>
@@ -11816,854 +11795,815 @@
     </row>
     <row r="21" spans="2:47" ht="12" customHeight="1">
       <c r="B21" s="4"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="111"/>
-      <c r="O21" s="111"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="110"/>
-      <c r="R21" s="111"/>
-      <c r="S21" s="111"/>
-      <c r="T21" s="111"/>
-      <c r="U21" s="112"/>
-      <c r="V21" s="110"/>
-      <c r="W21" s="111"/>
-      <c r="X21" s="111"/>
-      <c r="Y21" s="111"/>
-      <c r="Z21" s="112"/>
-      <c r="AA21" s="110"/>
-      <c r="AB21" s="112"/>
-      <c r="AC21" s="110"/>
-      <c r="AD21" s="111"/>
-      <c r="AE21" s="111"/>
-      <c r="AF21" s="111"/>
-      <c r="AG21" s="112"/>
-      <c r="AH21" s="110"/>
-      <c r="AI21" s="111"/>
-      <c r="AJ21" s="111"/>
-      <c r="AK21" s="112"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="105"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="105"/>
+      <c r="X21" s="105"/>
+      <c r="Y21" s="105"/>
+      <c r="Z21" s="106"/>
+      <c r="AA21" s="104"/>
+      <c r="AB21" s="106"/>
+      <c r="AC21" s="104"/>
+      <c r="AD21" s="105"/>
+      <c r="AE21" s="105"/>
+      <c r="AF21" s="105"/>
+      <c r="AG21" s="106"/>
+      <c r="AH21" s="104"/>
+      <c r="AI21" s="105"/>
+      <c r="AJ21" s="105"/>
+      <c r="AK21" s="106"/>
       <c r="AL21" s="6"/>
       <c r="AO21">
         <v>9</v>
       </c>
       <c r="AP21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="2:47" ht="12" customHeight="1">
       <c r="B22" s="4"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="115"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="114"/>
-      <c r="S22" s="114"/>
-      <c r="T22" s="114"/>
-      <c r="U22" s="115"/>
-      <c r="V22" s="113"/>
-      <c r="W22" s="114"/>
-      <c r="X22" s="114"/>
-      <c r="Y22" s="114"/>
-      <c r="Z22" s="115"/>
-      <c r="AA22" s="113"/>
-      <c r="AB22" s="115"/>
-      <c r="AC22" s="113"/>
-      <c r="AD22" s="114"/>
-      <c r="AE22" s="114"/>
-      <c r="AF22" s="114"/>
-      <c r="AG22" s="115"/>
-      <c r="AH22" s="113"/>
-      <c r="AI22" s="114"/>
-      <c r="AJ22" s="114"/>
-      <c r="AK22" s="115"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="109"/>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="108"/>
+      <c r="S22" s="108"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="109"/>
+      <c r="V22" s="107"/>
+      <c r="W22" s="108"/>
+      <c r="X22" s="108"/>
+      <c r="Y22" s="108"/>
+      <c r="Z22" s="109"/>
+      <c r="AA22" s="107"/>
+      <c r="AB22" s="109"/>
+      <c r="AC22" s="107"/>
+      <c r="AD22" s="108"/>
+      <c r="AE22" s="108"/>
+      <c r="AF22" s="108"/>
+      <c r="AG22" s="109"/>
+      <c r="AH22" s="107"/>
+      <c r="AI22" s="108"/>
+      <c r="AJ22" s="108"/>
+      <c r="AK22" s="109"/>
       <c r="AL22" s="6"/>
       <c r="AO22">
         <v>10</v>
       </c>
       <c r="AP22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="2:47" ht="12" customHeight="1">
       <c r="B23" s="4"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="111"/>
-      <c r="O23" s="111"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="111"/>
-      <c r="S23" s="111"/>
-      <c r="T23" s="111"/>
-      <c r="U23" s="112"/>
-      <c r="V23" s="110"/>
-      <c r="W23" s="111"/>
-      <c r="X23" s="111"/>
-      <c r="Y23" s="111"/>
-      <c r="Z23" s="112"/>
-      <c r="AA23" s="110"/>
-      <c r="AB23" s="112"/>
-      <c r="AC23" s="110"/>
-      <c r="AD23" s="111"/>
-      <c r="AE23" s="111"/>
-      <c r="AF23" s="111"/>
-      <c r="AG23" s="112"/>
-      <c r="AH23" s="110"/>
-      <c r="AI23" s="111"/>
-      <c r="AJ23" s="111"/>
-      <c r="AK23" s="112"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="105"/>
+      <c r="T23" s="105"/>
+      <c r="U23" s="106"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="105"/>
+      <c r="X23" s="105"/>
+      <c r="Y23" s="105"/>
+      <c r="Z23" s="106"/>
+      <c r="AA23" s="104"/>
+      <c r="AB23" s="106"/>
+      <c r="AC23" s="104"/>
+      <c r="AD23" s="105"/>
+      <c r="AE23" s="105"/>
+      <c r="AF23" s="105"/>
+      <c r="AG23" s="106"/>
+      <c r="AH23" s="104"/>
+      <c r="AI23" s="105"/>
+      <c r="AJ23" s="105"/>
+      <c r="AK23" s="106"/>
       <c r="AL23" s="6"/>
       <c r="AO23">
         <v>11</v>
       </c>
-      <c r="AP23" s="28" t="s">
-        <v>71</v>
+      <c r="AP23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="2:47" ht="12" customHeight="1">
       <c r="B24" s="4"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="115"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="114"/>
-      <c r="S24" s="114"/>
-      <c r="T24" s="114"/>
-      <c r="U24" s="115"/>
-      <c r="V24" s="113"/>
-      <c r="W24" s="114"/>
-      <c r="X24" s="114"/>
-      <c r="Y24" s="114"/>
-      <c r="Z24" s="115"/>
-      <c r="AA24" s="113"/>
-      <c r="AB24" s="115"/>
-      <c r="AC24" s="113"/>
-      <c r="AD24" s="114"/>
-      <c r="AE24" s="114"/>
-      <c r="AF24" s="114"/>
-      <c r="AG24" s="115"/>
-      <c r="AH24" s="113"/>
-      <c r="AI24" s="114"/>
-      <c r="AJ24" s="114"/>
-      <c r="AK24" s="115"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="109"/>
+      <c r="Q24" s="107"/>
+      <c r="R24" s="108"/>
+      <c r="S24" s="108"/>
+      <c r="T24" s="108"/>
+      <c r="U24" s="109"/>
+      <c r="V24" s="107"/>
+      <c r="W24" s="108"/>
+      <c r="X24" s="108"/>
+      <c r="Y24" s="108"/>
+      <c r="Z24" s="109"/>
+      <c r="AA24" s="107"/>
+      <c r="AB24" s="109"/>
+      <c r="AC24" s="107"/>
+      <c r="AD24" s="108"/>
+      <c r="AE24" s="108"/>
+      <c r="AF24" s="108"/>
+      <c r="AG24" s="109"/>
+      <c r="AH24" s="107"/>
+      <c r="AI24" s="108"/>
+      <c r="AJ24" s="108"/>
+      <c r="AK24" s="109"/>
       <c r="AL24" s="6"/>
-      <c r="AO24">
-        <v>12</v>
-      </c>
-      <c r="AP24" s="28" t="s">
-        <v>72</v>
-      </c>
+      <c r="AP24" s="28"/>
     </row>
     <row r="25" spans="2:47" ht="12" customHeight="1">
       <c r="B25" s="4"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="111"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="111"/>
-      <c r="O25" s="111"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="111"/>
-      <c r="S25" s="111"/>
-      <c r="T25" s="111"/>
-      <c r="U25" s="112"/>
-      <c r="V25" s="110"/>
-      <c r="W25" s="111"/>
-      <c r="X25" s="111"/>
-      <c r="Y25" s="111"/>
-      <c r="Z25" s="112"/>
-      <c r="AA25" s="110"/>
-      <c r="AB25" s="112"/>
-      <c r="AC25" s="110"/>
-      <c r="AD25" s="111"/>
-      <c r="AE25" s="111"/>
-      <c r="AF25" s="111"/>
-      <c r="AG25" s="112"/>
-      <c r="AH25" s="110"/>
-      <c r="AI25" s="111"/>
-      <c r="AJ25" s="111"/>
-      <c r="AK25" s="112"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="104"/>
+      <c r="R25" s="105"/>
+      <c r="S25" s="105"/>
+      <c r="T25" s="105"/>
+      <c r="U25" s="106"/>
+      <c r="V25" s="104"/>
+      <c r="W25" s="105"/>
+      <c r="X25" s="105"/>
+      <c r="Y25" s="105"/>
+      <c r="Z25" s="106"/>
+      <c r="AA25" s="104"/>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="104"/>
+      <c r="AD25" s="105"/>
+      <c r="AE25" s="105"/>
+      <c r="AF25" s="105"/>
+      <c r="AG25" s="106"/>
+      <c r="AH25" s="104"/>
+      <c r="AI25" s="105"/>
+      <c r="AJ25" s="105"/>
+      <c r="AK25" s="106"/>
       <c r="AL25" s="6"/>
-      <c r="AO25">
-        <v>13</v>
-      </c>
-      <c r="AP25" s="28" t="s">
-        <v>73</v>
-      </c>
+      <c r="AP25" s="28"/>
     </row>
     <row r="26" spans="2:47" ht="12" customHeight="1">
       <c r="B26" s="4"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="115"/>
-      <c r="Q26" s="113"/>
-      <c r="R26" s="114"/>
-      <c r="S26" s="114"/>
-      <c r="T26" s="114"/>
-      <c r="U26" s="115"/>
-      <c r="V26" s="113"/>
-      <c r="W26" s="114"/>
-      <c r="X26" s="114"/>
-      <c r="Y26" s="114"/>
-      <c r="Z26" s="115"/>
-      <c r="AA26" s="113"/>
-      <c r="AB26" s="115"/>
-      <c r="AC26" s="113"/>
-      <c r="AD26" s="114"/>
-      <c r="AE26" s="114"/>
-      <c r="AF26" s="114"/>
-      <c r="AG26" s="115"/>
-      <c r="AH26" s="113"/>
-      <c r="AI26" s="114"/>
-      <c r="AJ26" s="114"/>
-      <c r="AK26" s="115"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="109"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="108"/>
+      <c r="S26" s="108"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="109"/>
+      <c r="V26" s="107"/>
+      <c r="W26" s="108"/>
+      <c r="X26" s="108"/>
+      <c r="Y26" s="108"/>
+      <c r="Z26" s="109"/>
+      <c r="AA26" s="107"/>
+      <c r="AB26" s="109"/>
+      <c r="AC26" s="107"/>
+      <c r="AD26" s="108"/>
+      <c r="AE26" s="108"/>
+      <c r="AF26" s="108"/>
+      <c r="AG26" s="109"/>
+      <c r="AH26" s="107"/>
+      <c r="AI26" s="108"/>
+      <c r="AJ26" s="108"/>
+      <c r="AK26" s="109"/>
       <c r="AL26" s="6"/>
-      <c r="AO26">
-        <v>14</v>
-      </c>
-      <c r="AP26" s="28" t="s">
-        <v>74</v>
-      </c>
+      <c r="AP26" s="28"/>
     </row>
     <row r="27" spans="2:47" ht="12" customHeight="1">
       <c r="B27" s="4"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="111"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="110"/>
-      <c r="R27" s="111"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="112"/>
-      <c r="V27" s="110"/>
-      <c r="W27" s="111"/>
-      <c r="X27" s="111"/>
-      <c r="Y27" s="111"/>
-      <c r="Z27" s="112"/>
-      <c r="AA27" s="110"/>
-      <c r="AB27" s="112"/>
-      <c r="AC27" s="110"/>
-      <c r="AD27" s="111"/>
-      <c r="AE27" s="111"/>
-      <c r="AF27" s="111"/>
-      <c r="AG27" s="112"/>
-      <c r="AH27" s="110"/>
-      <c r="AI27" s="111"/>
-      <c r="AJ27" s="111"/>
-      <c r="AK27" s="112"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="105"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="105"/>
+      <c r="U27" s="106"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="105"/>
+      <c r="X27" s="105"/>
+      <c r="Y27" s="105"/>
+      <c r="Z27" s="106"/>
+      <c r="AA27" s="104"/>
+      <c r="AB27" s="106"/>
+      <c r="AC27" s="104"/>
+      <c r="AD27" s="105"/>
+      <c r="AE27" s="105"/>
+      <c r="AF27" s="105"/>
+      <c r="AG27" s="106"/>
+      <c r="AH27" s="104"/>
+      <c r="AI27" s="105"/>
+      <c r="AJ27" s="105"/>
+      <c r="AK27" s="106"/>
       <c r="AL27" s="6"/>
-      <c r="AO27">
-        <v>15</v>
-      </c>
-      <c r="AP27" s="28" t="s">
-        <v>75</v>
-      </c>
+      <c r="AP27" s="28"/>
     </row>
     <row r="28" spans="2:47" ht="12" customHeight="1">
       <c r="B28" s="4"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="114"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="113"/>
-      <c r="R28" s="114"/>
-      <c r="S28" s="114"/>
-      <c r="T28" s="114"/>
-      <c r="U28" s="115"/>
-      <c r="V28" s="113"/>
-      <c r="W28" s="114"/>
-      <c r="X28" s="114"/>
-      <c r="Y28" s="114"/>
-      <c r="Z28" s="115"/>
-      <c r="AA28" s="113"/>
-      <c r="AB28" s="115"/>
-      <c r="AC28" s="113"/>
-      <c r="AD28" s="114"/>
-      <c r="AE28" s="114"/>
-      <c r="AF28" s="114"/>
-      <c r="AG28" s="115"/>
-      <c r="AH28" s="113"/>
-      <c r="AI28" s="114"/>
-      <c r="AJ28" s="114"/>
-      <c r="AK28" s="115"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="109"/>
+      <c r="Q28" s="107"/>
+      <c r="R28" s="108"/>
+      <c r="S28" s="108"/>
+      <c r="T28" s="108"/>
+      <c r="U28" s="109"/>
+      <c r="V28" s="107"/>
+      <c r="W28" s="108"/>
+      <c r="X28" s="108"/>
+      <c r="Y28" s="108"/>
+      <c r="Z28" s="109"/>
+      <c r="AA28" s="107"/>
+      <c r="AB28" s="109"/>
+      <c r="AC28" s="107"/>
+      <c r="AD28" s="108"/>
+      <c r="AE28" s="108"/>
+      <c r="AF28" s="108"/>
+      <c r="AG28" s="109"/>
+      <c r="AH28" s="107"/>
+      <c r="AI28" s="108"/>
+      <c r="AJ28" s="108"/>
+      <c r="AK28" s="109"/>
       <c r="AL28" s="6"/>
-      <c r="AO28">
-        <v>16</v>
-      </c>
-      <c r="AP28" s="28" t="s">
-        <v>76</v>
-      </c>
+      <c r="AP28" s="28"/>
     </row>
     <row r="29" spans="2:47" ht="12" customHeight="1">
       <c r="B29" s="4"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="110"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="110"/>
-      <c r="W29" s="111"/>
-      <c r="X29" s="111"/>
-      <c r="Y29" s="111"/>
-      <c r="Z29" s="112"/>
-      <c r="AA29" s="110"/>
-      <c r="AB29" s="112"/>
-      <c r="AC29" s="110"/>
-      <c r="AD29" s="111"/>
-      <c r="AE29" s="111"/>
-      <c r="AF29" s="111"/>
-      <c r="AG29" s="112"/>
-      <c r="AH29" s="110"/>
-      <c r="AI29" s="111"/>
-      <c r="AJ29" s="111"/>
-      <c r="AK29" s="112"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="104"/>
+      <c r="W29" s="105"/>
+      <c r="X29" s="105"/>
+      <c r="Y29" s="105"/>
+      <c r="Z29" s="106"/>
+      <c r="AA29" s="104"/>
+      <c r="AB29" s="106"/>
+      <c r="AC29" s="104"/>
+      <c r="AD29" s="105"/>
+      <c r="AE29" s="105"/>
+      <c r="AF29" s="105"/>
+      <c r="AG29" s="106"/>
+      <c r="AH29" s="104"/>
+      <c r="AI29" s="105"/>
+      <c r="AJ29" s="105"/>
+      <c r="AK29" s="106"/>
       <c r="AL29" s="6"/>
-      <c r="AO29">
-        <v>17</v>
-      </c>
-      <c r="AP29" s="28" t="s">
-        <v>77</v>
-      </c>
+      <c r="AP29" s="28"/>
     </row>
     <row r="30" spans="2:47" ht="12" customHeight="1">
       <c r="B30" s="4"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="115"/>
-      <c r="Q30" s="113"/>
-      <c r="R30" s="114"/>
-      <c r="S30" s="114"/>
-      <c r="T30" s="114"/>
-      <c r="U30" s="115"/>
-      <c r="V30" s="113"/>
-      <c r="W30" s="114"/>
-      <c r="X30" s="114"/>
-      <c r="Y30" s="114"/>
-      <c r="Z30" s="115"/>
-      <c r="AA30" s="113"/>
-      <c r="AB30" s="115"/>
-      <c r="AC30" s="113"/>
-      <c r="AD30" s="114"/>
-      <c r="AE30" s="114"/>
-      <c r="AF30" s="114"/>
-      <c r="AG30" s="115"/>
-      <c r="AH30" s="113"/>
-      <c r="AI30" s="114"/>
-      <c r="AJ30" s="114"/>
-      <c r="AK30" s="115"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="108"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="108"/>
+      <c r="S30" s="108"/>
+      <c r="T30" s="108"/>
+      <c r="U30" s="109"/>
+      <c r="V30" s="107"/>
+      <c r="W30" s="108"/>
+      <c r="X30" s="108"/>
+      <c r="Y30" s="108"/>
+      <c r="Z30" s="109"/>
+      <c r="AA30" s="107"/>
+      <c r="AB30" s="109"/>
+      <c r="AC30" s="107"/>
+      <c r="AD30" s="108"/>
+      <c r="AE30" s="108"/>
+      <c r="AF30" s="108"/>
+      <c r="AG30" s="109"/>
+      <c r="AH30" s="107"/>
+      <c r="AI30" s="108"/>
+      <c r="AJ30" s="108"/>
+      <c r="AK30" s="109"/>
       <c r="AL30" s="6"/>
-      <c r="AO30">
-        <v>18</v>
-      </c>
-      <c r="AP30" s="28" t="s">
-        <v>79</v>
-      </c>
+      <c r="AP30" s="28"/>
     </row>
     <row r="31" spans="2:47" ht="12" customHeight="1">
       <c r="B31" s="4"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="111"/>
-      <c r="O31" s="111"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="110"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="111"/>
-      <c r="U31" s="112"/>
-      <c r="V31" s="110"/>
-      <c r="W31" s="111"/>
-      <c r="X31" s="111"/>
-      <c r="Y31" s="111"/>
-      <c r="Z31" s="112"/>
-      <c r="AA31" s="110"/>
-      <c r="AB31" s="112"/>
-      <c r="AC31" s="110"/>
-      <c r="AD31" s="111"/>
-      <c r="AE31" s="111"/>
-      <c r="AF31" s="111"/>
-      <c r="AG31" s="112"/>
-      <c r="AH31" s="110"/>
-      <c r="AI31" s="111"/>
-      <c r="AJ31" s="111"/>
-      <c r="AK31" s="112"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="105"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="104"/>
+      <c r="R31" s="105"/>
+      <c r="S31" s="105"/>
+      <c r="T31" s="105"/>
+      <c r="U31" s="106"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="105"/>
+      <c r="X31" s="105"/>
+      <c r="Y31" s="105"/>
+      <c r="Z31" s="106"/>
+      <c r="AA31" s="104"/>
+      <c r="AB31" s="106"/>
+      <c r="AC31" s="104"/>
+      <c r="AD31" s="105"/>
+      <c r="AE31" s="105"/>
+      <c r="AF31" s="105"/>
+      <c r="AG31" s="106"/>
+      <c r="AH31" s="104"/>
+      <c r="AI31" s="105"/>
+      <c r="AJ31" s="105"/>
+      <c r="AK31" s="106"/>
       <c r="AL31" s="6"/>
-      <c r="AO31">
-        <v>19</v>
-      </c>
-      <c r="AP31" s="28" t="s">
-        <v>80</v>
-      </c>
+      <c r="AP31" s="28"/>
     </row>
     <row r="32" spans="2:47" ht="12" customHeight="1">
       <c r="B32" s="4"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="115"/>
-      <c r="Q32" s="113"/>
-      <c r="R32" s="114"/>
-      <c r="S32" s="114"/>
-      <c r="T32" s="114"/>
-      <c r="U32" s="115"/>
-      <c r="V32" s="113"/>
-      <c r="W32" s="114"/>
-      <c r="X32" s="114"/>
-      <c r="Y32" s="114"/>
-      <c r="Z32" s="115"/>
-      <c r="AA32" s="113"/>
-      <c r="AB32" s="115"/>
-      <c r="AC32" s="113"/>
-      <c r="AD32" s="114"/>
-      <c r="AE32" s="114"/>
-      <c r="AF32" s="114"/>
-      <c r="AG32" s="115"/>
-      <c r="AH32" s="113"/>
-      <c r="AI32" s="114"/>
-      <c r="AJ32" s="114"/>
-      <c r="AK32" s="115"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="109"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="108"/>
+      <c r="S32" s="108"/>
+      <c r="T32" s="108"/>
+      <c r="U32" s="109"/>
+      <c r="V32" s="107"/>
+      <c r="W32" s="108"/>
+      <c r="X32" s="108"/>
+      <c r="Y32" s="108"/>
+      <c r="Z32" s="109"/>
+      <c r="AA32" s="107"/>
+      <c r="AB32" s="109"/>
+      <c r="AC32" s="107"/>
+      <c r="AD32" s="108"/>
+      <c r="AE32" s="108"/>
+      <c r="AF32" s="108"/>
+      <c r="AG32" s="109"/>
+      <c r="AH32" s="107"/>
+      <c r="AI32" s="108"/>
+      <c r="AJ32" s="108"/>
+      <c r="AK32" s="109"/>
       <c r="AL32" s="6"/>
+      <c r="AP32" s="28"/>
     </row>
     <row r="33" spans="2:42" ht="12" customHeight="1">
       <c r="B33" s="4"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="111"/>
-      <c r="P33" s="112"/>
-      <c r="Q33" s="110"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="111"/>
-      <c r="U33" s="112"/>
-      <c r="V33" s="110"/>
-      <c r="W33" s="111"/>
-      <c r="X33" s="111"/>
-      <c r="Y33" s="111"/>
-      <c r="Z33" s="112"/>
-      <c r="AA33" s="110"/>
-      <c r="AB33" s="112"/>
-      <c r="AC33" s="110"/>
-      <c r="AD33" s="111"/>
-      <c r="AE33" s="111"/>
-      <c r="AF33" s="111"/>
-      <c r="AG33" s="112"/>
-      <c r="AH33" s="110"/>
-      <c r="AI33" s="111"/>
-      <c r="AJ33" s="111"/>
-      <c r="AK33" s="112"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="105"/>
+      <c r="P33" s="106"/>
+      <c r="Q33" s="104"/>
+      <c r="R33" s="105"/>
+      <c r="S33" s="105"/>
+      <c r="T33" s="105"/>
+      <c r="U33" s="106"/>
+      <c r="V33" s="104"/>
+      <c r="W33" s="105"/>
+      <c r="X33" s="105"/>
+      <c r="Y33" s="105"/>
+      <c r="Z33" s="106"/>
+      <c r="AA33" s="104"/>
+      <c r="AB33" s="106"/>
+      <c r="AC33" s="104"/>
+      <c r="AD33" s="105"/>
+      <c r="AE33" s="105"/>
+      <c r="AF33" s="105"/>
+      <c r="AG33" s="106"/>
+      <c r="AH33" s="104"/>
+      <c r="AI33" s="105"/>
+      <c r="AJ33" s="105"/>
+      <c r="AK33" s="106"/>
       <c r="AL33" s="6"/>
       <c r="AO33" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:42" ht="12" customHeight="1">
       <c r="B34" s="4"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="114"/>
-      <c r="N34" s="114"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="115"/>
-      <c r="Q34" s="113"/>
-      <c r="R34" s="114"/>
-      <c r="S34" s="114"/>
-      <c r="T34" s="114"/>
-      <c r="U34" s="115"/>
-      <c r="V34" s="113"/>
-      <c r="W34" s="114"/>
-      <c r="X34" s="114"/>
-      <c r="Y34" s="114"/>
-      <c r="Z34" s="115"/>
-      <c r="AA34" s="113"/>
-      <c r="AB34" s="115"/>
-      <c r="AC34" s="113"/>
-      <c r="AD34" s="114"/>
-      <c r="AE34" s="114"/>
-      <c r="AF34" s="114"/>
-      <c r="AG34" s="115"/>
-      <c r="AH34" s="113"/>
-      <c r="AI34" s="114"/>
-      <c r="AJ34" s="114"/>
-      <c r="AK34" s="115"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="108"/>
+      <c r="N34" s="108"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="109"/>
+      <c r="Q34" s="107"/>
+      <c r="R34" s="108"/>
+      <c r="S34" s="108"/>
+      <c r="T34" s="108"/>
+      <c r="U34" s="109"/>
+      <c r="V34" s="107"/>
+      <c r="W34" s="108"/>
+      <c r="X34" s="108"/>
+      <c r="Y34" s="108"/>
+      <c r="Z34" s="109"/>
+      <c r="AA34" s="107"/>
+      <c r="AB34" s="109"/>
+      <c r="AC34" s="107"/>
+      <c r="AD34" s="108"/>
+      <c r="AE34" s="108"/>
+      <c r="AF34" s="108"/>
+      <c r="AG34" s="109"/>
+      <c r="AH34" s="107"/>
+      <c r="AI34" s="108"/>
+      <c r="AJ34" s="108"/>
+      <c r="AK34" s="109"/>
       <c r="AL34" s="6"/>
-      <c r="AP34" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="35" spans="2:42" ht="12" customHeight="1">
       <c r="B35" s="4"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="111"/>
-      <c r="N35" s="111"/>
-      <c r="O35" s="111"/>
-      <c r="P35" s="112"/>
-      <c r="Q35" s="110"/>
-      <c r="R35" s="111"/>
-      <c r="S35" s="111"/>
-      <c r="T35" s="111"/>
-      <c r="U35" s="112"/>
-      <c r="V35" s="110"/>
-      <c r="W35" s="111"/>
-      <c r="X35" s="111"/>
-      <c r="Y35" s="111"/>
-      <c r="Z35" s="112"/>
-      <c r="AA35" s="110"/>
-      <c r="AB35" s="112"/>
-      <c r="AC35" s="110"/>
-      <c r="AD35" s="111"/>
-      <c r="AE35" s="111"/>
-      <c r="AF35" s="111"/>
-      <c r="AG35" s="112"/>
-      <c r="AH35" s="110"/>
-      <c r="AI35" s="111"/>
-      <c r="AJ35" s="111"/>
-      <c r="AK35" s="112"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="104"/>
+      <c r="R35" s="105"/>
+      <c r="S35" s="105"/>
+      <c r="T35" s="105"/>
+      <c r="U35" s="106"/>
+      <c r="V35" s="104"/>
+      <c r="W35" s="105"/>
+      <c r="X35" s="105"/>
+      <c r="Y35" s="105"/>
+      <c r="Z35" s="106"/>
+      <c r="AA35" s="104"/>
+      <c r="AB35" s="106"/>
+      <c r="AC35" s="104"/>
+      <c r="AD35" s="105"/>
+      <c r="AE35" s="105"/>
+      <c r="AF35" s="105"/>
+      <c r="AG35" s="106"/>
+      <c r="AH35" s="104"/>
+      <c r="AI35" s="105"/>
+      <c r="AJ35" s="105"/>
+      <c r="AK35" s="106"/>
       <c r="AL35" s="6"/>
+      <c r="AP35" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="36" spans="2:42" ht="12" customHeight="1">
       <c r="B36" s="4"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="114"/>
-      <c r="L36" s="114"/>
-      <c r="M36" s="114"/>
-      <c r="N36" s="114"/>
-      <c r="O36" s="114"/>
-      <c r="P36" s="115"/>
-      <c r="Q36" s="113"/>
-      <c r="R36" s="114"/>
-      <c r="S36" s="114"/>
-      <c r="T36" s="114"/>
-      <c r="U36" s="115"/>
-      <c r="V36" s="113"/>
-      <c r="W36" s="114"/>
-      <c r="X36" s="114"/>
-      <c r="Y36" s="114"/>
-      <c r="Z36" s="115"/>
-      <c r="AA36" s="113"/>
-      <c r="AB36" s="115"/>
-      <c r="AC36" s="113"/>
-      <c r="AD36" s="114"/>
-      <c r="AE36" s="114"/>
-      <c r="AF36" s="114"/>
-      <c r="AG36" s="115"/>
-      <c r="AH36" s="113"/>
-      <c r="AI36" s="114"/>
-      <c r="AJ36" s="114"/>
-      <c r="AK36" s="115"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="108"/>
+      <c r="L36" s="108"/>
+      <c r="M36" s="108"/>
+      <c r="N36" s="108"/>
+      <c r="O36" s="108"/>
+      <c r="P36" s="109"/>
+      <c r="Q36" s="107"/>
+      <c r="R36" s="108"/>
+      <c r="S36" s="108"/>
+      <c r="T36" s="108"/>
+      <c r="U36" s="109"/>
+      <c r="V36" s="107"/>
+      <c r="W36" s="108"/>
+      <c r="X36" s="108"/>
+      <c r="Y36" s="108"/>
+      <c r="Z36" s="109"/>
+      <c r="AA36" s="107"/>
+      <c r="AB36" s="109"/>
+      <c r="AC36" s="107"/>
+      <c r="AD36" s="108"/>
+      <c r="AE36" s="108"/>
+      <c r="AF36" s="108"/>
+      <c r="AG36" s="109"/>
+      <c r="AH36" s="107"/>
+      <c r="AI36" s="108"/>
+      <c r="AJ36" s="108"/>
+      <c r="AK36" s="109"/>
       <c r="AL36" s="6"/>
     </row>
     <row r="37" spans="2:42" ht="12" customHeight="1">
       <c r="B37" s="4"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="112"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="111"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="111"/>
-      <c r="P37" s="112"/>
-      <c r="Q37" s="110"/>
-      <c r="R37" s="111"/>
-      <c r="S37" s="111"/>
-      <c r="T37" s="111"/>
-      <c r="U37" s="112"/>
-      <c r="V37" s="110"/>
-      <c r="W37" s="111"/>
-      <c r="X37" s="111"/>
-      <c r="Y37" s="111"/>
-      <c r="Z37" s="112"/>
-      <c r="AA37" s="110"/>
-      <c r="AB37" s="112"/>
-      <c r="AC37" s="110"/>
-      <c r="AD37" s="111"/>
-      <c r="AE37" s="111"/>
-      <c r="AF37" s="111"/>
-      <c r="AG37" s="112"/>
-      <c r="AH37" s="110"/>
-      <c r="AI37" s="111"/>
-      <c r="AJ37" s="111"/>
-      <c r="AK37" s="112"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="105"/>
+      <c r="O37" s="105"/>
+      <c r="P37" s="106"/>
+      <c r="Q37" s="104"/>
+      <c r="R37" s="105"/>
+      <c r="S37" s="105"/>
+      <c r="T37" s="105"/>
+      <c r="U37" s="106"/>
+      <c r="V37" s="104"/>
+      <c r="W37" s="105"/>
+      <c r="X37" s="105"/>
+      <c r="Y37" s="105"/>
+      <c r="Z37" s="106"/>
+      <c r="AA37" s="104"/>
+      <c r="AB37" s="106"/>
+      <c r="AC37" s="104"/>
+      <c r="AD37" s="105"/>
+      <c r="AE37" s="105"/>
+      <c r="AF37" s="105"/>
+      <c r="AG37" s="106"/>
+      <c r="AH37" s="104"/>
+      <c r="AI37" s="105"/>
+      <c r="AJ37" s="105"/>
+      <c r="AK37" s="106"/>
       <c r="AL37" s="6"/>
     </row>
     <row r="38" spans="2:42" ht="12" customHeight="1">
       <c r="B38" s="4"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="114"/>
-      <c r="N38" s="114"/>
-      <c r="O38" s="114"/>
-      <c r="P38" s="115"/>
-      <c r="Q38" s="113"/>
-      <c r="R38" s="114"/>
-      <c r="S38" s="114"/>
-      <c r="T38" s="114"/>
-      <c r="U38" s="115"/>
-      <c r="V38" s="113"/>
-      <c r="W38" s="114"/>
-      <c r="X38" s="114"/>
-      <c r="Y38" s="114"/>
-      <c r="Z38" s="115"/>
-      <c r="AA38" s="113"/>
-      <c r="AB38" s="115"/>
-      <c r="AC38" s="113"/>
-      <c r="AD38" s="114"/>
-      <c r="AE38" s="114"/>
-      <c r="AF38" s="114"/>
-      <c r="AG38" s="115"/>
-      <c r="AH38" s="113"/>
-      <c r="AI38" s="114"/>
-      <c r="AJ38" s="114"/>
-      <c r="AK38" s="115"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="108"/>
+      <c r="L38" s="108"/>
+      <c r="M38" s="108"/>
+      <c r="N38" s="108"/>
+      <c r="O38" s="108"/>
+      <c r="P38" s="109"/>
+      <c r="Q38" s="107"/>
+      <c r="R38" s="108"/>
+      <c r="S38" s="108"/>
+      <c r="T38" s="108"/>
+      <c r="U38" s="109"/>
+      <c r="V38" s="107"/>
+      <c r="W38" s="108"/>
+      <c r="X38" s="108"/>
+      <c r="Y38" s="108"/>
+      <c r="Z38" s="109"/>
+      <c r="AA38" s="107"/>
+      <c r="AB38" s="109"/>
+      <c r="AC38" s="107"/>
+      <c r="AD38" s="108"/>
+      <c r="AE38" s="108"/>
+      <c r="AF38" s="108"/>
+      <c r="AG38" s="109"/>
+      <c r="AH38" s="107"/>
+      <c r="AI38" s="108"/>
+      <c r="AJ38" s="108"/>
+      <c r="AK38" s="109"/>
       <c r="AL38" s="6"/>
     </row>
     <row r="39" spans="2:42" ht="12" customHeight="1">
       <c r="B39" s="4"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="111"/>
-      <c r="L39" s="111"/>
-      <c r="M39" s="111"/>
-      <c r="N39" s="111"/>
-      <c r="O39" s="111"/>
-      <c r="P39" s="112"/>
-      <c r="Q39" s="110"/>
-      <c r="R39" s="111"/>
-      <c r="S39" s="111"/>
-      <c r="T39" s="111"/>
-      <c r="U39" s="112"/>
-      <c r="V39" s="110"/>
-      <c r="W39" s="111"/>
-      <c r="X39" s="111"/>
-      <c r="Y39" s="111"/>
-      <c r="Z39" s="112"/>
-      <c r="AA39" s="110"/>
-      <c r="AB39" s="112"/>
-      <c r="AC39" s="110"/>
-      <c r="AD39" s="111"/>
-      <c r="AE39" s="111"/>
-      <c r="AF39" s="111"/>
-      <c r="AG39" s="112"/>
-      <c r="AH39" s="110"/>
-      <c r="AI39" s="111"/>
-      <c r="AJ39" s="111"/>
-      <c r="AK39" s="112"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="105"/>
+      <c r="N39" s="105"/>
+      <c r="O39" s="105"/>
+      <c r="P39" s="106"/>
+      <c r="Q39" s="104"/>
+      <c r="R39" s="105"/>
+      <c r="S39" s="105"/>
+      <c r="T39" s="105"/>
+      <c r="U39" s="106"/>
+      <c r="V39" s="104"/>
+      <c r="W39" s="105"/>
+      <c r="X39" s="105"/>
+      <c r="Y39" s="105"/>
+      <c r="Z39" s="106"/>
+      <c r="AA39" s="104"/>
+      <c r="AB39" s="106"/>
+      <c r="AC39" s="104"/>
+      <c r="AD39" s="105"/>
+      <c r="AE39" s="105"/>
+      <c r="AF39" s="105"/>
+      <c r="AG39" s="106"/>
+      <c r="AH39" s="104"/>
+      <c r="AI39" s="105"/>
+      <c r="AJ39" s="105"/>
+      <c r="AK39" s="106"/>
       <c r="AL39" s="6"/>
     </row>
     <row r="40" spans="2:42" ht="12" customHeight="1">
       <c r="B40" s="4"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="114"/>
-      <c r="L40" s="114"/>
-      <c r="M40" s="114"/>
-      <c r="N40" s="114"/>
-      <c r="O40" s="114"/>
-      <c r="P40" s="115"/>
-      <c r="Q40" s="113"/>
-      <c r="R40" s="114"/>
-      <c r="S40" s="114"/>
-      <c r="T40" s="114"/>
-      <c r="U40" s="115"/>
-      <c r="V40" s="113"/>
-      <c r="W40" s="114"/>
-      <c r="X40" s="114"/>
-      <c r="Y40" s="114"/>
-      <c r="Z40" s="115"/>
-      <c r="AA40" s="113"/>
-      <c r="AB40" s="115"/>
-      <c r="AC40" s="113"/>
-      <c r="AD40" s="114"/>
-      <c r="AE40" s="114"/>
-      <c r="AF40" s="114"/>
-      <c r="AG40" s="115"/>
-      <c r="AH40" s="113"/>
-      <c r="AI40" s="114"/>
-      <c r="AJ40" s="114"/>
-      <c r="AK40" s="115"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="108"/>
+      <c r="L40" s="108"/>
+      <c r="M40" s="108"/>
+      <c r="N40" s="108"/>
+      <c r="O40" s="108"/>
+      <c r="P40" s="109"/>
+      <c r="Q40" s="107"/>
+      <c r="R40" s="108"/>
+      <c r="S40" s="108"/>
+      <c r="T40" s="108"/>
+      <c r="U40" s="109"/>
+      <c r="V40" s="107"/>
+      <c r="W40" s="108"/>
+      <c r="X40" s="108"/>
+      <c r="Y40" s="108"/>
+      <c r="Z40" s="109"/>
+      <c r="AA40" s="107"/>
+      <c r="AB40" s="109"/>
+      <c r="AC40" s="107"/>
+      <c r="AD40" s="108"/>
+      <c r="AE40" s="108"/>
+      <c r="AF40" s="108"/>
+      <c r="AG40" s="109"/>
+      <c r="AH40" s="107"/>
+      <c r="AI40" s="108"/>
+      <c r="AJ40" s="108"/>
+      <c r="AK40" s="109"/>
       <c r="AL40" s="6"/>
     </row>
     <row r="41" spans="2:42" ht="12" customHeight="1">
@@ -12707,36 +12647,57 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="AO1:AR2"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AD4"/>
-    <mergeCell ref="AE3:AG4"/>
-    <mergeCell ref="AH3:AK4"/>
-    <mergeCell ref="AL3:AN4"/>
-    <mergeCell ref="AO3:AR4"/>
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="I1:R4"/>
-    <mergeCell ref="S1:U2"/>
-    <mergeCell ref="V1:AD2"/>
-    <mergeCell ref="AE1:AG2"/>
-    <mergeCell ref="AH1:AK2"/>
-    <mergeCell ref="AC21:AG22"/>
-    <mergeCell ref="AH21:AK22"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="AA19:AB20"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="AL1:AN2"/>
-    <mergeCell ref="B14:D15"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:I22"/>
-    <mergeCell ref="J21:P22"/>
-    <mergeCell ref="Q21:U22"/>
-    <mergeCell ref="V21:Z22"/>
-    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="Q19:U20"/>
+    <mergeCell ref="V19:Z20"/>
+    <mergeCell ref="M14:O15"/>
+    <mergeCell ref="AD14:AG15"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:I40"/>
+    <mergeCell ref="J39:P40"/>
+    <mergeCell ref="Q39:U40"/>
+    <mergeCell ref="V39:Z40"/>
+    <mergeCell ref="AA39:AB40"/>
+    <mergeCell ref="AC39:AG40"/>
+    <mergeCell ref="AH39:AK40"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:I38"/>
+    <mergeCell ref="J37:P38"/>
+    <mergeCell ref="Q37:U38"/>
+    <mergeCell ref="V37:Z38"/>
+    <mergeCell ref="AA37:AB38"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:I36"/>
+    <mergeCell ref="J35:P36"/>
+    <mergeCell ref="Q35:U36"/>
+    <mergeCell ref="V35:Z36"/>
+    <mergeCell ref="AA35:AB36"/>
+    <mergeCell ref="AC35:AG36"/>
+    <mergeCell ref="AH35:AK36"/>
+    <mergeCell ref="AC37:AG38"/>
+    <mergeCell ref="AH37:AK38"/>
+    <mergeCell ref="V31:Z32"/>
+    <mergeCell ref="AA31:AB32"/>
+    <mergeCell ref="AC31:AG32"/>
+    <mergeCell ref="AH31:AK32"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:I34"/>
+    <mergeCell ref="J33:P34"/>
+    <mergeCell ref="Q33:U34"/>
+    <mergeCell ref="V33:Z34"/>
+    <mergeCell ref="AA33:AB34"/>
+    <mergeCell ref="AC33:AG34"/>
+    <mergeCell ref="AH33:AK34"/>
+    <mergeCell ref="Q29:U30"/>
+    <mergeCell ref="V29:Z30"/>
+    <mergeCell ref="AA29:AB30"/>
+    <mergeCell ref="AC29:AG30"/>
+    <mergeCell ref="AH29:AK30"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:I28"/>
+    <mergeCell ref="J27:P28"/>
+    <mergeCell ref="Q27:U28"/>
+    <mergeCell ref="V27:Z28"/>
+    <mergeCell ref="AA27:AB28"/>
     <mergeCell ref="C31:D32"/>
     <mergeCell ref="E31:I32"/>
     <mergeCell ref="J31:P32"/>
@@ -12761,53 +12722,23 @@
     <mergeCell ref="C29:D30"/>
     <mergeCell ref="E29:I30"/>
     <mergeCell ref="J29:P30"/>
-    <mergeCell ref="Q29:U30"/>
-    <mergeCell ref="V29:Z30"/>
-    <mergeCell ref="AA29:AB30"/>
-    <mergeCell ref="AC29:AG30"/>
-    <mergeCell ref="AH29:AK30"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:I28"/>
-    <mergeCell ref="J27:P28"/>
-    <mergeCell ref="Q27:U28"/>
-    <mergeCell ref="V27:Z28"/>
-    <mergeCell ref="AA27:AB28"/>
-    <mergeCell ref="V31:Z32"/>
-    <mergeCell ref="AA31:AB32"/>
-    <mergeCell ref="AC31:AG32"/>
-    <mergeCell ref="AH31:AK32"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:I34"/>
-    <mergeCell ref="J33:P34"/>
-    <mergeCell ref="Q33:U34"/>
-    <mergeCell ref="V33:Z34"/>
-    <mergeCell ref="AA33:AB34"/>
-    <mergeCell ref="AC33:AG34"/>
-    <mergeCell ref="AH33:AK34"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:I36"/>
-    <mergeCell ref="J35:P36"/>
-    <mergeCell ref="Q35:U36"/>
-    <mergeCell ref="V35:Z36"/>
-    <mergeCell ref="AA35:AB36"/>
-    <mergeCell ref="AC35:AG36"/>
-    <mergeCell ref="AH35:AK36"/>
-    <mergeCell ref="AC37:AG38"/>
-    <mergeCell ref="AH37:AK38"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:I40"/>
-    <mergeCell ref="J39:P40"/>
-    <mergeCell ref="Q39:U40"/>
-    <mergeCell ref="V39:Z40"/>
-    <mergeCell ref="AA39:AB40"/>
-    <mergeCell ref="AC39:AG40"/>
-    <mergeCell ref="AH39:AK40"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:I38"/>
-    <mergeCell ref="J37:P38"/>
-    <mergeCell ref="Q37:U38"/>
-    <mergeCell ref="V37:Z38"/>
-    <mergeCell ref="AA37:AB38"/>
+    <mergeCell ref="AC21:AG22"/>
+    <mergeCell ref="AH21:AK22"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="AA19:AB20"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="AL1:AN2"/>
+    <mergeCell ref="B14:D15"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:I22"/>
+    <mergeCell ref="J21:P22"/>
+    <mergeCell ref="Q21:U22"/>
+    <mergeCell ref="V21:Z22"/>
+    <mergeCell ref="AA21:AB22"/>
     <mergeCell ref="AC19:AG20"/>
     <mergeCell ref="AH19:AK20"/>
     <mergeCell ref="E14:K15"/>
@@ -12815,13 +12746,23 @@
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="E19:I20"/>
     <mergeCell ref="J19:P20"/>
-    <mergeCell ref="Q19:U20"/>
-    <mergeCell ref="V19:Z20"/>
-    <mergeCell ref="M14:O15"/>
-    <mergeCell ref="AD14:AG15"/>
+    <mergeCell ref="AO1:AR2"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AD4"/>
+    <mergeCell ref="AE3:AG4"/>
+    <mergeCell ref="AH3:AK4"/>
+    <mergeCell ref="AL3:AN4"/>
+    <mergeCell ref="AO3:AR4"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="I1:R4"/>
+    <mergeCell ref="S1:U2"/>
+    <mergeCell ref="V1:AD2"/>
+    <mergeCell ref="AE1:AG2"/>
+    <mergeCell ref="AH1:AK2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12833,255 +12774,255 @@
   </sheetPr>
   <dimension ref="A1:AR41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AT25" sqref="AT25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="12" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:44" ht="12" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="76" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="48" t="s">
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="49"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="58" t="s">
+      <c r="T1" s="67"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="64" t="s">
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="65">
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="74">
         <v>42982</v>
       </c>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="55" t="s">
+      <c r="AI1" s="75"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="75"/>
+      <c r="AL1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="56" t="s">
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
     </row>
     <row r="2" spans="1:44" ht="12" customHeight="1">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
     </row>
     <row r="3" spans="1:44" ht="12" customHeight="1">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="48" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="49"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="64" t="s">
+      <c r="T3" s="67"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="75"/>
+      <c r="AJ3" s="75"/>
+      <c r="AK3" s="75"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="75"/>
+      <c r="AP3" s="75"/>
+      <c r="AQ3" s="75"/>
+      <c r="AR3" s="75"/>
     </row>
     <row r="4" spans="1:44" ht="12" customHeight="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="64"/>
-      <c r="AM4" s="64"/>
-      <c r="AN4" s="64"/>
-      <c r="AO4" s="66"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="66"/>
-      <c r="AR4" s="66"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="70"/>
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="75"/>
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="70"/>
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="70"/>
+      <c r="AO4" s="75"/>
+      <c r="AP4" s="75"/>
+      <c r="AQ4" s="75"/>
+      <c r="AR4" s="75"/>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="53"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="78"/>
     </row>
     <row r="7" spans="1:44" ht="12" customHeight="1">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="53"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="78"/>
     </row>
     <row r="12" spans="1:44" ht="12" customHeight="1">
       <c r="B12" s="1"/>
@@ -13135,20 +13076,20 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="90" t="s">
+      <c r="N13" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="90"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="101"/>
+      <c r="U13" s="101"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="101"/>
+      <c r="Y13" s="101"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
@@ -13176,18 +13117,18 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="101"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="101"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
@@ -13302,16 +13243,16 @@
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
-      <c r="W17" s="91" t="s">
+      <c r="W17" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="X17" s="92"/>
-      <c r="Y17" s="92"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="92"/>
-      <c r="AB17" s="92"/>
-      <c r="AC17" s="92"/>
-      <c r="AD17" s="93"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="90"/>
+      <c r="AB17" s="90"/>
+      <c r="AC17" s="90"/>
+      <c r="AD17" s="91"/>
       <c r="AE17" s="11"/>
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
@@ -13323,19 +13264,19 @@
     </row>
     <row r="18" spans="2:38" ht="12" customHeight="1">
       <c r="B18" s="10"/>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="89" t="s">
+      <c r="J18" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="89"/>
+      <c r="K18" s="88"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -13347,14 +13288,14 @@
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
-      <c r="W18" s="94"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="95"/>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="96"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="93"/>
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="93"/>
+      <c r="AD18" s="94"/>
       <c r="AE18" s="11"/>
       <c r="AF18" s="11"/>
       <c r="AG18" s="11"/>
@@ -13405,19 +13346,19 @@
     </row>
     <row r="20" spans="2:38" ht="12" customHeight="1">
       <c r="B20" s="10"/>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="89" t="s">
+      <c r="J20" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="89"/>
+      <c r="K20" s="88"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -13429,11 +13370,11 @@
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
-      <c r="W20" s="103" t="s">
+      <c r="W20" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
+      <c r="X20" s="88"/>
+      <c r="Y20" s="88"/>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
@@ -13527,23 +13468,23 @@
       <c r="AL22" s="22"/>
     </row>
     <row r="23" spans="2:38" ht="12" customHeight="1">
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="89" t="s">
+      <c r="L23" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
@@ -13552,28 +13493,28 @@
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
-      <c r="W23" s="91" t="s">
+      <c r="W23" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="X23" s="92"/>
-      <c r="Y23" s="92"/>
-      <c r="Z23" s="92"/>
-      <c r="AA23" s="93"/>
-      <c r="AB23" s="91" t="s">
+      <c r="X23" s="90"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="91"/>
+      <c r="AB23" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="AC23" s="92"/>
-      <c r="AD23" s="92"/>
-      <c r="AE23" s="92"/>
-      <c r="AF23" s="92"/>
-      <c r="AG23" s="93"/>
-      <c r="AH23" s="91" t="s">
+      <c r="AC23" s="90"/>
+      <c r="AD23" s="90"/>
+      <c r="AE23" s="90"/>
+      <c r="AF23" s="90"/>
+      <c r="AG23" s="91"/>
+      <c r="AH23" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="AI23" s="92"/>
-      <c r="AJ23" s="92"/>
-      <c r="AK23" s="92"/>
-      <c r="AL23" s="93"/>
+      <c r="AI23" s="90"/>
+      <c r="AJ23" s="90"/>
+      <c r="AK23" s="90"/>
+      <c r="AL23" s="91"/>
     </row>
     <row r="24" spans="2:38" ht="12" customHeight="1">
       <c r="B24" s="10"/>
@@ -13597,41 +13538,41 @@
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
-      <c r="W24" s="94"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="94"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="95"/>
-      <c r="AE24" s="95"/>
-      <c r="AF24" s="95"/>
-      <c r="AG24" s="96"/>
-      <c r="AH24" s="94"/>
-      <c r="AI24" s="95"/>
-      <c r="AJ24" s="95"/>
-      <c r="AK24" s="95"/>
-      <c r="AL24" s="96"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="93"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="94"/>
+      <c r="AB24" s="92"/>
+      <c r="AC24" s="93"/>
+      <c r="AD24" s="93"/>
+      <c r="AE24" s="93"/>
+      <c r="AF24" s="93"/>
+      <c r="AG24" s="94"/>
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="93"/>
+      <c r="AJ24" s="93"/>
+      <c r="AK24" s="93"/>
+      <c r="AL24" s="94"/>
     </row>
     <row r="25" spans="2:38" ht="12" customHeight="1">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="89" t="s">
+      <c r="L25" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
@@ -13640,28 +13581,28 @@
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
-      <c r="W25" s="139" t="s">
+      <c r="W25" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="X25" s="140"/>
-      <c r="Y25" s="140"/>
-      <c r="Z25" s="140"/>
-      <c r="AA25" s="141"/>
-      <c r="AB25" s="145">
+      <c r="X25" s="162"/>
+      <c r="Y25" s="162"/>
+      <c r="Z25" s="162"/>
+      <c r="AA25" s="163"/>
+      <c r="AB25" s="133">
         <v>203</v>
       </c>
-      <c r="AC25" s="146"/>
-      <c r="AD25" s="146"/>
-      <c r="AE25" s="147"/>
+      <c r="AC25" s="134"/>
+      <c r="AD25" s="134"/>
+      <c r="AE25" s="135"/>
       <c r="AF25" s="18"/>
       <c r="AG25" s="19"/>
-      <c r="AH25" s="151">
+      <c r="AH25" s="139">
         <v>500</v>
       </c>
-      <c r="AI25" s="152"/>
-      <c r="AJ25" s="152"/>
-      <c r="AK25" s="152"/>
-      <c r="AL25" s="153"/>
+      <c r="AI25" s="140"/>
+      <c r="AJ25" s="140"/>
+      <c r="AK25" s="140"/>
+      <c r="AL25" s="141"/>
     </row>
     <row r="26" spans="2:38" ht="12" customHeight="1">
       <c r="B26" s="10"/>
@@ -13685,41 +13626,41 @@
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
-      <c r="W26" s="142"/>
-      <c r="X26" s="143"/>
-      <c r="Y26" s="143"/>
-      <c r="Z26" s="143"/>
-      <c r="AA26" s="144"/>
-      <c r="AB26" s="148"/>
-      <c r="AC26" s="149"/>
-      <c r="AD26" s="149"/>
-      <c r="AE26" s="150"/>
+      <c r="W26" s="164"/>
+      <c r="X26" s="165"/>
+      <c r="Y26" s="165"/>
+      <c r="Z26" s="165"/>
+      <c r="AA26" s="166"/>
+      <c r="AB26" s="136"/>
+      <c r="AC26" s="137"/>
+      <c r="AD26" s="137"/>
+      <c r="AE26" s="138"/>
       <c r="AF26" s="14"/>
       <c r="AG26" s="15"/>
-      <c r="AH26" s="154"/>
-      <c r="AI26" s="155"/>
-      <c r="AJ26" s="155"/>
-      <c r="AK26" s="155"/>
-      <c r="AL26" s="156"/>
+      <c r="AH26" s="142"/>
+      <c r="AI26" s="143"/>
+      <c r="AJ26" s="143"/>
+      <c r="AK26" s="143"/>
+      <c r="AL26" s="144"/>
     </row>
     <row r="27" spans="2:38" ht="12" customHeight="1">
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="89" t="s">
+      <c r="L27" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -13728,28 +13669,28 @@
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
-      <c r="W27" s="139" t="s">
+      <c r="W27" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="X27" s="140"/>
-      <c r="Y27" s="140"/>
-      <c r="Z27" s="140"/>
-      <c r="AA27" s="141"/>
-      <c r="AB27" s="145">
+      <c r="X27" s="162"/>
+      <c r="Y27" s="162"/>
+      <c r="Z27" s="162"/>
+      <c r="AA27" s="163"/>
+      <c r="AB27" s="133">
         <v>204</v>
       </c>
-      <c r="AC27" s="146"/>
-      <c r="AD27" s="146"/>
-      <c r="AE27" s="147"/>
+      <c r="AC27" s="134"/>
+      <c r="AD27" s="134"/>
+      <c r="AE27" s="135"/>
       <c r="AF27" s="18"/>
       <c r="AG27" s="19"/>
-      <c r="AH27" s="151">
+      <c r="AH27" s="139">
         <v>500</v>
       </c>
-      <c r="AI27" s="152"/>
-      <c r="AJ27" s="152"/>
-      <c r="AK27" s="152"/>
-      <c r="AL27" s="153"/>
+      <c r="AI27" s="140"/>
+      <c r="AJ27" s="140"/>
+      <c r="AK27" s="140"/>
+      <c r="AL27" s="141"/>
     </row>
     <row r="28" spans="2:38" ht="12" customHeight="1">
       <c r="B28" s="10"/>
@@ -13773,30 +13714,30 @@
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
-      <c r="W28" s="142"/>
-      <c r="X28" s="143"/>
-      <c r="Y28" s="143"/>
-      <c r="Z28" s="143"/>
-      <c r="AA28" s="144"/>
-      <c r="AB28" s="148"/>
-      <c r="AC28" s="149"/>
-      <c r="AD28" s="149"/>
-      <c r="AE28" s="150"/>
+      <c r="W28" s="164"/>
+      <c r="X28" s="165"/>
+      <c r="Y28" s="165"/>
+      <c r="Z28" s="165"/>
+      <c r="AA28" s="166"/>
+      <c r="AB28" s="136"/>
+      <c r="AC28" s="137"/>
+      <c r="AD28" s="137"/>
+      <c r="AE28" s="138"/>
       <c r="AF28" s="14"/>
       <c r="AG28" s="15"/>
-      <c r="AH28" s="154"/>
-      <c r="AI28" s="155"/>
-      <c r="AJ28" s="155"/>
-      <c r="AK28" s="155"/>
-      <c r="AL28" s="156"/>
+      <c r="AH28" s="142"/>
+      <c r="AI28" s="143"/>
+      <c r="AJ28" s="143"/>
+      <c r="AK28" s="143"/>
+      <c r="AL28" s="144"/>
     </row>
     <row r="29" spans="2:38" ht="12" customHeight="1">
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -13814,28 +13755,28 @@
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
-      <c r="W29" s="139" t="s">
+      <c r="W29" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="X29" s="140"/>
-      <c r="Y29" s="140"/>
-      <c r="Z29" s="140"/>
-      <c r="AA29" s="141"/>
-      <c r="AB29" s="145">
+      <c r="X29" s="162"/>
+      <c r="Y29" s="162"/>
+      <c r="Z29" s="162"/>
+      <c r="AA29" s="163"/>
+      <c r="AB29" s="133">
         <v>205</v>
       </c>
-      <c r="AC29" s="146"/>
-      <c r="AD29" s="146"/>
-      <c r="AE29" s="147"/>
+      <c r="AC29" s="134"/>
+      <c r="AD29" s="134"/>
+      <c r="AE29" s="135"/>
       <c r="AF29" s="18"/>
       <c r="AG29" s="19"/>
-      <c r="AH29" s="151">
+      <c r="AH29" s="139">
         <v>500</v>
       </c>
-      <c r="AI29" s="152"/>
-      <c r="AJ29" s="152"/>
-      <c r="AK29" s="152"/>
-      <c r="AL29" s="153"/>
+      <c r="AI29" s="140"/>
+      <c r="AJ29" s="140"/>
+      <c r="AK29" s="140"/>
+      <c r="AL29" s="141"/>
     </row>
     <row r="30" spans="2:38" ht="12" customHeight="1">
       <c r="B30" s="10"/>
@@ -13859,30 +13800,30 @@
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
-      <c r="W30" s="142"/>
-      <c r="X30" s="143"/>
-      <c r="Y30" s="143"/>
-      <c r="Z30" s="143"/>
-      <c r="AA30" s="144"/>
-      <c r="AB30" s="148"/>
-      <c r="AC30" s="149"/>
-      <c r="AD30" s="149"/>
-      <c r="AE30" s="150"/>
+      <c r="W30" s="164"/>
+      <c r="X30" s="165"/>
+      <c r="Y30" s="165"/>
+      <c r="Z30" s="165"/>
+      <c r="AA30" s="166"/>
+      <c r="AB30" s="136"/>
+      <c r="AC30" s="137"/>
+      <c r="AD30" s="137"/>
+      <c r="AE30" s="138"/>
       <c r="AF30" s="14"/>
       <c r="AG30" s="15"/>
-      <c r="AH30" s="154"/>
-      <c r="AI30" s="155"/>
-      <c r="AJ30" s="155"/>
-      <c r="AK30" s="155"/>
-      <c r="AL30" s="156"/>
+      <c r="AH30" s="142"/>
+      <c r="AI30" s="143"/>
+      <c r="AJ30" s="143"/>
+      <c r="AK30" s="143"/>
+      <c r="AL30" s="144"/>
     </row>
     <row r="31" spans="2:38" ht="12" customHeight="1">
-      <c r="B31" s="103" t="s">
+      <c r="B31" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -13948,26 +13889,26 @@
       <c r="AC32" s="21"/>
       <c r="AD32" s="21"/>
       <c r="AE32" s="21"/>
-      <c r="AF32" s="123" t="s">
+      <c r="AF32" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="AG32" s="124"/>
-      <c r="AH32" s="127">
+      <c r="AG32" s="146"/>
+      <c r="AH32" s="149">
         <f>AH25+AH27+AH29</f>
         <v>1500</v>
       </c>
-      <c r="AI32" s="128"/>
-      <c r="AJ32" s="128"/>
-      <c r="AK32" s="128"/>
-      <c r="AL32" s="129"/>
+      <c r="AI32" s="150"/>
+      <c r="AJ32" s="150"/>
+      <c r="AK32" s="150"/>
+      <c r="AL32" s="151"/>
     </row>
     <row r="33" spans="2:38" ht="12" customHeight="1">
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -13994,13 +13935,13 @@
       <c r="AC33" s="24"/>
       <c r="AD33" s="24"/>
       <c r="AE33" s="24"/>
-      <c r="AF33" s="125"/>
-      <c r="AG33" s="126"/>
-      <c r="AH33" s="130"/>
-      <c r="AI33" s="131"/>
-      <c r="AJ33" s="131"/>
-      <c r="AK33" s="131"/>
-      <c r="AL33" s="132"/>
+      <c r="AF33" s="147"/>
+      <c r="AG33" s="148"/>
+      <c r="AH33" s="152"/>
+      <c r="AI33" s="153"/>
+      <c r="AJ33" s="153"/>
+      <c r="AK33" s="153"/>
+      <c r="AL33" s="154"/>
     </row>
     <row r="34" spans="2:38" ht="12" customHeight="1">
       <c r="B34" s="10"/>
@@ -14035,13 +13976,13 @@
       <c r="AE34" s="11"/>
       <c r="AF34" s="11"/>
       <c r="AG34" s="11"/>
-      <c r="AH34" s="157" t="s">
+      <c r="AH34" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="AI34" s="157"/>
-      <c r="AJ34" s="157"/>
-      <c r="AK34" s="157"/>
-      <c r="AL34" s="158"/>
+      <c r="AI34" s="129"/>
+      <c r="AJ34" s="129"/>
+      <c r="AK34" s="129"/>
+      <c r="AL34" s="130"/>
     </row>
     <row r="35" spans="2:38" ht="12" customHeight="1">
       <c r="B35" s="10"/>
@@ -14076,11 +14017,11 @@
       <c r="AE35" s="11"/>
       <c r="AF35" s="11"/>
       <c r="AG35" s="11"/>
-      <c r="AH35" s="159"/>
-      <c r="AI35" s="159"/>
-      <c r="AJ35" s="159"/>
-      <c r="AK35" s="159"/>
-      <c r="AL35" s="160"/>
+      <c r="AH35" s="131"/>
+      <c r="AI35" s="131"/>
+      <c r="AJ35" s="131"/>
+      <c r="AK35" s="131"/>
+      <c r="AL35" s="132"/>
     </row>
     <row r="36" spans="2:38" ht="12" customHeight="1">
       <c r="B36" s="10"/>
@@ -14225,23 +14166,23 @@
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
       <c r="Z39" s="11"/>
-      <c r="AA39" s="91" t="s">
+      <c r="AA39" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="AB39" s="92"/>
-      <c r="AC39" s="93"/>
+      <c r="AB39" s="90"/>
+      <c r="AC39" s="91"/>
       <c r="AD39" s="11"/>
-      <c r="AE39" s="133" t="s">
+      <c r="AE39" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="AF39" s="134"/>
-      <c r="AG39" s="135"/>
+      <c r="AF39" s="156"/>
+      <c r="AG39" s="157"/>
       <c r="AH39" s="11"/>
-      <c r="AI39" s="91" t="s">
+      <c r="AI39" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="AJ39" s="92"/>
-      <c r="AK39" s="93"/>
+      <c r="AJ39" s="90"/>
+      <c r="AK39" s="91"/>
       <c r="AL39" s="12"/>
     </row>
     <row r="40" spans="2:38" ht="12" customHeight="1">
@@ -14270,17 +14211,17 @@
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
       <c r="Z40" s="11"/>
-      <c r="AA40" s="94"/>
-      <c r="AB40" s="95"/>
-      <c r="AC40" s="96"/>
+      <c r="AA40" s="92"/>
+      <c r="AB40" s="93"/>
+      <c r="AC40" s="94"/>
       <c r="AD40" s="11"/>
-      <c r="AE40" s="136"/>
-      <c r="AF40" s="137"/>
-      <c r="AG40" s="138"/>
+      <c r="AE40" s="158"/>
+      <c r="AF40" s="159"/>
+      <c r="AG40" s="160"/>
       <c r="AH40" s="11"/>
-      <c r="AI40" s="94"/>
-      <c r="AJ40" s="95"/>
-      <c r="AK40" s="96"/>
+      <c r="AI40" s="92"/>
+      <c r="AJ40" s="93"/>
+      <c r="AK40" s="94"/>
       <c r="AL40" s="12"/>
     </row>
     <row r="41" spans="2:38" ht="12" customHeight="1">
@@ -14324,6 +14265,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="AF32:AG33"/>
+    <mergeCell ref="AH32:AL33"/>
+    <mergeCell ref="AE39:AG40"/>
+    <mergeCell ref="AI39:AK40"/>
+    <mergeCell ref="N13:Y14"/>
+    <mergeCell ref="W27:AA28"/>
+    <mergeCell ref="AB27:AE28"/>
+    <mergeCell ref="AH27:AL28"/>
+    <mergeCell ref="W29:AA30"/>
+    <mergeCell ref="AB29:AE30"/>
+    <mergeCell ref="AH29:AL30"/>
+    <mergeCell ref="W17:AD18"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="W25:AA26"/>
+    <mergeCell ref="W23:AA24"/>
+    <mergeCell ref="AB23:AG24"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="AH23:AL24"/>
+    <mergeCell ref="AB25:AE26"/>
+    <mergeCell ref="AH25:AL26"/>
+    <mergeCell ref="AO1:AR2"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AD4"/>
+    <mergeCell ref="AE3:AG4"/>
+    <mergeCell ref="AH3:AK4"/>
+    <mergeCell ref="AL3:AN4"/>
+    <mergeCell ref="AO3:AR4"/>
+    <mergeCell ref="AH1:AK2"/>
     <mergeCell ref="AA39:AC40"/>
     <mergeCell ref="AH34:AL35"/>
     <mergeCell ref="A1:H4"/>
@@ -14340,42 +14317,6 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="AH23:AL24"/>
-    <mergeCell ref="AB25:AE26"/>
-    <mergeCell ref="AH25:AL26"/>
-    <mergeCell ref="AO1:AR2"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AD4"/>
-    <mergeCell ref="AE3:AG4"/>
-    <mergeCell ref="AH3:AK4"/>
-    <mergeCell ref="AL3:AN4"/>
-    <mergeCell ref="AO3:AR4"/>
-    <mergeCell ref="AH1:AK2"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="AF32:AG33"/>
-    <mergeCell ref="AH32:AL33"/>
-    <mergeCell ref="AE39:AG40"/>
-    <mergeCell ref="AI39:AK40"/>
-    <mergeCell ref="N13:Y14"/>
-    <mergeCell ref="W27:AA28"/>
-    <mergeCell ref="AB27:AE28"/>
-    <mergeCell ref="AH27:AL28"/>
-    <mergeCell ref="W29:AA30"/>
-    <mergeCell ref="AB29:AE30"/>
-    <mergeCell ref="AH29:AL30"/>
-    <mergeCell ref="W17:AD18"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="W25:AA26"/>
-    <mergeCell ref="W23:AA24"/>
-    <mergeCell ref="AB23:AG24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" fitToHeight="0" orientation="portrait" r:id="rId1"/>
